--- a/BackTest/2019-10-18 BackTest GXC.xlsx
+++ b/BackTest/2019-10-18 BackTest GXC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>33</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L12" t="n">
         <v>588.3</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>46</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L13" t="n">
         <v>589.3</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>58</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-14.8936170212766</v>
+      </c>
       <c r="L14" t="n">
         <v>588.6</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>66</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-27.27272727272727</v>
+      </c>
       <c r="L15" t="n">
         <v>587.1</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>70</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-18.64406779661017</v>
+      </c>
       <c r="L16" t="n">
         <v>586</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>74</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L17" t="n">
         <v>585.3</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>74</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-25</v>
+      </c>
       <c r="L18" t="n">
         <v>584.6</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>76</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-17.85714285714286</v>
+      </c>
       <c r="L19" t="n">
         <v>583.4</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>76</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>2.222222222222222</v>
+      </c>
       <c r="L20" t="n">
         <v>582.4</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>76</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>6.976744186046512</v>
+      </c>
       <c r="L21" t="n">
         <v>582.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>76</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>582.8</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>76</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L23" t="n">
         <v>581.8</v>
@@ -1466,7 +1488,7 @@
         <v>76</v>
       </c>
       <c r="K24" t="n">
-        <v>-7.692307692307693</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
         <v>582</v>
@@ -1515,7 +1537,7 @@
         <v>78</v>
       </c>
       <c r="K25" t="n">
-        <v>-10.44776119402985</v>
+        <v>50</v>
       </c>
       <c r="L25" t="n">
         <v>582.8</v>
@@ -1564,7 +1586,7 @@
         <v>78</v>
       </c>
       <c r="K26" t="n">
-        <v>-10.44776119402985</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>583.2</v>
@@ -1613,7 +1635,7 @@
         <v>79</v>
       </c>
       <c r="K27" t="n">
-        <v>-8.823529411764707</v>
+        <v>20</v>
       </c>
       <c r="L27" t="n">
         <v>583.3</v>
@@ -1662,7 +1684,7 @@
         <v>79</v>
       </c>
       <c r="K28" t="n">
-        <v>-8.823529411764707</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>583.4</v>
@@ -1711,7 +1733,7 @@
         <v>79</v>
       </c>
       <c r="K29" t="n">
-        <v>-21.31147540983606</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>583.3</v>
@@ -1760,7 +1782,7 @@
         <v>80</v>
       </c>
       <c r="K30" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>583.3</v>
@@ -1809,7 +1831,7 @@
         <v>81</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L31" t="n">
         <v>583.4</v>
@@ -1860,7 +1882,7 @@
         <v>82</v>
       </c>
       <c r="K32" t="n">
-        <v>6.122448979591836</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>583.4</v>
@@ -1962,7 +1984,7 @@
         <v>85</v>
       </c>
       <c r="K34" t="n">
-        <v>-3.703703703703703</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L34" t="n">
         <v>582.8</v>
@@ -2013,7 +2035,7 @@
         <v>86</v>
       </c>
       <c r="K35" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>582.8</v>
@@ -2064,7 +2086,7 @@
         <v>87</v>
       </c>
       <c r="K36" t="n">
-        <v>17.64705882352941</v>
+        <v>-25</v>
       </c>
       <c r="L36" t="n">
         <v>582.7</v>
@@ -2115,7 +2137,7 @@
         <v>87</v>
       </c>
       <c r="K37" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L37" t="n">
         <v>582.5</v>
@@ -2166,7 +2188,7 @@
         <v>88</v>
       </c>
       <c r="K38" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L38" t="n">
         <v>582.2</v>
@@ -2217,7 +2239,7 @@
         <v>92</v>
       </c>
       <c r="K39" t="n">
-        <v>-50</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L39" t="n">
         <v>581.5</v>
@@ -2268,7 +2290,7 @@
         <v>96</v>
       </c>
       <c r="K40" t="n">
-        <v>-60</v>
+        <v>-86.66666666666667</v>
       </c>
       <c r="L40" t="n">
         <v>580.3</v>
@@ -2319,7 +2341,7 @@
         <v>104</v>
       </c>
       <c r="K41" t="n">
-        <v>-14.28571428571428</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L41" t="n">
         <v>579.8</v>
@@ -2370,7 +2392,7 @@
         <v>106</v>
       </c>
       <c r="K42" t="n">
-        <v>-6.666666666666667</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L42" t="n">
         <v>579.6</v>
@@ -2421,7 +2443,7 @@
         <v>106</v>
       </c>
       <c r="K43" t="n">
-        <v>-6.666666666666667</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L43" t="n">
         <v>579.7</v>
@@ -2472,7 +2494,7 @@
         <v>106</v>
       </c>
       <c r="K44" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>579.8</v>
@@ -2523,7 +2545,7 @@
         <v>108</v>
       </c>
       <c r="K45" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L45" t="n">
         <v>580</v>
@@ -2574,7 +2596,7 @@
         <v>111</v>
       </c>
       <c r="K46" t="n">
-        <v>15.15151515151515</v>
+        <v>25</v>
       </c>
       <c r="L46" t="n">
         <v>580.6</v>
@@ -2625,7 +2647,7 @@
         <v>116</v>
       </c>
       <c r="K47" t="n">
-        <v>-2.702702702702703</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L47" t="n">
         <v>580.7</v>
@@ -2676,7 +2698,7 @@
         <v>118</v>
       </c>
       <c r="K48" t="n">
-        <v>2.564102564102564</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L48" t="n">
         <v>581.1</v>
@@ -2727,7 +2749,7 @@
         <v>125</v>
       </c>
       <c r="K49" t="n">
-        <v>17.39130434782609</v>
+        <v>65.51724137931035</v>
       </c>
       <c r="L49" t="n">
         <v>582.6</v>
@@ -2778,7 +2800,7 @@
         <v>128</v>
       </c>
       <c r="K50" t="n">
-        <v>8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>584.2</v>
@@ -2829,7 +2851,7 @@
         <v>128</v>
       </c>
       <c r="K51" t="n">
-        <v>6.382978723404255</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L51" t="n">
         <v>585</v>
@@ -2880,7 +2902,7 @@
         <v>128</v>
       </c>
       <c r="K52" t="n">
-        <v>8.695652173913043</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L52" t="n">
         <v>585.6</v>
@@ -2931,7 +2953,7 @@
         <v>128</v>
       </c>
       <c r="K53" t="n">
-        <v>16.27906976744186</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L53" t="n">
         <v>586.2</v>
@@ -2982,7 +3004,7 @@
         <v>128</v>
       </c>
       <c r="K54" t="n">
-        <v>16.27906976744186</v>
+        <v>20</v>
       </c>
       <c r="L54" t="n">
         <v>586.8</v>
@@ -3033,7 +3055,7 @@
         <v>130</v>
       </c>
       <c r="K55" t="n">
-        <v>18.18181818181818</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L55" t="n">
         <v>587.4</v>
@@ -3084,7 +3106,7 @@
         <v>131</v>
       </c>
       <c r="K56" t="n">
-        <v>18.18181818181818</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L56" t="n">
         <v>587.6</v>
@@ -3135,7 +3157,7 @@
         <v>133</v>
       </c>
       <c r="K57" t="n">
-        <v>13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L57" t="n">
         <v>588.1</v>
@@ -3186,7 +3208,7 @@
         <v>135</v>
       </c>
       <c r="K58" t="n">
-        <v>19.14893617021277</v>
+        <v>-20</v>
       </c>
       <c r="L58" t="n">
         <v>588.6</v>
@@ -3237,7 +3259,7 @@
         <v>136</v>
       </c>
       <c r="K59" t="n">
-        <v>31.81818181818182</v>
+        <v>25</v>
       </c>
       <c r="L59" t="n">
         <v>588.5</v>
@@ -3288,7 +3310,7 @@
         <v>136</v>
       </c>
       <c r="K60" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="L60" t="n">
         <v>588.7</v>
@@ -3339,7 +3361,7 @@
         <v>136</v>
       </c>
       <c r="K61" t="n">
-        <v>31.25</v>
+        <v>25</v>
       </c>
       <c r="L61" t="n">
         <v>588.9</v>
@@ -3390,7 +3412,7 @@
         <v>138</v>
       </c>
       <c r="K62" t="n">
-        <v>31.25</v>
+        <v>40</v>
       </c>
       <c r="L62" t="n">
         <v>589.3</v>
@@ -3441,7 +3463,7 @@
         <v>138</v>
       </c>
       <c r="K63" t="n">
-        <v>31.25</v>
+        <v>40</v>
       </c>
       <c r="L63" t="n">
         <v>589.7</v>
@@ -3492,7 +3514,7 @@
         <v>139</v>
       </c>
       <c r="K64" t="n">
-        <v>27.27272727272727</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L64" t="n">
         <v>590</v>
@@ -3543,7 +3565,7 @@
         <v>139</v>
       </c>
       <c r="K65" t="n">
-        <v>22.58064516129032</v>
+        <v>25</v>
       </c>
       <c r="L65" t="n">
         <v>590.1</v>
@@ -3594,7 +3616,7 @@
         <v>139</v>
       </c>
       <c r="K66" t="n">
-        <v>14.28571428571428</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L66" t="n">
         <v>590.3</v>
@@ -3645,7 +3667,7 @@
         <v>139</v>
       </c>
       <c r="K67" t="n">
-        <v>39.1304347826087</v>
+        <v>50</v>
       </c>
       <c r="L67" t="n">
         <v>590.7</v>
@@ -3747,7 +3769,7 @@
         <v>139</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>591</v>
@@ -3798,7 +3820,7 @@
         <v>140</v>
       </c>
       <c r="K70" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>591</v>
@@ -3849,7 +3871,7 @@
         <v>141</v>
       </c>
       <c r="K71" t="n">
-        <v>23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>591.1</v>
@@ -3900,7 +3922,7 @@
         <v>141</v>
       </c>
       <c r="K72" t="n">
-        <v>23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L72" t="n">
         <v>591</v>
@@ -3951,7 +3973,7 @@
         <v>141</v>
       </c>
       <c r="K73" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>590.9</v>
@@ -4002,7 +4024,7 @@
         <v>141</v>
       </c>
       <c r="K74" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>590.9</v>
@@ -4053,7 +4075,7 @@
         <v>141</v>
       </c>
       <c r="K75" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>590.9</v>
@@ -4104,7 +4126,7 @@
         <v>141</v>
       </c>
       <c r="K76" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>590.9</v>
@@ -4155,7 +4177,7 @@
         <v>142</v>
       </c>
       <c r="K77" t="n">
-        <v>55.55555555555556</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>591</v>
@@ -4206,7 +4228,7 @@
         <v>143</v>
       </c>
       <c r="K78" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>591</v>
@@ -4257,7 +4279,7 @@
         <v>143</v>
       </c>
       <c r="K79" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>591</v>
@@ -4308,7 +4330,7 @@
         <v>143</v>
       </c>
       <c r="K80" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>591.1</v>
@@ -4359,7 +4381,7 @@
         <v>144</v>
       </c>
       <c r="K81" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L81" t="n">
         <v>591.2</v>
@@ -4410,7 +4432,7 @@
         <v>145</v>
       </c>
       <c r="K82" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>591.2</v>
@@ -4461,7 +4483,7 @@
         <v>145</v>
       </c>
       <c r="K83" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>591.2</v>
@@ -4563,7 +4585,7 @@
         <v>150</v>
       </c>
       <c r="K85" t="n">
-        <v>45.45454545454545</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L85" t="n">
         <v>591.7</v>
@@ -4614,7 +4636,7 @@
         <v>156</v>
       </c>
       <c r="K86" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L86" t="n">
         <v>591.6</v>
@@ -4665,7 +4687,7 @@
         <v>156</v>
       </c>
       <c r="K87" t="n">
-        <v>-5.88235294117647</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L87" t="n">
         <v>591.4</v>
@@ -4767,7 +4789,7 @@
         <v>158</v>
       </c>
       <c r="K89" t="n">
-        <v>-5.263157894736842</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L89" t="n">
         <v>591.3</v>
@@ -4818,7 +4840,7 @@
         <v>159</v>
       </c>
       <c r="K90" t="n">
-        <v>5.263157894736842</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L90" t="n">
         <v>591.3</v>
@@ -5022,7 +5044,7 @@
         <v>159</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L94" t="n">
         <v>591.2</v>
@@ -5073,7 +5095,7 @@
         <v>159</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>590.7</v>
@@ -5124,7 +5146,7 @@
         <v>159</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L96" t="n">
         <v>590.8</v>
@@ -5175,7 +5197,7 @@
         <v>159</v>
       </c>
       <c r="K97" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>590.9</v>
@@ -5226,7 +5248,7 @@
         <v>159</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L98" t="n">
         <v>590.9</v>
@@ -5276,9 +5298,7 @@
       <c r="J99" t="n">
         <v>159</v>
       </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>591</v>
       </c>
@@ -5327,9 +5347,7 @@
       <c r="J100" t="n">
         <v>159</v>
       </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>591</v>
       </c>
@@ -5378,9 +5396,7 @@
       <c r="J101" t="n">
         <v>159</v>
       </c>
-      <c r="K101" t="n">
-        <v>-6.666666666666667</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>591</v>
       </c>
@@ -5429,9 +5445,7 @@
       <c r="J102" t="n">
         <v>159</v>
       </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>591</v>
       </c>
@@ -5480,9 +5494,7 @@
       <c r="J103" t="n">
         <v>159</v>
       </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>591</v>
       </c>
@@ -5531,9 +5543,7 @@
       <c r="J104" t="n">
         <v>159</v>
       </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>591</v>
       </c>
@@ -5582,9 +5592,7 @@
       <c r="J105" t="n">
         <v>159</v>
       </c>
-      <c r="K105" t="n">
-        <v>-55.55555555555556</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>591</v>
       </c>
@@ -5633,9 +5641,7 @@
       <c r="J106" t="n">
         <v>159</v>
       </c>
-      <c r="K106" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>591</v>
       </c>
@@ -5684,9 +5690,7 @@
       <c r="J107" t="n">
         <v>159</v>
       </c>
-      <c r="K107" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>591</v>
       </c>
@@ -5735,9 +5739,7 @@
       <c r="J108" t="n">
         <v>159</v>
       </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>591</v>
       </c>
@@ -5786,9 +5788,7 @@
       <c r="J109" t="n">
         <v>159</v>
       </c>
-      <c r="K109" t="n">
-        <v>100</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>591</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>202</v>
       </c>
       <c r="K121" t="n">
-        <v>-2.325581395348837</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L121" t="n">
         <v>588.3</v>
@@ -6446,7 +6446,7 @@
         <v>203</v>
       </c>
       <c r="K122" t="n">
-        <v>-4.545454545454546</v>
+        <v>-6.25</v>
       </c>
       <c r="L122" t="n">
         <v>588.7</v>
@@ -6497,7 +6497,7 @@
         <v>205</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L123" t="n">
         <v>588.7</v>
@@ -6548,7 +6548,7 @@
         <v>207</v>
       </c>
       <c r="K124" t="n">
-        <v>4.166666666666666</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L124" t="n">
         <v>589.5</v>
@@ -6599,7 +6599,7 @@
         <v>218</v>
       </c>
       <c r="K125" t="n">
-        <v>-15.25423728813559</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L125" t="n">
         <v>589.2</v>
@@ -6650,7 +6650,7 @@
         <v>221</v>
       </c>
       <c r="K126" t="n">
-        <v>-9.67741935483871</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L126" t="n">
         <v>588.6</v>
@@ -6701,7 +6701,7 @@
         <v>226</v>
       </c>
       <c r="K127" t="n">
-        <v>-1.492537313432836</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L127" t="n">
         <v>588.4</v>
@@ -6752,7 +6752,7 @@
         <v>227</v>
       </c>
       <c r="K128" t="n">
-        <v>-2.941176470588235</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L128" t="n">
         <v>588.1</v>
@@ -6803,7 +6803,7 @@
         <v>227</v>
       </c>
       <c r="K129" t="n">
-        <v>-2.941176470588235</v>
+        <v>-4</v>
       </c>
       <c r="L129" t="n">
         <v>588.8</v>
@@ -6854,7 +6854,7 @@
         <v>227</v>
       </c>
       <c r="K130" t="n">
-        <v>-2.941176470588235</v>
+        <v>-4</v>
       </c>
       <c r="L130" t="n">
         <v>588.7</v>
@@ -6905,7 +6905,7 @@
         <v>232</v>
       </c>
       <c r="K131" t="n">
-        <v>-9.58904109589041</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L131" t="n">
         <v>588.1</v>
@@ -6956,7 +6956,7 @@
         <v>234</v>
       </c>
       <c r="K132" t="n">
-        <v>1.449275362318841</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L132" t="n">
         <v>587.8</v>
@@ -7007,7 +7007,7 @@
         <v>240</v>
       </c>
       <c r="K133" t="n">
-        <v>1.449275362318841</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L133" t="n">
         <v>587.9</v>
@@ -7058,7 +7058,7 @@
         <v>247</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L134" t="n">
         <v>587.1</v>
@@ -7109,7 +7109,7 @@
         <v>249</v>
       </c>
       <c r="K135" t="n">
-        <v>-2.777777777777778</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L135" t="n">
         <v>587.2</v>
@@ -7160,7 +7160,7 @@
         <v>257</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L136" t="n">
         <v>587.8</v>
@@ -7211,7 +7211,7 @@
         <v>262</v>
       </c>
       <c r="K137" t="n">
-        <v>-7.692307692307693</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L137" t="n">
         <v>587.4</v>
@@ -7262,7 +7262,7 @@
         <v>267</v>
       </c>
       <c r="K138" t="n">
-        <v>-1.204819277108434</v>
+        <v>5</v>
       </c>
       <c r="L138" t="n">
         <v>587.6</v>
@@ -7313,7 +7313,7 @@
         <v>268</v>
       </c>
       <c r="K139" t="n">
-        <v>10.81081081081081</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L139" t="n">
         <v>587.7</v>
@@ -7364,7 +7364,7 @@
         <v>269</v>
       </c>
       <c r="K140" t="n">
-        <v>-1.492537313432836</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L140" t="n">
         <v>587.7</v>
@@ -7415,7 +7415,7 @@
         <v>269</v>
       </c>
       <c r="K141" t="n">
-        <v>-1.492537313432836</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L141" t="n">
         <v>588.2</v>
@@ -7466,7 +7466,7 @@
         <v>272</v>
       </c>
       <c r="K142" t="n">
-        <v>-4.347826086956522</v>
+        <v>-18.75</v>
       </c>
       <c r="L142" t="n">
         <v>588.2</v>
@@ -7517,7 +7517,7 @@
         <v>272</v>
       </c>
       <c r="K143" t="n">
-        <v>-7.462686567164178</v>
+        <v>4</v>
       </c>
       <c r="L143" t="n">
         <v>587.6</v>
@@ -7568,7 +7568,7 @@
         <v>276</v>
       </c>
       <c r="K144" t="n">
-        <v>-4.347826086956522</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L144" t="n">
         <v>588.1</v>
@@ -7619,7 +7619,7 @@
         <v>279</v>
       </c>
       <c r="K145" t="n">
-        <v>18.0327868852459</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L145" t="n">
         <v>589.1</v>
@@ -7670,7 +7670,7 @@
         <v>279</v>
       </c>
       <c r="K146" t="n">
-        <v>13.79310344827586</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L146" t="n">
         <v>589.3</v>
@@ -7721,7 +7721,7 @@
         <v>279</v>
       </c>
       <c r="K147" t="n">
-        <v>5.660377358490567</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L147" t="n">
         <v>590</v>
@@ -7772,7 +7772,7 @@
         <v>282</v>
       </c>
       <c r="K148" t="n">
-        <v>12.72727272727273</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L148" t="n">
         <v>590.5</v>
@@ -7823,7 +7823,7 @@
         <v>283</v>
       </c>
       <c r="K149" t="n">
-        <v>10.71428571428571</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L149" t="n">
         <v>591</v>
@@ -7874,7 +7874,7 @@
         <v>293</v>
       </c>
       <c r="K150" t="n">
-        <v>-6.060606060606061</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L150" t="n">
         <v>590.6</v>
@@ -7925,7 +7925,7 @@
         <v>303</v>
       </c>
       <c r="K151" t="n">
-        <v>15.49295774647887</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L151" t="n">
         <v>591.2</v>
@@ -7976,7 +7976,7 @@
         <v>310</v>
       </c>
       <c r="K152" t="n">
-        <v>2.631578947368421</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L152" t="n">
         <v>591.4</v>
@@ -8027,7 +8027,7 @@
         <v>310</v>
       </c>
       <c r="K153" t="n">
-        <v>-5.714285714285714</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L153" t="n">
         <v>591.6</v>
@@ -8078,7 +8078,7 @@
         <v>312</v>
       </c>
       <c r="K154" t="n">
-        <v>1.538461538461539</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L154" t="n">
         <v>591.2</v>
@@ -8129,7 +8129,7 @@
         <v>319</v>
       </c>
       <c r="K155" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>591.2</v>
@@ -8180,7 +8180,7 @@
         <v>324</v>
       </c>
       <c r="K156" t="n">
-        <v>-4.477611940298507</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L156" t="n">
         <v>590.7</v>
@@ -8231,7 +8231,7 @@
         <v>326</v>
       </c>
       <c r="K157" t="n">
-        <v>0</v>
+        <v>-22.72727272727273</v>
       </c>
       <c r="L157" t="n">
         <v>590</v>
@@ -8282,7 +8282,7 @@
         <v>330</v>
       </c>
       <c r="K158" t="n">
-        <v>-1.587301587301587</v>
+        <v>-10.63829787234043</v>
       </c>
       <c r="L158" t="n">
         <v>589.4</v>
@@ -8333,7 +8333,7 @@
         <v>335</v>
       </c>
       <c r="K159" t="n">
-        <v>-7.462686567164178</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>588.4</v>
@@ -8384,7 +8384,7 @@
         <v>340</v>
       </c>
       <c r="K160" t="n">
-        <v>1.408450704225352</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L160" t="n">
         <v>588.9</v>
@@ -8435,7 +8435,7 @@
         <v>340</v>
       </c>
       <c r="K161" t="n">
-        <v>1.408450704225352</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L161" t="n">
         <v>588.4</v>
@@ -8486,7 +8486,7 @@
         <v>340</v>
       </c>
       <c r="K162" t="n">
-        <v>5.88235294117647</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L162" t="n">
         <v>588.6</v>
@@ -8537,7 +8537,7 @@
         <v>347</v>
       </c>
       <c r="K163" t="n">
-        <v>14.66666666666667</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L163" t="n">
         <v>589.5</v>
@@ -8588,7 +8588,7 @@
         <v>347</v>
       </c>
       <c r="K164" t="n">
-        <v>9.859154929577464</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L164" t="n">
         <v>590.6</v>
@@ -8639,7 +8639,7 @@
         <v>358</v>
       </c>
       <c r="K165" t="n">
-        <v>-8.860759493670885</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L165" t="n">
         <v>589.9</v>
@@ -8690,7 +8690,7 @@
         <v>365</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L166" t="n">
         <v>590.4</v>
@@ -8741,7 +8741,7 @@
         <v>367</v>
       </c>
       <c r="K167" t="n">
-        <v>-2.272727272727273</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L167" t="n">
         <v>590.9</v>
@@ -8792,7 +8792,7 @@
         <v>374</v>
       </c>
       <c r="K168" t="n">
-        <v>-13.04347826086956</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L168" t="n">
         <v>590.3</v>
@@ -8843,7 +8843,7 @@
         <v>375</v>
       </c>
       <c r="K169" t="n">
-        <v>-13.04347826086956</v>
+        <v>-20</v>
       </c>
       <c r="L169" t="n">
         <v>590.1</v>
@@ -8894,7 +8894,7 @@
         <v>380</v>
       </c>
       <c r="K170" t="n">
-        <v>3.448275862068965</v>
+        <v>-5</v>
       </c>
       <c r="L170" t="n">
         <v>589.9</v>
@@ -8945,7 +8945,7 @@
         <v>382</v>
       </c>
       <c r="K171" t="n">
-        <v>-6.329113924050633</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>589.9</v>
@@ -8996,7 +8996,7 @@
         <v>382</v>
       </c>
       <c r="K172" t="n">
-        <v>2.777777777777778</v>
+        <v>-20</v>
       </c>
       <c r="L172" t="n">
         <v>589.9</v>
@@ -9047,7 +9047,7 @@
         <v>382</v>
       </c>
       <c r="K173" t="n">
-        <v>2.777777777777778</v>
+        <v>-20</v>
       </c>
       <c r="L173" t="n">
         <v>589.2</v>
@@ -9098,7 +9098,7 @@
         <v>383</v>
       </c>
       <c r="K174" t="n">
-        <v>7.042253521126761</v>
+        <v>20</v>
       </c>
       <c r="L174" t="n">
         <v>588.6</v>
@@ -9149,7 +9149,7 @@
         <v>383</v>
       </c>
       <c r="K175" t="n">
-        <v>-3.125</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L175" t="n">
         <v>589.1</v>
@@ -9200,7 +9200,7 @@
         <v>383</v>
       </c>
       <c r="K176" t="n">
-        <v>5.084745762711865</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>588.9</v>
@@ -9251,7 +9251,7 @@
         <v>384</v>
       </c>
       <c r="K177" t="n">
-        <v>10.3448275862069</v>
+        <v>80</v>
       </c>
       <c r="L177" t="n">
         <v>589</v>
@@ -9302,7 +9302,7 @@
         <v>384</v>
       </c>
       <c r="K178" t="n">
-        <v>3.703703703703703</v>
+        <v>100</v>
       </c>
       <c r="L178" t="n">
         <v>589.8</v>
@@ -9353,7 +9353,7 @@
         <v>384</v>
       </c>
       <c r="K179" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L179" t="n">
         <v>590.7</v>
@@ -9404,7 +9404,7 @@
         <v>388</v>
       </c>
       <c r="K180" t="n">
-        <v>-4.166666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L180" t="n">
         <v>590.7</v>
@@ -9455,7 +9455,7 @@
         <v>392</v>
       </c>
       <c r="K181" t="n">
-        <v>3.846153846153846</v>
+        <v>20</v>
       </c>
       <c r="L181" t="n">
         <v>590.9</v>
@@ -9506,7 +9506,7 @@
         <v>392</v>
       </c>
       <c r="K182" t="n">
-        <v>3.846153846153846</v>
+        <v>20</v>
       </c>
       <c r="L182" t="n">
         <v>591.1</v>
@@ -9557,7 +9557,7 @@
         <v>393</v>
       </c>
       <c r="K183" t="n">
-        <v>-8.695652173913043</v>
+        <v>20</v>
       </c>
       <c r="L183" t="n">
         <v>591.4</v>
@@ -9608,7 +9608,7 @@
         <v>395</v>
       </c>
       <c r="K184" t="n">
-        <v>-4.166666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L184" t="n">
         <v>591.8</v>
@@ -9659,7 +9659,7 @@
         <v>396</v>
       </c>
       <c r="K185" t="n">
-        <v>26.31578947368421</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L185" t="n">
         <v>592.3</v>
@@ -9710,7 +9710,7 @@
         <v>398</v>
       </c>
       <c r="K186" t="n">
-        <v>15.15151515151515</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L186" t="n">
         <v>593</v>
@@ -9761,7 +9761,7 @@
         <v>398</v>
       </c>
       <c r="K187" t="n">
-        <v>22.58064516129032</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L187" t="n">
         <v>593.6</v>
@@ -9812,7 +9812,7 @@
         <v>399</v>
       </c>
       <c r="K188" t="n">
-        <v>60</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L188" t="n">
         <v>594.3</v>
@@ -9863,7 +9863,7 @@
         <v>399</v>
       </c>
       <c r="K189" t="n">
-        <v>66.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L189" t="n">
         <v>595</v>
@@ -9914,7 +9914,7 @@
         <v>400</v>
       </c>
       <c r="K190" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L190" t="n">
         <v>596.2</v>
@@ -9965,7 +9965,7 @@
         <v>409</v>
       </c>
       <c r="K191" t="n">
-        <v>70.37037037037037</v>
+        <v>100</v>
       </c>
       <c r="L191" t="n">
         <v>597.9</v>
@@ -10016,7 +10016,7 @@
         <v>409</v>
       </c>
       <c r="K192" t="n">
-        <v>70.37037037037037</v>
+        <v>100</v>
       </c>
       <c r="L192" t="n">
         <v>599.6</v>
@@ -10067,7 +10067,7 @@
         <v>409</v>
       </c>
       <c r="K193" t="n">
-        <v>70.37037037037037</v>
+        <v>100</v>
       </c>
       <c r="L193" t="n">
         <v>601.2</v>
@@ -10118,7 +10118,7 @@
         <v>413</v>
       </c>
       <c r="K194" t="n">
-        <v>73.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L194" t="n">
         <v>603</v>
@@ -10169,7 +10169,7 @@
         <v>414</v>
       </c>
       <c r="K195" t="n">
-        <v>67.74193548387096</v>
+        <v>87.5</v>
       </c>
       <c r="L195" t="n">
         <v>604.6</v>
@@ -10220,7 +10220,7 @@
         <v>416</v>
       </c>
       <c r="K196" t="n">
-        <v>57.57575757575758</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L196" t="n">
         <v>605.8</v>
@@ -10271,7 +10271,7 @@
         <v>421</v>
       </c>
       <c r="K197" t="n">
-        <v>62.16216216216216</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L197" t="n">
         <v>607.5</v>
@@ -10322,7 +10322,7 @@
         <v>423</v>
       </c>
       <c r="K198" t="n">
-        <v>64.1025641025641</v>
+        <v>75</v>
       </c>
       <c r="L198" t="n">
         <v>609.3</v>
@@ -10373,7 +10373,7 @@
         <v>423</v>
       </c>
       <c r="K199" t="n">
-        <v>64.1025641025641</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="L199" t="n">
         <v>611.1</v>
@@ -10424,7 +10424,7 @@
         <v>424</v>
       </c>
       <c r="K200" t="n">
-        <v>83.33333333333334</v>
+        <v>60</v>
       </c>
       <c r="L200" t="n">
         <v>612.9</v>
@@ -10475,7 +10475,7 @@
         <v>424</v>
       </c>
       <c r="K201" t="n">
-        <v>81.25</v>
+        <v>60</v>
       </c>
       <c r="L201" t="n">
         <v>613.8</v>
@@ -10526,7 +10526,7 @@
         <v>424</v>
       </c>
       <c r="K202" t="n">
-        <v>81.25</v>
+        <v>60</v>
       </c>
       <c r="L202" t="n">
         <v>614.7</v>
@@ -10577,7 +10577,7 @@
         <v>424</v>
       </c>
       <c r="K203" t="n">
-        <v>80.64516129032258</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L203" t="n">
         <v>615.6</v>
@@ -10628,7 +10628,7 @@
         <v>425</v>
       </c>
       <c r="K204" t="n">
-        <v>80</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L204" t="n">
         <v>616.2</v>
@@ -10679,7 +10679,7 @@
         <v>426</v>
       </c>
       <c r="K205" t="n">
-        <v>73.33333333333333</v>
+        <v>80</v>
       </c>
       <c r="L205" t="n">
         <v>616.8</v>
@@ -10730,7 +10730,7 @@
         <v>428</v>
       </c>
       <c r="K206" t="n">
-        <v>60</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L206" t="n">
         <v>617.4</v>
@@ -10781,7 +10781,7 @@
         <v>428</v>
       </c>
       <c r="K207" t="n">
-        <v>60</v>
+        <v>-20</v>
       </c>
       <c r="L207" t="n">
         <v>617.5</v>
@@ -10832,7 +10832,7 @@
         <v>431</v>
       </c>
       <c r="K208" t="n">
-        <v>62.5</v>
+        <v>25</v>
       </c>
       <c r="L208" t="n">
         <v>617.7</v>
@@ -10883,7 +10883,7 @@
         <v>438</v>
       </c>
       <c r="K209" t="n">
-        <v>69.23076923076923</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L209" t="n">
         <v>618.6</v>
@@ -10934,7 +10934,7 @@
         <v>447</v>
       </c>
       <c r="K210" t="n">
-        <v>36.17021276595745</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L210" t="n">
         <v>618.5</v>
@@ -10985,7 +10985,7 @@
         <v>456</v>
       </c>
       <c r="K211" t="n">
-        <v>36.17021276595745</v>
+        <v>25</v>
       </c>
       <c r="L211" t="n">
         <v>619.3</v>
@@ -11036,7 +11036,7 @@
         <v>469</v>
       </c>
       <c r="K212" t="n">
-        <v>6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L212" t="n">
         <v>618.8</v>
@@ -11087,7 +11087,7 @@
         <v>470</v>
       </c>
       <c r="K213" t="n">
-        <v>4.918032786885246</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L213" t="n">
         <v>618.2</v>
@@ -11138,7 +11138,7 @@
         <v>474</v>
       </c>
       <c r="K214" t="n">
-        <v>4.918032786885246</v>
+        <v>-4.166666666666666</v>
       </c>
       <c r="L214" t="n">
         <v>617.9</v>
@@ -11189,7 +11189,7 @@
         <v>474</v>
       </c>
       <c r="K215" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>617.7</v>
@@ -11240,7 +11240,7 @@
         <v>486</v>
       </c>
       <c r="K216" t="n">
-        <v>-8.571428571428571</v>
+        <v>-20.68965517241379</v>
       </c>
       <c r="L216" t="n">
         <v>616.5</v>
@@ -11291,7 +11291,7 @@
         <v>488</v>
       </c>
       <c r="K217" t="n">
-        <v>-13.43283582089552</v>
+        <v>-22.80701754385965</v>
       </c>
       <c r="L217" t="n">
         <v>615.5</v>
@@ -11342,7 +11342,7 @@
         <v>491</v>
       </c>
       <c r="K218" t="n">
-        <v>-20.58823529411764</v>
+        <v>-43.39622641509434</v>
       </c>
       <c r="L218" t="n">
         <v>613.9</v>
@@ -11393,7 +11393,7 @@
         <v>507</v>
       </c>
       <c r="K219" t="n">
-        <v>2.380952380952381</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="L219" t="n">
         <v>613.2</v>
@@ -11444,7 +11444,7 @@
         <v>507</v>
       </c>
       <c r="K220" t="n">
-        <v>1.204819277108434</v>
+        <v>-13.72549019607843</v>
       </c>
       <c r="L220" t="n">
         <v>613.4</v>
@@ -11495,7 +11495,7 @@
         <v>520</v>
       </c>
       <c r="K221" t="n">
-        <v>-12.5</v>
+        <v>-13.72549019607843</v>
       </c>
       <c r="L221" t="n">
         <v>611.4</v>
@@ -11546,7 +11546,7 @@
         <v>521</v>
       </c>
       <c r="K222" t="n">
-        <v>-13.4020618556701</v>
+        <v>-13.72549019607843</v>
       </c>
       <c r="L222" t="n">
         <v>610.6</v>
@@ -11597,7 +11597,7 @@
         <v>532</v>
       </c>
       <c r="K223" t="n">
-        <v>-1.851851851851852</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>611</v>
@@ -11648,7 +11648,7 @@
         <v>543</v>
       </c>
       <c r="K224" t="n">
-        <v>-11.86440677966102</v>
+        <v>-15.94202898550724</v>
       </c>
       <c r="L224" t="n">
         <v>609.9</v>
@@ -11699,7 +11699,7 @@
         <v>543</v>
       </c>
       <c r="K225" t="n">
-        <v>-11.11111111111111</v>
+        <v>1.754385964912281</v>
       </c>
       <c r="L225" t="n">
         <v>608.8</v>
@@ -11750,7 +11750,7 @@
         <v>544</v>
       </c>
       <c r="K226" t="n">
-        <v>-8.620689655172415</v>
+        <v>0</v>
       </c>
       <c r="L226" t="n">
         <v>609</v>
@@ -11801,7 +11801,7 @@
         <v>544</v>
       </c>
       <c r="K227" t="n">
-        <v>-8.620689655172415</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="L227" t="n">
         <v>609</v>
@@ -11852,7 +11852,7 @@
         <v>544</v>
       </c>
       <c r="K228" t="n">
-        <v>-11.50442477876106</v>
+        <v>-35.13513513513514</v>
       </c>
       <c r="L228" t="n">
         <v>609.3</v>
@@ -11903,7 +11903,7 @@
         <v>545</v>
       </c>
       <c r="K229" t="n">
-        <v>-19.62616822429906</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L229" t="n">
         <v>607.9</v>
@@ -11954,7 +11954,7 @@
         <v>547</v>
       </c>
       <c r="K230" t="n">
-        <v>-10</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L230" t="n">
         <v>606.7</v>
@@ -12005,7 +12005,7 @@
         <v>547</v>
       </c>
       <c r="K231" t="n">
-        <v>-20.87912087912088</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L231" t="n">
         <v>606.8</v>
@@ -12056,7 +12056,7 @@
         <v>548</v>
       </c>
       <c r="K232" t="n">
-        <v>-6.329113924050633</v>
+        <v>-50</v>
       </c>
       <c r="L232" t="n">
         <v>607.1</v>
@@ -12107,7 +12107,7 @@
         <v>548</v>
       </c>
       <c r="K233" t="n">
-        <v>-5.128205128205128</v>
+        <v>60</v>
       </c>
       <c r="L233" t="n">
         <v>606.3</v>
@@ -12158,7 +12158,7 @@
         <v>549</v>
       </c>
       <c r="K234" t="n">
-        <v>-12</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L234" t="n">
         <v>606.5</v>
@@ -12209,7 +12209,7 @@
         <v>550</v>
       </c>
       <c r="K235" t="n">
-        <v>-13.1578947368421</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>606.6</v>
@@ -12260,7 +12260,7 @@
         <v>550</v>
       </c>
       <c r="K236" t="n">
-        <v>3.125</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>606.6</v>
@@ -12362,7 +12362,7 @@
         <v>551</v>
       </c>
       <c r="K238" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L238" t="n">
         <v>606.7</v>
@@ -12413,7 +12413,7 @@
         <v>552</v>
       </c>
       <c r="K239" t="n">
-        <v>-28.88888888888889</v>
+        <v>-20</v>
       </c>
       <c r="L239" t="n">
         <v>606.8</v>
@@ -12464,7 +12464,7 @@
         <v>555</v>
       </c>
       <c r="K240" t="n">
-        <v>-20.83333333333334</v>
+        <v>25</v>
       </c>
       <c r="L240" t="n">
         <v>607</v>
@@ -12515,7 +12515,7 @@
         <v>561</v>
       </c>
       <c r="K241" t="n">
-        <v>-7.317073170731707</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L241" t="n">
         <v>606.6</v>
@@ -12566,7 +12566,7 @@
         <v>564</v>
       </c>
       <c r="K242" t="n">
-        <v>2.325581395348837</v>
+        <v>-12.5</v>
       </c>
       <c r="L242" t="n">
         <v>606.4</v>
@@ -12617,7 +12617,7 @@
         <v>574</v>
       </c>
       <c r="K243" t="n">
-        <v>-47.61904761904761</v>
+        <v>-44</v>
       </c>
       <c r="L243" t="n">
         <v>605.2</v>
@@ -12668,7 +12668,7 @@
         <v>575</v>
       </c>
       <c r="K244" t="n">
-        <v>-31.25</v>
+        <v>-44</v>
       </c>
       <c r="L244" t="n">
         <v>604</v>
@@ -12719,7 +12719,7 @@
         <v>581</v>
       </c>
       <c r="K245" t="n">
-        <v>-10.52631578947368</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L245" t="n">
         <v>603.5</v>
@@ -12770,7 +12770,7 @@
         <v>583</v>
       </c>
       <c r="K246" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L246" t="n">
         <v>603.2</v>
@@ -12821,7 +12821,7 @@
         <v>588</v>
       </c>
       <c r="K247" t="n">
-        <v>4.545454545454546</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L247" t="n">
         <v>603.4</v>
@@ -12872,7 +12872,7 @@
         <v>600</v>
       </c>
       <c r="K248" t="n">
-        <v>-17.85714285714286</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="L248" t="n">
         <v>602.3</v>
@@ -12923,7 +12923,7 @@
         <v>603</v>
       </c>
       <c r="K249" t="n">
-        <v>-20.68965517241379</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L249" t="n">
         <v>601</v>
@@ -12974,7 +12974,7 @@
         <v>603</v>
       </c>
       <c r="K250" t="n">
-        <v>-25</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L250" t="n">
         <v>599.4</v>
@@ -13025,7 +13025,7 @@
         <v>606</v>
       </c>
       <c r="K251" t="n">
-        <v>-28.8135593220339</v>
+        <v>-38.09523809523809</v>
       </c>
       <c r="L251" t="n">
         <v>598.1</v>
@@ -13076,7 +13076,7 @@
         <v>608</v>
       </c>
       <c r="K252" t="n">
-        <v>-33.33333333333333</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L252" t="n">
         <v>596.3</v>
@@ -13127,7 +13127,7 @@
         <v>609</v>
       </c>
       <c r="K253" t="n">
-        <v>-34.42622950819672</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L253" t="n">
         <v>595.4</v>
@@ -13178,7 +13178,7 @@
         <v>616</v>
       </c>
       <c r="K254" t="n">
-        <v>-40.29850746268657</v>
+        <v>-60</v>
       </c>
       <c r="L254" t="n">
         <v>593.9</v>

--- a/BackTest/2019-10-18 BackTest GXC.xlsx
+++ b/BackTest/2019-10-18 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S254"/>
+  <dimension ref="A1:M233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>589.2</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>33</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L12" t="n">
-        <v>588.3</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>46</v>
-      </c>
-      <c r="K13" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L13" t="n">
-        <v>589.3</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>58</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-14.8936170212766</v>
-      </c>
-      <c r="L14" t="n">
-        <v>588.6</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J15" t="n">
-        <v>66</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L15" t="n">
-        <v>587.1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>70</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-18.64406779661017</v>
-      </c>
-      <c r="L16" t="n">
-        <v>586</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>74</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L17" t="n">
-        <v>585.3</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1011,19 @@
         <v>584.9333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>74</v>
+        <v>582</v>
       </c>
       <c r="K18" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L18" t="n">
-        <v>584.6</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>582</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,27 +1050,23 @@
         <v>585</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>76</v>
+        <v>584</v>
       </c>
       <c r="K19" t="n">
-        <v>-17.85714285714286</v>
-      </c>
-      <c r="L19" t="n">
-        <v>583.4</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>582</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,27 +1093,23 @@
         <v>585.0666666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>76</v>
+        <v>584</v>
       </c>
       <c r="K20" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="L20" t="n">
-        <v>582.4</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>582</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1136,19 @@
         <v>585.15</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76</v>
+        <v>584</v>
       </c>
       <c r="K21" t="n">
-        <v>6.976744186046512</v>
-      </c>
-      <c r="L21" t="n">
-        <v>582.5</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>585.85</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1178,18 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L22" t="n">
-        <v>582.8</v>
+        <v>584</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>585.55</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1219,18 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L23" t="n">
-        <v>581.8</v>
+        <v>584</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>585.55</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1260,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>76</v>
-      </c>
-      <c r="K24" t="n">
-        <v>100</v>
-      </c>
-      <c r="L24" t="n">
-        <v>582</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>585.3</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1295,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J25" t="n">
-        <v>78</v>
-      </c>
-      <c r="K25" t="n">
-        <v>50</v>
-      </c>
-      <c r="L25" t="n">
-        <v>582.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>584.95</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1330,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>78</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>583.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>584.6</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,29 +1362,19 @@
         <v>585.5166666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>79</v>
+        <v>583</v>
       </c>
       <c r="K27" t="n">
-        <v>20</v>
-      </c>
-      <c r="L27" t="n">
-        <v>583.3</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>584.3</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,29 +1401,23 @@
         <v>585.5666666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79</v>
+        <v>583</v>
       </c>
       <c r="K28" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L28" t="n">
-        <v>583.4</v>
+        <v>583</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>584</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,29 +1444,23 @@
         <v>585.7666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>79</v>
+        <v>583</v>
       </c>
       <c r="K29" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L29" t="n">
-        <v>583.3</v>
+        <v>583</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>583.35</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,29 +1487,19 @@
         <v>585.8666666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>80</v>
+        <v>584</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>583.3</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>582.85</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,31 +1526,23 @@
         <v>585.95</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81</v>
+        <v>585</v>
       </c>
       <c r="K31" t="n">
-        <v>20</v>
-      </c>
-      <c r="L31" t="n">
-        <v>583.4</v>
+        <v>584</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>582.95</v>
-      </c>
-      <c r="N31" t="n">
-        <v>585.0333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,31 +1569,23 @@
         <v>586.0166666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>82</v>
+        <v>584</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>583.4</v>
+        <v>584</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>583.1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>584.8333333333334</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1615,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>85</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L33" t="n">
-        <v>583.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>582.45</v>
-      </c>
-      <c r="N33" t="n">
-        <v>584.7333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1650,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J34" t="n">
-        <v>85</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L34" t="n">
-        <v>582.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>582.4</v>
-      </c>
-      <c r="N34" t="n">
-        <v>584.4666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,31 +1682,19 @@
         <v>586.0833333333334</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>86</v>
+        <v>582</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>582.8</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>582.8</v>
-      </c>
-      <c r="N35" t="n">
-        <v>584.2333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,31 +1721,23 @@
         <v>586.1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>87</v>
+        <v>581</v>
       </c>
       <c r="K36" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L36" t="n">
-        <v>582.7</v>
+        <v>582</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>582.95</v>
-      </c>
-      <c r="N36" t="n">
-        <v>583.9666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,31 +1764,23 @@
         <v>586.1166666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87</v>
+        <v>581</v>
       </c>
       <c r="K37" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L37" t="n">
-        <v>582.5</v>
+        <v>582</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>582.9</v>
-      </c>
-      <c r="N37" t="n">
-        <v>583.7</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,31 +1807,19 @@
         <v>586.1166666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>88</v>
+        <v>580</v>
       </c>
       <c r="K38" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L38" t="n">
-        <v>582.2</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>582.8</v>
-      </c>
-      <c r="N38" t="n">
-        <v>583.4</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,31 +1846,23 @@
         <v>586.05</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>92</v>
+        <v>576</v>
       </c>
       <c r="K39" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L39" t="n">
-        <v>581.5</v>
+        <v>580</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>582.4</v>
-      </c>
-      <c r="N39" t="n">
-        <v>582.7333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,31 +1889,23 @@
         <v>585.9166666666666</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>96</v>
+        <v>572</v>
       </c>
       <c r="K40" t="n">
-        <v>-86.66666666666667</v>
-      </c>
-      <c r="L40" t="n">
-        <v>580.3</v>
+        <v>580</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>581.8</v>
-      </c>
-      <c r="N40" t="n">
-        <v>582</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2332,31 +1932,19 @@
         <v>585.9166666666666</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>104</v>
+        <v>580</v>
       </c>
       <c r="K41" t="n">
-        <v>-18.18181818181818</v>
-      </c>
-      <c r="L41" t="n">
-        <v>579.8</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>581.6</v>
-      </c>
-      <c r="N41" t="n">
-        <v>581.9</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2383,31 +1971,23 @@
         <v>585.95</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>106</v>
+        <v>583</v>
       </c>
       <c r="K42" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L42" t="n">
-        <v>579.6</v>
+        <v>580</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>581.5</v>
-      </c>
-      <c r="N42" t="n">
-        <v>581.9333333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,31 +2014,23 @@
         <v>585.9833333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>106</v>
+        <v>582</v>
       </c>
       <c r="K43" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L43" t="n">
-        <v>579.7</v>
+        <v>580</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>581.4</v>
-      </c>
-      <c r="N43" t="n">
-        <v>581.5333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2485,31 +2057,23 @@
         <v>586.0166666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>106</v>
+        <v>582</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>579.8</v>
+        <v>580</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>581.3</v>
-      </c>
-      <c r="N44" t="n">
-        <v>581.5333333333333</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,31 +2100,23 @@
         <v>586.0833333333334</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>108</v>
+        <v>581</v>
       </c>
       <c r="K45" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L45" t="n">
-        <v>580</v>
+        <v>580</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>581.4</v>
-      </c>
-      <c r="N45" t="n">
-        <v>581.8666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2587,31 +2143,23 @@
         <v>586.0333333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>111</v>
+        <v>582</v>
       </c>
       <c r="K46" t="n">
-        <v>25</v>
-      </c>
-      <c r="L46" t="n">
-        <v>580.6</v>
+        <v>580</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>581.65</v>
-      </c>
-      <c r="N46" t="n">
-        <v>582.1666666666666</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,31 +2186,23 @@
         <v>586.0166666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>116</v>
+        <v>584</v>
       </c>
       <c r="K47" t="n">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="L47" t="n">
-        <v>580.7</v>
+        <v>580</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>581.6</v>
-      </c>
-      <c r="N47" t="n">
-        <v>582.1666666666666</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2689,31 +2229,23 @@
         <v>585.9166666666666</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>118</v>
+        <v>587</v>
       </c>
       <c r="K48" t="n">
-        <v>30.76923076923077</v>
-      </c>
-      <c r="L48" t="n">
-        <v>581.1</v>
+        <v>580</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>581.65</v>
-      </c>
-      <c r="N48" t="n">
-        <v>582.2333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,31 +2272,23 @@
         <v>585.9</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>125</v>
+        <v>584</v>
       </c>
       <c r="K49" t="n">
-        <v>65.51724137931035</v>
-      </c>
-      <c r="L49" t="n">
-        <v>582.6</v>
+        <v>580</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>582.05</v>
-      </c>
-      <c r="N49" t="n">
-        <v>582.4666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2791,31 +2315,23 @@
         <v>585.8333333333334</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>128</v>
+        <v>591</v>
       </c>
       <c r="K50" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L50" t="n">
-        <v>584.2</v>
+        <v>580</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>582.25</v>
-      </c>
-      <c r="N50" t="n">
-        <v>582.6</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2361,18 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J51" t="n">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L51" t="n">
-        <v>585</v>
+        <v>580</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>582.4</v>
-      </c>
-      <c r="N51" t="n">
-        <v>582.7333333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2402,18 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L52" t="n">
-        <v>585.6</v>
+        <v>580</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>582.6</v>
-      </c>
-      <c r="N52" t="n">
-        <v>582.8666666666667</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2443,18 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L53" t="n">
-        <v>586.2</v>
+        <v>580</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>582.95</v>
-      </c>
-      <c r="N53" t="n">
-        <v>583</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2484,18 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>20</v>
-      </c>
-      <c r="L54" t="n">
-        <v>586.8</v>
+        <v>580</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>583.3</v>
-      </c>
-      <c r="N54" t="n">
-        <v>583.1333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3051,26 +2527,16 @@
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>130</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L55" t="n">
-        <v>587.4</v>
+        <v>580</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>583.7</v>
-      </c>
-      <c r="N55" t="n">
-        <v>583.4</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2566,18 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="L56" t="n">
-        <v>587.6</v>
+        <v>580</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>584.1</v>
-      </c>
-      <c r="N56" t="n">
-        <v>583.6333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2607,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>20</v>
-      </c>
-      <c r="L57" t="n">
-        <v>588.1</v>
+        <v>580</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>584.4</v>
-      </c>
-      <c r="N57" t="n">
-        <v>583.7666666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2648,18 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L58" t="n">
-        <v>588.6</v>
+        <v>580</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>584.85</v>
-      </c>
-      <c r="N58" t="n">
-        <v>583.9666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3255,26 +2691,16 @@
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>136</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>25</v>
-      </c>
-      <c r="L59" t="n">
-        <v>588.5</v>
+        <v>580</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>585.55</v>
-      </c>
-      <c r="N59" t="n">
-        <v>584.2</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3306,26 +2732,16 @@
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>136</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>25</v>
-      </c>
-      <c r="L60" t="n">
-        <v>588.7</v>
+        <v>580</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>586.45</v>
-      </c>
-      <c r="N60" t="n">
-        <v>584.4</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3357,26 +2773,16 @@
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>136</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>25</v>
-      </c>
-      <c r="L61" t="n">
-        <v>588.9</v>
+        <v>580</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>586.95</v>
-      </c>
-      <c r="N61" t="n">
-        <v>584.5666666666667</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2812,18 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>40</v>
-      </c>
-      <c r="L62" t="n">
-        <v>589.3</v>
+        <v>580</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>587.45</v>
-      </c>
-      <c r="N62" t="n">
-        <v>584.8333333333334</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2853,18 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
-      </c>
-      <c r="J63" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>40</v>
-      </c>
-      <c r="L63" t="n">
-        <v>589.7</v>
+        <v>580</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>587.95</v>
-      </c>
-      <c r="N63" t="n">
-        <v>585.2</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2894,18 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L64" t="n">
-        <v>590</v>
+        <v>580</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>588.4</v>
-      </c>
-      <c r="N64" t="n">
-        <v>585.5333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2935,18 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>25</v>
-      </c>
-      <c r="L65" t="n">
-        <v>590.1</v>
+        <v>580</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>588.75</v>
-      </c>
-      <c r="N65" t="n">
-        <v>585.8333333333334</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2976,18 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L66" t="n">
-        <v>590.3</v>
+        <v>580</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>588.95</v>
-      </c>
-      <c r="N66" t="n">
-        <v>586.1666666666666</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +3017,18 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>50</v>
-      </c>
-      <c r="L67" t="n">
-        <v>590.7</v>
+        <v>580</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>589.4</v>
-      </c>
-      <c r="N67" t="n">
-        <v>586.5</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3058,18 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L68" t="n">
-        <v>590.9</v>
+        <v>580</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>589.75</v>
-      </c>
-      <c r="N68" t="n">
-        <v>586.8666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3099,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L69" t="n">
-        <v>591</v>
+        <v>580</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>589.75</v>
-      </c>
-      <c r="N69" t="n">
-        <v>587.3666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,26 +3142,16 @@
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>140</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>591</v>
+        <v>580</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>589.85</v>
-      </c>
-      <c r="N70" t="n">
-        <v>587.9666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3181,18 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L71" t="n">
-        <v>591.1</v>
+        <v>580</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>590</v>
-      </c>
-      <c r="N71" t="n">
-        <v>588.3333333333334</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3222,18 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L72" t="n">
-        <v>591</v>
+        <v>580</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>590.15</v>
-      </c>
-      <c r="N72" t="n">
-        <v>588.6333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3263,18 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>590.9</v>
+        <v>580</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>590.3</v>
-      </c>
-      <c r="N73" t="n">
-        <v>588.9333333333333</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3304,18 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>590.9</v>
+        <v>580</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>590.45</v>
-      </c>
-      <c r="N74" t="n">
-        <v>589.2333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3345,18 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>590.9</v>
+        <v>580</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>590.5</v>
-      </c>
-      <c r="N75" t="n">
-        <v>589.4666666666667</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3386,18 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>590.9</v>
+        <v>580</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>590.6</v>
-      </c>
-      <c r="N76" t="n">
-        <v>589.6</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3427,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L77" t="n">
-        <v>591</v>
+        <v>580</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>590.85</v>
-      </c>
-      <c r="N77" t="n">
-        <v>589.9333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3468,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>591</v>
+        <v>580</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>590.95</v>
-      </c>
-      <c r="N78" t="n">
-        <v>590.1666666666666</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3509,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L79" t="n">
-        <v>591</v>
+        <v>580</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>591</v>
-      </c>
-      <c r="N79" t="n">
-        <v>590.1666666666666</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3550,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>591.1</v>
+        <v>580</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>591.05</v>
-      </c>
-      <c r="N80" t="n">
-        <v>590.2666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3591,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
-      </c>
-      <c r="J81" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L81" t="n">
-        <v>591.2</v>
+        <v>580</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>591.15</v>
-      </c>
-      <c r="N81" t="n">
-        <v>590.4</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3632,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>591.2</v>
+        <v>580</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="N82" t="n">
-        <v>590.5</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3673,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>591.2</v>
+        <v>580</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>591.05</v>
-      </c>
-      <c r="N83" t="n">
-        <v>590.6</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3714,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>591.2</v>
+        <v>580</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>591.05</v>
-      </c>
-      <c r="N84" t="n">
-        <v>590.7</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3755,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>6</v>
-      </c>
-      <c r="J85" t="n">
-        <v>150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L85" t="n">
-        <v>591.7</v>
+        <v>580</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>591.3</v>
-      </c>
-      <c r="N85" t="n">
-        <v>590.9</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,26 +3798,16 @@
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>156</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L86" t="n">
-        <v>591.6</v>
+        <v>580</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>591.25</v>
-      </c>
-      <c r="N86" t="n">
-        <v>590.9333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,26 +3839,16 @@
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>156</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L87" t="n">
-        <v>591.4</v>
+        <v>580</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>591.2</v>
-      </c>
-      <c r="N87" t="n">
-        <v>591.0333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3878,18 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>591.4</v>
+        <v>580</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>591.2</v>
-      </c>
-      <c r="N88" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4785,26 +3921,16 @@
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>158</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L89" t="n">
-        <v>591.3</v>
+        <v>580</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>591.15</v>
-      </c>
-      <c r="N89" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3960,18 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L90" t="n">
-        <v>591.3</v>
+        <v>580</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>591.2</v>
-      </c>
-      <c r="N90" t="n">
-        <v>591.1333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +4001,18 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>591.2</v>
+        <v>580</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>591.2</v>
-      </c>
-      <c r="N91" t="n">
-        <v>591.1666666666666</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +4042,18 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>591.2</v>
+        <v>580</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>591.2</v>
-      </c>
-      <c r="N92" t="n">
-        <v>591.1333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +4083,18 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>591.2</v>
+        <v>580</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>591.2</v>
-      </c>
-      <c r="N93" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +4124,18 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L94" t="n">
-        <v>591.2</v>
+        <v>580</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>591.2</v>
-      </c>
-      <c r="N94" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4165,18 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L95" t="n">
-        <v>590.7</v>
+        <v>580</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>591.2</v>
-      </c>
-      <c r="N95" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4206,18 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L96" t="n">
-        <v>590.8</v>
+        <v>580</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>591.2</v>
-      </c>
-      <c r="N96" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4247,18 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>590.9</v>
+        <v>580</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>591.15</v>
-      </c>
-      <c r="N97" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4288,18 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>100</v>
-      </c>
-      <c r="L98" t="n">
-        <v>590.9</v>
+        <v>580</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>591.15</v>
-      </c>
-      <c r="N98" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,26 +4329,18 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>159</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>591</v>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>580</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>591.15</v>
-      </c>
-      <c r="N99" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5342,26 +4370,18 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>159</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>591</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>580</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>591.15</v>
-      </c>
-      <c r="N100" t="n">
-        <v>591.1333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5391,26 +4411,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>159</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>591</v>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>580</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="N101" t="n">
-        <v>591.1333333333333</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5440,26 +4452,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>159</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>591</v>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>580</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="N102" t="n">
-        <v>591.1333333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5489,26 +4493,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>159</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>591</v>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>580</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="N103" t="n">
-        <v>591.1333333333333</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5538,26 +4534,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>159</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>591</v>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>580</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="N104" t="n">
-        <v>591.1333333333333</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5587,26 +4575,18 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>159</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>591</v>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>580</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>590.85</v>
-      </c>
-      <c r="N105" t="n">
-        <v>591.1333333333333</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5636,26 +4616,18 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>159</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>591</v>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>580</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>590.9</v>
-      </c>
-      <c r="N106" t="n">
-        <v>591.1333333333333</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5685,26 +4657,18 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>159</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>591</v>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>580</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>590.95</v>
-      </c>
-      <c r="N107" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5734,26 +4698,18 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>159</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>591</v>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>580</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>590.95</v>
-      </c>
-      <c r="N108" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5783,26 +4739,18 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>159</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>591</v>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>580</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>591</v>
-      </c>
-      <c r="N109" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5832,26 +4780,18 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>159</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>591</v>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>580</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>591</v>
-      </c>
-      <c r="N110" t="n">
-        <v>591.1</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5881,26 +4821,18 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>159</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>591</v>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>580</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>591</v>
-      </c>
-      <c r="N111" t="n">
-        <v>591.0666666666667</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5930,28 +4862,18 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J112" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L112" t="n">
-        <v>590.4</v>
+        <v>580</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>590.7</v>
-      </c>
-      <c r="N112" t="n">
-        <v>590.8666666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5981,28 +4903,18 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>590.4</v>
+        <v>580</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>590.7</v>
-      </c>
-      <c r="N113" t="n">
-        <v>590.8666666666667</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6032,28 +4944,18 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J114" t="n">
-        <v>177</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L114" t="n">
-        <v>589.8</v>
+        <v>580</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>590.4</v>
-      </c>
-      <c r="N114" t="n">
-        <v>590.6666666666666</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,28 +4985,18 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J115" t="n">
-        <v>177</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L115" t="n">
-        <v>589.2</v>
+        <v>580</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>590.1</v>
-      </c>
-      <c r="N115" t="n">
-        <v>590.3</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,28 +5026,18 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>183</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>589.2</v>
+        <v>580</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>590.1</v>
-      </c>
-      <c r="N116" t="n">
-        <v>590.3333333333334</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6185,28 +5067,18 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
-      </c>
-      <c r="J117" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>4</v>
-      </c>
-      <c r="L117" t="n">
-        <v>589.3</v>
+        <v>580</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>590.15</v>
-      </c>
-      <c r="N117" t="n">
-        <v>590.4</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6236,28 +5108,18 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
-      </c>
-      <c r="J118" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>4</v>
-      </c>
-      <c r="L118" t="n">
-        <v>589.4</v>
+        <v>580</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>590.2</v>
-      </c>
-      <c r="N118" t="n">
-        <v>590.4333333333333</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6287,28 +5149,18 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J119" t="n">
-        <v>194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>-25.71428571428571</v>
-      </c>
-      <c r="L119" t="n">
-        <v>588.5</v>
+        <v>580</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>589.75</v>
-      </c>
-      <c r="N119" t="n">
-        <v>590.1666666666666</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6340,26 +5192,16 @@
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>202</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>-2.325581395348837</v>
-      </c>
-      <c r="L120" t="n">
-        <v>588.4</v>
+        <v>580</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>589.7</v>
-      </c>
-      <c r="N120" t="n">
-        <v>590.1333333333333</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6391,26 +5233,16 @@
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>202</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>13.51351351351351</v>
-      </c>
-      <c r="L121" t="n">
-        <v>588.3</v>
+        <v>580</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>589.65</v>
-      </c>
-      <c r="N121" t="n">
-        <v>590.1</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6440,28 +5272,18 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>-6.25</v>
-      </c>
-      <c r="L122" t="n">
-        <v>588.7</v>
+        <v>580</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>589.55</v>
-      </c>
-      <c r="N122" t="n">
-        <v>590.0333333333333</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6491,28 +5313,18 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>21.42857142857143</v>
-      </c>
-      <c r="L123" t="n">
-        <v>588.7</v>
+        <v>580</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>589.55</v>
-      </c>
-      <c r="N123" t="n">
-        <v>590.0333333333333</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6542,28 +5354,18 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
-      </c>
-      <c r="J124" t="n">
-        <v>207</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>26.66666666666667</v>
-      </c>
-      <c r="L124" t="n">
-        <v>589.5</v>
+        <v>580</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>589.65</v>
-      </c>
-      <c r="N124" t="n">
-        <v>590.1</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6593,28 +5395,18 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J125" t="n">
-        <v>218</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>-25.71428571428571</v>
-      </c>
-      <c r="L125" t="n">
-        <v>589.2</v>
+        <v>580</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>589.2</v>
-      </c>
-      <c r="N125" t="n">
-        <v>589.8</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6644,28 +5436,18 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J126" t="n">
-        <v>221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>-18.91891891891892</v>
-      </c>
-      <c r="L126" t="n">
-        <v>588.6</v>
+        <v>580</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>588.9</v>
-      </c>
-      <c r="N126" t="n">
-        <v>589.6</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6697,26 +5479,16 @@
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>226</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L127" t="n">
-        <v>588.4</v>
+        <v>580</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>588.85</v>
-      </c>
-      <c r="N127" t="n">
-        <v>589.5666666666667</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6746,28 +5518,18 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>21.21212121212121</v>
-      </c>
-      <c r="L128" t="n">
-        <v>588.1</v>
+        <v>580</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>588.75</v>
-      </c>
-      <c r="N128" t="n">
-        <v>589.5</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6797,28 +5559,18 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J129" t="n">
-        <v>227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>-4</v>
-      </c>
-      <c r="L129" t="n">
-        <v>588.8</v>
+        <v>580</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>588.65</v>
-      </c>
-      <c r="N129" t="n">
-        <v>589.4333333333333</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6848,28 +5600,18 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J130" t="n">
-        <v>227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>-4</v>
-      </c>
-      <c r="L130" t="n">
-        <v>588.7</v>
+        <v>580</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>588.55</v>
-      </c>
-      <c r="N130" t="n">
-        <v>589.3666666666667</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6899,28 +5641,18 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J131" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>-17.24137931034483</v>
-      </c>
-      <c r="L131" t="n">
-        <v>588.1</v>
+        <v>580</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>588.2</v>
-      </c>
-      <c r="N131" t="n">
-        <v>589.1333333333333</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6950,28 +5682,18 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J132" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>-17.24137931034483</v>
-      </c>
-      <c r="L132" t="n">
-        <v>587.8</v>
+        <v>580</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>588.25</v>
-      </c>
-      <c r="N132" t="n">
-        <v>588.9666666666667</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7001,28 +5723,18 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
-      </c>
-      <c r="J133" t="n">
-        <v>240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>-3.03030303030303</v>
-      </c>
-      <c r="L133" t="n">
-        <v>587.9</v>
+        <v>580</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>588.3</v>
-      </c>
-      <c r="N133" t="n">
-        <v>589</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7052,28 +5764,18 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J134" t="n">
-        <v>247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>10.3448275862069</v>
-      </c>
-      <c r="L134" t="n">
-        <v>587.1</v>
+        <v>580</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>588.3</v>
-      </c>
-      <c r="N134" t="n">
-        <v>588.8</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7103,28 +5805,18 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J135" t="n">
-        <v>249</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>-7.142857142857142</v>
-      </c>
-      <c r="L135" t="n">
-        <v>587.2</v>
+        <v>580</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>588.2</v>
-      </c>
-      <c r="N135" t="n">
-        <v>588.5333333333333</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7154,28 +5846,18 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>3.225806451612903</v>
-      </c>
-      <c r="L136" t="n">
-        <v>587.8</v>
+        <v>580</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>588.2</v>
-      </c>
-      <c r="N136" t="n">
-        <v>588.5333333333333</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7205,28 +5887,18 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J137" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>-8.571428571428571</v>
-      </c>
-      <c r="L137" t="n">
-        <v>587.4</v>
+        <v>580</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>587.9</v>
-      </c>
-      <c r="N137" t="n">
-        <v>588.3666666666667</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7256,28 +5928,18 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>5</v>
-      </c>
-      <c r="L138" t="n">
-        <v>587.6</v>
+        <v>580</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M138" t="n">
-        <v>587.85</v>
-      </c>
-      <c r="N138" t="n">
-        <v>588.3666666666667</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7309,26 +5971,16 @@
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>268</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>2.439024390243902</v>
-      </c>
-      <c r="L139" t="n">
-        <v>587.7</v>
+        <v>580</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M139" t="n">
-        <v>588.25</v>
-      </c>
-      <c r="N139" t="n">
-        <v>588.3333333333334</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7358,28 +6010,18 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J140" t="n">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>13.51351351351351</v>
-      </c>
-      <c r="L140" t="n">
-        <v>587.7</v>
+        <v>580</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M140" t="n">
-        <v>588.2</v>
-      </c>
-      <c r="N140" t="n">
-        <v>588.2666666666667</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7409,28 +6051,18 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J141" t="n">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>8.571428571428571</v>
-      </c>
-      <c r="L141" t="n">
-        <v>588.2</v>
+        <v>580</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M141" t="n">
-        <v>588.15</v>
-      </c>
-      <c r="N141" t="n">
-        <v>588.2</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7460,28 +6092,18 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J142" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>-18.75</v>
-      </c>
-      <c r="L142" t="n">
-        <v>588.2</v>
+        <v>580</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M142" t="n">
-        <v>588</v>
-      </c>
-      <c r="N142" t="n">
-        <v>588.2333333333333</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7511,28 +6133,18 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J143" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>4</v>
-      </c>
-      <c r="L143" t="n">
-        <v>587.6</v>
+        <v>580</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M143" t="n">
-        <v>587.75</v>
-      </c>
-      <c r="N143" t="n">
-        <v>588.0666666666667</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7564,26 +6176,16 @@
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>276</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>25.92592592592592</v>
-      </c>
-      <c r="L144" t="n">
-        <v>588.1</v>
+        <v>580</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M144" t="n">
-        <v>587.6</v>
-      </c>
-      <c r="N144" t="n">
-        <v>588.2333333333333</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7613,28 +6215,18 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>3</v>
-      </c>
-      <c r="J145" t="n">
-        <v>279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L145" t="n">
-        <v>589.1</v>
+        <v>580</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M145" t="n">
-        <v>588.15</v>
-      </c>
-      <c r="N145" t="n">
-        <v>588.5</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7664,28 +6256,18 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
-      </c>
-      <c r="J146" t="n">
-        <v>279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>41.17647058823529</v>
-      </c>
-      <c r="L146" t="n">
-        <v>589.3</v>
+        <v>580</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M146" t="n">
-        <v>588.55</v>
-      </c>
-      <c r="N146" t="n">
-        <v>588.5666666666667</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7715,28 +6297,18 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>3</v>
-      </c>
-      <c r="J147" t="n">
-        <v>279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L147" t="n">
-        <v>590</v>
+        <v>580</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M147" t="n">
-        <v>588.7</v>
-      </c>
-      <c r="N147" t="n">
-        <v>588.6</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7766,28 +6338,18 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>6</v>
-      </c>
-      <c r="J148" t="n">
-        <v>282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L148" t="n">
-        <v>590.5</v>
+        <v>580</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M148" t="n">
-        <v>589.05</v>
-      </c>
-      <c r="N148" t="n">
-        <v>588.7333333333333</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7817,28 +6379,18 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>5</v>
-      </c>
-      <c r="J149" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L149" t="n">
-        <v>591</v>
+        <v>580</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M149" t="n">
-        <v>589.35</v>
-      </c>
-      <c r="N149" t="n">
-        <v>589.1666666666666</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,28 +6420,18 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J150" t="n">
-        <v>293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L150" t="n">
-        <v>590.6</v>
+        <v>580</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M150" t="n">
-        <v>589.15</v>
-      </c>
-      <c r="N150" t="n">
-        <v>589</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7919,28 +6461,18 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>5</v>
-      </c>
-      <c r="J151" t="n">
-        <v>303</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>29.03225806451613</v>
-      </c>
-      <c r="L151" t="n">
-        <v>591.2</v>
+        <v>580</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M151" t="n">
-        <v>589.7</v>
-      </c>
-      <c r="N151" t="n">
-        <v>589.1666666666666</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7970,28 +6502,18 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J152" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L152" t="n">
-        <v>591.4</v>
+        <v>580</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M152" t="n">
-        <v>589.8</v>
-      </c>
-      <c r="N152" t="n">
-        <v>589.1333333333333</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8021,28 +6543,18 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J153" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L153" t="n">
-        <v>591.6</v>
+        <v>580</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M153" t="n">
-        <v>589.6</v>
-      </c>
-      <c r="N153" t="n">
-        <v>589.0333333333333</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8072,28 +6584,18 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J154" t="n">
-        <v>312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>-21.21212121212121</v>
-      </c>
-      <c r="L154" t="n">
-        <v>591.2</v>
+        <v>580</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M154" t="n">
-        <v>589.65</v>
-      </c>
-      <c r="N154" t="n">
-        <v>588.8</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8123,28 +6625,18 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>3</v>
-      </c>
-      <c r="J155" t="n">
-        <v>319</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>0</v>
-      </c>
-      <c r="L155" t="n">
-        <v>591.2</v>
+        <v>580</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M155" t="n">
-        <v>590.15</v>
-      </c>
-      <c r="N155" t="n">
-        <v>589.1666666666666</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8174,28 +6666,18 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J156" t="n">
-        <v>324</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L156" t="n">
-        <v>590.7</v>
+        <v>580</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M156" t="n">
-        <v>590</v>
-      </c>
-      <c r="N156" t="n">
-        <v>589.2666666666667</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8225,28 +6707,18 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J157" t="n">
-        <v>326</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>-22.72727272727273</v>
-      </c>
-      <c r="L157" t="n">
-        <v>590</v>
+        <v>580</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M157" t="n">
-        <v>590</v>
-      </c>
-      <c r="N157" t="n">
-        <v>589.1333333333333</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8278,26 +6750,16 @@
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>330</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>-10.63829787234043</v>
-      </c>
-      <c r="L158" t="n">
-        <v>589.4</v>
+        <v>580</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M158" t="n">
-        <v>589.95</v>
-      </c>
-      <c r="N158" t="n">
-        <v>589.1666666666666</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8327,28 +6789,18 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J159" t="n">
-        <v>335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>0</v>
-      </c>
-      <c r="L159" t="n">
-        <v>588.4</v>
+        <v>580</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M159" t="n">
-        <v>589.7</v>
-      </c>
-      <c r="N159" t="n">
-        <v>589.0333333333333</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8380,26 +6832,16 @@
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>340</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>-13.51351351351351</v>
-      </c>
-      <c r="L160" t="n">
-        <v>588.9</v>
+        <v>580</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M160" t="n">
-        <v>589.75</v>
-      </c>
-      <c r="N160" t="n">
-        <v>589.0666666666667</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8431,26 +6873,16 @@
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>340</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L161" t="n">
-        <v>588.4</v>
+        <v>580</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M161" t="n">
-        <v>589.8</v>
-      </c>
-      <c r="N161" t="n">
-        <v>589.2666666666667</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8482,26 +6914,16 @@
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>340</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L162" t="n">
-        <v>588.6</v>
+        <v>580</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M162" t="n">
-        <v>590</v>
-      </c>
-      <c r="N162" t="n">
-        <v>589.4</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8531,28 +6953,18 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>7</v>
-      </c>
-      <c r="J163" t="n">
-        <v>347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>31.42857142857143</v>
-      </c>
-      <c r="L163" t="n">
-        <v>589.5</v>
+        <v>580</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M163" t="n">
-        <v>590.55</v>
-      </c>
-      <c r="N163" t="n">
-        <v>589.5666666666667</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8582,28 +6994,18 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>7</v>
-      </c>
-      <c r="J164" t="n">
-        <v>347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L164" t="n">
-        <v>590.6</v>
+        <v>580</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M164" t="n">
-        <v>590.9</v>
-      </c>
-      <c r="N164" t="n">
-        <v>589.9666666666667</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8633,28 +7035,18 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J165" t="n">
-        <v>358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L165" t="n">
-        <v>589.9</v>
+        <v>580</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M165" t="n">
-        <v>590.55</v>
-      </c>
-      <c r="N165" t="n">
-        <v>590.0666666666667</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8684,28 +7076,18 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>3</v>
-      </c>
-      <c r="J166" t="n">
-        <v>365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>17.94871794871795</v>
-      </c>
-      <c r="L166" t="n">
-        <v>590.4</v>
+        <v>580</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M166" t="n">
-        <v>590.55</v>
-      </c>
-      <c r="N166" t="n">
-        <v>590.1333333333333</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8735,28 +7117,18 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>2.702702702702703</v>
-      </c>
-      <c r="L167" t="n">
-        <v>590.9</v>
+        <v>580</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M167" t="n">
-        <v>590.45</v>
-      </c>
-      <c r="N167" t="n">
-        <v>590.3</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8786,28 +7158,18 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J168" t="n">
-        <v>374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>-2.564102564102564</v>
-      </c>
-      <c r="L168" t="n">
-        <v>590.3</v>
+        <v>580</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M168" t="n">
-        <v>589.85</v>
-      </c>
-      <c r="N168" t="n">
-        <v>590.0666666666667</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8837,28 +7199,18 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J169" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L169" t="n">
-        <v>590.1</v>
+        <v>580</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M169" t="n">
-        <v>589.25</v>
-      </c>
-      <c r="N169" t="n">
-        <v>589.8333333333334</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8888,28 +7240,18 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J170" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>-5</v>
-      </c>
-      <c r="L170" t="n">
-        <v>589.9</v>
+        <v>580</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M170" t="n">
-        <v>589.4</v>
-      </c>
-      <c r="N170" t="n">
-        <v>589.8</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8941,26 +7283,16 @@
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>382</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>0</v>
-      </c>
-      <c r="L171" t="n">
-        <v>589.9</v>
+        <v>580</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M171" t="n">
-        <v>589.15</v>
-      </c>
-      <c r="N171" t="n">
-        <v>589.8333333333334</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8992,26 +7324,16 @@
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>382</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L172" t="n">
-        <v>589.9</v>
+        <v>580</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M172" t="n">
-        <v>589.25</v>
-      </c>
-      <c r="N172" t="n">
-        <v>589.9666666666667</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9043,26 +7365,16 @@
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>382</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L173" t="n">
-        <v>589.2</v>
+        <v>580</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M173" t="n">
-        <v>589.35</v>
-      </c>
-      <c r="N173" t="n">
-        <v>590.1</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9092,28 +7404,18 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="n">
-        <v>383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>20</v>
-      </c>
-      <c r="L174" t="n">
-        <v>588.6</v>
+        <v>580</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M174" t="n">
-        <v>589.6</v>
-      </c>
-      <c r="N174" t="n">
-        <v>590.1333333333333</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9143,28 +7445,18 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
-      </c>
-      <c r="J175" t="n">
-        <v>383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L175" t="n">
-        <v>589.1</v>
+        <v>580</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M175" t="n">
-        <v>589.5</v>
-      </c>
-      <c r="N175" t="n">
-        <v>590.0666666666667</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9194,28 +7486,18 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="n">
-        <v>383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>0</v>
-      </c>
-      <c r="L176" t="n">
-        <v>588.9</v>
+        <v>580</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M176" t="n">
-        <v>589.65</v>
-      </c>
-      <c r="N176" t="n">
-        <v>590</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9245,28 +7527,18 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
-      </c>
-      <c r="J177" t="n">
-        <v>384</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>80</v>
-      </c>
-      <c r="L177" t="n">
-        <v>589</v>
+        <v>580</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M177" t="n">
-        <v>589.95</v>
-      </c>
-      <c r="N177" t="n">
-        <v>589.9666666666667</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9296,28 +7568,18 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>2</v>
-      </c>
-      <c r="J178" t="n">
-        <v>384</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>100</v>
-      </c>
-      <c r="L178" t="n">
-        <v>589.8</v>
+        <v>580</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M178" t="n">
-        <v>590.05</v>
-      </c>
-      <c r="N178" t="n">
-        <v>589.8333333333334</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9347,28 +7609,18 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>2</v>
-      </c>
-      <c r="J179" t="n">
-        <v>384</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>100</v>
-      </c>
-      <c r="L179" t="n">
-        <v>590.7</v>
+        <v>580</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M179" t="n">
-        <v>590.4</v>
-      </c>
-      <c r="N179" t="n">
-        <v>589.7333333333333</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9398,28 +7650,18 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J180" t="n">
-        <v>388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L180" t="n">
-        <v>590.7</v>
+        <v>580</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M180" t="n">
-        <v>590.3</v>
-      </c>
-      <c r="N180" t="n">
-        <v>589.8333333333334</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9449,28 +7691,18 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>2</v>
-      </c>
-      <c r="J181" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>20</v>
-      </c>
-      <c r="L181" t="n">
-        <v>590.9</v>
+        <v>580</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M181" t="n">
-        <v>590.4</v>
-      </c>
-      <c r="N181" t="n">
-        <v>589.7333333333333</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9500,28 +7732,18 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>2</v>
-      </c>
-      <c r="J182" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>20</v>
-      </c>
-      <c r="L182" t="n">
-        <v>591.1</v>
+        <v>580</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M182" t="n">
-        <v>590.5</v>
-      </c>
-      <c r="N182" t="n">
-        <v>589.8666666666667</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9551,28 +7773,18 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>3</v>
-      </c>
-      <c r="J183" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>20</v>
-      </c>
-      <c r="L183" t="n">
-        <v>591.4</v>
+        <v>580</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M183" t="n">
-        <v>590.3</v>
-      </c>
-      <c r="N183" t="n">
-        <v>590.0333333333333</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9602,28 +7814,18 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>5</v>
-      </c>
-      <c r="J184" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L184" t="n">
-        <v>591.8</v>
+        <v>580</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M184" t="n">
-        <v>590.2</v>
-      </c>
-      <c r="N184" t="n">
-        <v>590.3333333333334</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9653,28 +7855,18 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>6</v>
-      </c>
-      <c r="J185" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L185" t="n">
-        <v>592.3</v>
+        <v>580</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M185" t="n">
-        <v>590.7</v>
-      </c>
-      <c r="N185" t="n">
-        <v>590.4333333333333</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9704,28 +7896,18 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>8</v>
-      </c>
-      <c r="J186" t="n">
-        <v>398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L186" t="n">
-        <v>593</v>
+        <v>580</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M186" t="n">
-        <v>590.95</v>
-      </c>
-      <c r="N186" t="n">
-        <v>590.7666666666667</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9755,28 +7937,18 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>8</v>
-      </c>
-      <c r="J187" t="n">
-        <v>398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L187" t="n">
-        <v>593.6</v>
+        <v>580</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M187" t="n">
-        <v>591.3</v>
-      </c>
-      <c r="N187" t="n">
-        <v>591.1666666666666</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9806,28 +7978,18 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>9</v>
-      </c>
-      <c r="J188" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="L188" t="n">
-        <v>594.3</v>
+        <v>580</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M188" t="n">
-        <v>592.05</v>
-      </c>
-      <c r="N188" t="n">
-        <v>591.4666666666667</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9857,28 +8019,18 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>9</v>
-      </c>
-      <c r="J189" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>100</v>
-      </c>
-      <c r="L189" t="n">
-        <v>595</v>
+        <v>580</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M189" t="n">
-        <v>592.85</v>
-      </c>
-      <c r="N189" t="n">
-        <v>591.9333333333333</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9908,28 +8060,18 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>10</v>
-      </c>
-      <c r="J190" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>100</v>
-      </c>
-      <c r="L190" t="n">
-        <v>596.2</v>
+        <v>580</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M190" t="n">
-        <v>593.45</v>
-      </c>
-      <c r="N190" t="n">
-        <v>592.2666666666667</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9959,28 +8101,18 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>19</v>
-      </c>
-      <c r="J191" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>100</v>
-      </c>
-      <c r="L191" t="n">
-        <v>597.9</v>
+        <v>580</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M191" t="n">
-        <v>594.4</v>
-      </c>
-      <c r="N191" t="n">
-        <v>592.9</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10010,28 +8142,18 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>19</v>
-      </c>
-      <c r="J192" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>100</v>
-      </c>
-      <c r="L192" t="n">
-        <v>599.6</v>
+        <v>580</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M192" t="n">
-        <v>595.35</v>
-      </c>
-      <c r="N192" t="n">
-        <v>593.5333333333333</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10061,28 +8183,18 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>19</v>
-      </c>
-      <c r="J193" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>100</v>
-      </c>
-      <c r="L193" t="n">
-        <v>601.2</v>
+        <v>580</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M193" t="n">
-        <v>596.3</v>
-      </c>
-      <c r="N193" t="n">
-        <v>593.9333333333333</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10112,28 +8224,18 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>23</v>
-      </c>
-      <c r="J194" t="n">
-        <v>413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>100</v>
-      </c>
-      <c r="L194" t="n">
-        <v>603</v>
+        <v>580</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M194" t="n">
-        <v>597.4</v>
-      </c>
-      <c r="N194" t="n">
-        <v>594.4666666666667</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10163,28 +8265,18 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>22</v>
-      </c>
-      <c r="J195" t="n">
-        <v>414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L195" t="n">
-        <v>604.6</v>
+        <v>580</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M195" t="n">
-        <v>598.45</v>
-      </c>
-      <c r="N195" t="n">
-        <v>595.3333333333334</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10214,28 +8306,18 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>20</v>
-      </c>
-      <c r="J196" t="n">
-        <v>416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L196" t="n">
-        <v>605.8</v>
+        <v>580</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M196" t="n">
-        <v>599.4</v>
-      </c>
-      <c r="N196" t="n">
-        <v>595.9</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10265,29 +8347,19 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>25</v>
-      </c>
-      <c r="J197" t="n">
-        <v>421</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>72.72727272727273</v>
-      </c>
-      <c r="L197" t="n">
-        <v>607.5</v>
+        <v>580</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M197" t="n">
-        <v>600.55</v>
-      </c>
-      <c r="N197" t="n">
-        <v>596.7</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
-        <v>1</v>
+        <v>1.055344827586207</v>
       </c>
     </row>
     <row r="198">
@@ -10316,28 +8388,12 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>27</v>
-      </c>
-      <c r="J198" t="n">
-        <v>423</v>
-      </c>
-      <c r="K198" t="n">
-        <v>75</v>
-      </c>
-      <c r="L198" t="n">
-        <v>609.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
-        <v>601.8</v>
-      </c>
-      <c r="N198" t="n">
-        <v>597.8</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10367,28 +8423,12 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>27</v>
-      </c>
-      <c r="J199" t="n">
-        <v>423</v>
-      </c>
-      <c r="K199" t="n">
-        <v>73.91304347826086</v>
-      </c>
-      <c r="L199" t="n">
-        <v>611.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
-        <v>603.05</v>
-      </c>
-      <c r="N199" t="n">
-        <v>598.9333333333333</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10418,28 +8458,12 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>28</v>
-      </c>
-      <c r="J200" t="n">
-        <v>424</v>
-      </c>
-      <c r="K200" t="n">
-        <v>60</v>
-      </c>
-      <c r="L200" t="n">
-        <v>612.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
-        <v>604.55</v>
-      </c>
-      <c r="N200" t="n">
-        <v>599.9333333333333</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10469,28 +8493,12 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>28</v>
-      </c>
-      <c r="J201" t="n">
-        <v>424</v>
-      </c>
-      <c r="K201" t="n">
-        <v>60</v>
-      </c>
-      <c r="L201" t="n">
-        <v>613.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
-        <v>605.85</v>
-      </c>
-      <c r="N201" t="n">
-        <v>600.8666666666667</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10520,28 +8528,12 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>28</v>
-      </c>
-      <c r="J202" t="n">
-        <v>424</v>
-      </c>
-      <c r="K202" t="n">
-        <v>60</v>
-      </c>
-      <c r="L202" t="n">
-        <v>614.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
-        <v>607.15</v>
-      </c>
-      <c r="N202" t="n">
-        <v>601.8</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10571,28 +8563,12 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>28</v>
-      </c>
-      <c r="J203" t="n">
-        <v>424</v>
-      </c>
-      <c r="K203" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L203" t="n">
-        <v>615.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
-        <v>608.4</v>
-      </c>
-      <c r="N203" t="n">
-        <v>602.7333333333333</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10622,28 +8598,12 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>29</v>
-      </c>
-      <c r="J204" t="n">
-        <v>425</v>
-      </c>
-      <c r="K204" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L204" t="n">
-        <v>616.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
-        <v>609.6</v>
-      </c>
-      <c r="N204" t="n">
-        <v>603.6666666666666</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10673,28 +8633,12 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>28</v>
-      </c>
-      <c r="J205" t="n">
-        <v>426</v>
-      </c>
-      <c r="K205" t="n">
-        <v>80</v>
-      </c>
-      <c r="L205" t="n">
-        <v>616.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
-        <v>610.7</v>
-      </c>
-      <c r="N205" t="n">
-        <v>604.5666666666667</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10724,28 +8668,12 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>26</v>
-      </c>
-      <c r="J206" t="n">
-        <v>428</v>
-      </c>
-      <c r="K206" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L206" t="n">
-        <v>617.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
-        <v>611.6</v>
-      </c>
-      <c r="N206" t="n">
-        <v>605.4</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10775,28 +8703,12 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>26</v>
-      </c>
-      <c r="J207" t="n">
-        <v>428</v>
-      </c>
-      <c r="K207" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L207" t="n">
-        <v>617.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
-        <v>612.5</v>
-      </c>
-      <c r="N207" t="n">
-        <v>606.2</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10826,28 +8738,12 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>29</v>
-      </c>
-      <c r="J208" t="n">
-        <v>431</v>
-      </c>
-      <c r="K208" t="n">
-        <v>25</v>
-      </c>
-      <c r="L208" t="n">
-        <v>617.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
-        <v>613.5</v>
-      </c>
-      <c r="N208" t="n">
-        <v>607.1</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10877,28 +8773,12 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>36</v>
-      </c>
-      <c r="J209" t="n">
-        <v>438</v>
-      </c>
-      <c r="K209" t="n">
-        <v>57.14285714285714</v>
-      </c>
-      <c r="L209" t="n">
-        <v>618.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
-        <v>614.85</v>
-      </c>
-      <c r="N209" t="n">
-        <v>608.2333333333333</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10928,28 +8808,12 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>27</v>
-      </c>
-      <c r="J210" t="n">
-        <v>447</v>
-      </c>
-      <c r="K210" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L210" t="n">
-        <v>618.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
-        <v>615.7</v>
-      </c>
-      <c r="N210" t="n">
-        <v>609.2</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10979,28 +8843,12 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>36</v>
-      </c>
-      <c r="J211" t="n">
-        <v>456</v>
-      </c>
-      <c r="K211" t="n">
-        <v>25</v>
-      </c>
-      <c r="L211" t="n">
-        <v>619.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
-        <v>616.55</v>
-      </c>
-      <c r="N211" t="n">
-        <v>610.3333333333334</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11030,28 +8878,12 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>23</v>
-      </c>
-      <c r="J212" t="n">
-        <v>469</v>
-      </c>
-      <c r="K212" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L212" t="n">
-        <v>618.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
-        <v>616.75</v>
-      </c>
-      <c r="N212" t="n">
-        <v>611.0333333333333</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11081,28 +8913,12 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>22</v>
-      </c>
-      <c r="J213" t="n">
-        <v>470</v>
-      </c>
-      <c r="K213" t="n">
-        <v>-15.55555555555556</v>
-      </c>
-      <c r="L213" t="n">
-        <v>618.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
-        <v>616.9</v>
-      </c>
-      <c r="N213" t="n">
-        <v>611.6666666666666</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11132,28 +8948,12 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>26</v>
-      </c>
-      <c r="J214" t="n">
-        <v>474</v>
-      </c>
-      <c r="K214" t="n">
-        <v>-4.166666666666666</v>
-      </c>
-      <c r="L214" t="n">
-        <v>617.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
-        <v>617.05</v>
-      </c>
-      <c r="N214" t="n">
-        <v>612.3666666666667</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11183,28 +8983,12 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>26</v>
-      </c>
-      <c r="J215" t="n">
-        <v>474</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0</v>
-      </c>
-      <c r="L215" t="n">
-        <v>617.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
-        <v>617.25</v>
-      </c>
-      <c r="N215" t="n">
-        <v>613.0333333333333</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11234,28 +9018,12 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>14</v>
-      </c>
-      <c r="J216" t="n">
-        <v>486</v>
-      </c>
-      <c r="K216" t="n">
-        <v>-20.68965517241379</v>
-      </c>
-      <c r="L216" t="n">
-        <v>616.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
-        <v>616.95</v>
-      </c>
-      <c r="N216" t="n">
-        <v>613.2333333333333</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11285,28 +9053,12 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>16</v>
-      </c>
-      <c r="J217" t="n">
-        <v>488</v>
-      </c>
-      <c r="K217" t="n">
-        <v>-22.80701754385965</v>
-      </c>
-      <c r="L217" t="n">
-        <v>615.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
-        <v>616.5</v>
-      </c>
-      <c r="N217" t="n">
-        <v>613.5</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11336,28 +9088,12 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>13</v>
-      </c>
-      <c r="J218" t="n">
-        <v>491</v>
-      </c>
-      <c r="K218" t="n">
-        <v>-43.39622641509434</v>
-      </c>
-      <c r="L218" t="n">
-        <v>613.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
-        <v>615.8</v>
-      </c>
-      <c r="N218" t="n">
-        <v>613.6333333333333</v>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11387,28 +9123,12 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>29</v>
-      </c>
-      <c r="J219" t="n">
-        <v>507</v>
-      </c>
-      <c r="K219" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="L219" t="n">
-        <v>613.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
-        <v>615.9</v>
-      </c>
-      <c r="N219" t="n">
-        <v>614.3</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11438,28 +9158,12 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>29</v>
-      </c>
-      <c r="J220" t="n">
-        <v>507</v>
-      </c>
-      <c r="K220" t="n">
-        <v>-13.72549019607843</v>
-      </c>
-      <c r="L220" t="n">
-        <v>613.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
-        <v>615.95</v>
-      </c>
-      <c r="N220" t="n">
-        <v>614.9333333333333</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11489,28 +9193,12 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>16</v>
-      </c>
-      <c r="J221" t="n">
-        <v>520</v>
-      </c>
-      <c r="K221" t="n">
-        <v>-13.72549019607843</v>
-      </c>
-      <c r="L221" t="n">
-        <v>611.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
-        <v>615.35</v>
-      </c>
-      <c r="N221" t="n">
-        <v>614.8333333333334</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11540,28 +9228,12 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>15</v>
-      </c>
-      <c r="J222" t="n">
-        <v>521</v>
-      </c>
-      <c r="K222" t="n">
-        <v>-13.72549019607843</v>
-      </c>
-      <c r="L222" t="n">
-        <v>610.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
-        <v>614.7</v>
-      </c>
-      <c r="N222" t="n">
-        <v>614.7</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11591,28 +9263,12 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>26</v>
-      </c>
-      <c r="J223" t="n">
-        <v>532</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0</v>
-      </c>
-      <c r="L223" t="n">
-        <v>611</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
-        <v>614.6</v>
-      </c>
-      <c r="N223" t="n">
-        <v>614.9333333333333</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11642,28 +9298,12 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>15</v>
-      </c>
-      <c r="J224" t="n">
-        <v>543</v>
-      </c>
-      <c r="K224" t="n">
-        <v>-15.94202898550724</v>
-      </c>
-      <c r="L224" t="n">
-        <v>609.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
-        <v>613.9</v>
-      </c>
-      <c r="N224" t="n">
-        <v>614.6666666666666</v>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11693,28 +9333,12 @@
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>15</v>
-      </c>
-      <c r="J225" t="n">
-        <v>543</v>
-      </c>
-      <c r="K225" t="n">
-        <v>1.754385964912281</v>
-      </c>
-      <c r="L225" t="n">
-        <v>608.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
-        <v>613.25</v>
-      </c>
-      <c r="N225" t="n">
-        <v>614.4333333333333</v>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11744,28 +9368,12 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>16</v>
-      </c>
-      <c r="J226" t="n">
-        <v>544</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0</v>
-      </c>
-      <c r="L226" t="n">
-        <v>609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
-        <v>612.75</v>
-      </c>
-      <c r="N226" t="n">
-        <v>614.3</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11795,28 +9403,12 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>16</v>
-      </c>
-      <c r="J227" t="n">
-        <v>544</v>
-      </c>
-      <c r="K227" t="n">
-        <v>5.660377358490567</v>
-      </c>
-      <c r="L227" t="n">
-        <v>609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
-        <v>612.25</v>
-      </c>
-      <c r="N227" t="n">
-        <v>614</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11846,28 +9438,12 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>16</v>
-      </c>
-      <c r="J228" t="n">
-        <v>544</v>
-      </c>
-      <c r="K228" t="n">
-        <v>-35.13513513513514</v>
-      </c>
-      <c r="L228" t="n">
-        <v>609.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
-        <v>611.6</v>
-      </c>
-      <c r="N228" t="n">
-        <v>613.6333333333333</v>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11897,28 +9473,12 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>15</v>
-      </c>
-      <c r="J229" t="n">
-        <v>545</v>
-      </c>
-      <c r="K229" t="n">
-        <v>-36.84210526315789</v>
-      </c>
-      <c r="L229" t="n">
-        <v>607.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
-        <v>610.55</v>
-      </c>
-      <c r="N229" t="n">
-        <v>613.2333333333333</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11948,28 +9508,12 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>17</v>
-      </c>
-      <c r="J230" t="n">
-        <v>547</v>
-      </c>
-      <c r="K230" t="n">
-        <v>3.703703703703703</v>
-      </c>
-      <c r="L230" t="n">
-        <v>606.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
-        <v>610.05</v>
-      </c>
-      <c r="N230" t="n">
-        <v>612.8666666666667</v>
-      </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11999,28 +9543,12 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>17</v>
-      </c>
-      <c r="J231" t="n">
-        <v>547</v>
-      </c>
-      <c r="K231" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L231" t="n">
-        <v>606.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
-        <v>609.1</v>
-      </c>
-      <c r="N231" t="n">
-        <v>612.5</v>
-      </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12050,28 +9578,12 @@
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>18</v>
-      </c>
-      <c r="J232" t="n">
-        <v>548</v>
-      </c>
-      <c r="K232" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L232" t="n">
-        <v>607.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
-        <v>608.85</v>
-      </c>
-      <c r="N232" t="n">
-        <v>612.1666666666666</v>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12101,1099 +9613,12 @@
         <v>0</v>
       </c>
       <c r="I233" t="n">
-        <v>18</v>
-      </c>
-      <c r="J233" t="n">
-        <v>548</v>
-      </c>
-      <c r="K233" t="n">
-        <v>60</v>
-      </c>
-      <c r="L233" t="n">
-        <v>606.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
-        <v>608.65</v>
-      </c>
-      <c r="N233" t="n">
-        <v>611.8333333333334</v>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>608</v>
-      </c>
-      <c r="C234" t="n">
-        <v>607</v>
-      </c>
-      <c r="D234" t="n">
-        <v>608</v>
-      </c>
-      <c r="E234" t="n">
-        <v>607</v>
-      </c>
-      <c r="F234" t="n">
-        <v>364</v>
-      </c>
-      <c r="G234" t="n">
-        <v>607.55</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>17</v>
-      </c>
-      <c r="J234" t="n">
-        <v>549</v>
-      </c>
-      <c r="K234" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L234" t="n">
-        <v>606.5</v>
-      </c>
-      <c r="M234" t="n">
-        <v>608.2</v>
-      </c>
-      <c r="N234" t="n">
-        <v>611.4333333333333</v>
-      </c>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>608</v>
-      </c>
-      <c r="C235" t="n">
-        <v>606</v>
-      </c>
-      <c r="D235" t="n">
-        <v>608</v>
-      </c>
-      <c r="E235" t="n">
-        <v>606</v>
-      </c>
-      <c r="F235" t="n">
-        <v>2935.0991</v>
-      </c>
-      <c r="G235" t="n">
-        <v>607.8</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>16</v>
-      </c>
-      <c r="J235" t="n">
-        <v>550</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0</v>
-      </c>
-      <c r="L235" t="n">
-        <v>606.6</v>
-      </c>
-      <c r="M235" t="n">
-        <v>607.7</v>
-      </c>
-      <c r="N235" t="n">
-        <v>611.0333333333333</v>
-      </c>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
-      <c r="Q235" t="inlineStr"/>
-      <c r="R235" t="inlineStr"/>
-      <c r="S235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>606</v>
-      </c>
-      <c r="C236" t="n">
-        <v>606</v>
-      </c>
-      <c r="D236" t="n">
-        <v>606</v>
-      </c>
-      <c r="E236" t="n">
-        <v>606</v>
-      </c>
-      <c r="F236" t="n">
-        <v>1593.6143</v>
-      </c>
-      <c r="G236" t="n">
-        <v>608.05</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>16</v>
-      </c>
-      <c r="J236" t="n">
-        <v>550</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0</v>
-      </c>
-      <c r="L236" t="n">
-        <v>606.6</v>
-      </c>
-      <c r="M236" t="n">
-        <v>607.8</v>
-      </c>
-      <c r="N236" t="n">
-        <v>610.7</v>
-      </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-      <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="inlineStr"/>
-      <c r="S236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>606</v>
-      </c>
-      <c r="C237" t="n">
-        <v>606</v>
-      </c>
-      <c r="D237" t="n">
-        <v>606</v>
-      </c>
-      <c r="E237" t="n">
-        <v>606</v>
-      </c>
-      <c r="F237" t="n">
-        <v>707.2184</v>
-      </c>
-      <c r="G237" t="n">
-        <v>608.2833333333333</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>16</v>
-      </c>
-      <c r="J237" t="n">
-        <v>550</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0</v>
-      </c>
-      <c r="L237" t="n">
-        <v>606.6</v>
-      </c>
-      <c r="M237" t="n">
-        <v>607.8</v>
-      </c>
-      <c r="N237" t="n">
-        <v>610.3666666666667</v>
-      </c>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
-      <c r="S237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>607</v>
-      </c>
-      <c r="C238" t="n">
-        <v>607</v>
-      </c>
-      <c r="D238" t="n">
-        <v>607</v>
-      </c>
-      <c r="E238" t="n">
-        <v>606</v>
-      </c>
-      <c r="F238" t="n">
-        <v>2178.3855</v>
-      </c>
-      <c r="G238" t="n">
-        <v>608.5333333333333</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>17</v>
-      </c>
-      <c r="J238" t="n">
-        <v>551</v>
-      </c>
-      <c r="K238" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L238" t="n">
-        <v>606.7</v>
-      </c>
-      <c r="M238" t="n">
-        <v>608</v>
-      </c>
-      <c r="N238" t="n">
-        <v>609.9666666666667</v>
-      </c>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
-      <c r="Q238" t="inlineStr"/>
-      <c r="R238" t="inlineStr"/>
-      <c r="S238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>606</v>
-      </c>
-      <c r="C239" t="n">
-        <v>606</v>
-      </c>
-      <c r="D239" t="n">
-        <v>606</v>
-      </c>
-      <c r="E239" t="n">
-        <v>606</v>
-      </c>
-      <c r="F239" t="n">
-        <v>0.3219</v>
-      </c>
-      <c r="G239" t="n">
-        <v>608.7666666666667</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>16</v>
-      </c>
-      <c r="J239" t="n">
-        <v>552</v>
-      </c>
-      <c r="K239" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L239" t="n">
-        <v>606.8</v>
-      </c>
-      <c r="M239" t="n">
-        <v>607.35</v>
-      </c>
-      <c r="N239" t="n">
-        <v>609.3</v>
-      </c>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
-      <c r="Q239" t="inlineStr"/>
-      <c r="R239" t="inlineStr"/>
-      <c r="S239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>609</v>
-      </c>
-      <c r="C240" t="n">
-        <v>609</v>
-      </c>
-      <c r="D240" t="n">
-        <v>609</v>
-      </c>
-      <c r="E240" t="n">
-        <v>609</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1</v>
-      </c>
-      <c r="G240" t="n">
-        <v>609.1166666666667</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>19</v>
-      </c>
-      <c r="J240" t="n">
-        <v>555</v>
-      </c>
-      <c r="K240" t="n">
-        <v>25</v>
-      </c>
-      <c r="L240" t="n">
-        <v>607</v>
-      </c>
-      <c r="M240" t="n">
-        <v>606.85</v>
-      </c>
-      <c r="N240" t="n">
-        <v>609.0333333333333</v>
-      </c>
-      <c r="O240" t="inlineStr"/>
-      <c r="P240" t="inlineStr"/>
-      <c r="Q240" t="inlineStr"/>
-      <c r="R240" t="inlineStr"/>
-      <c r="S240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>605</v>
-      </c>
-      <c r="C241" t="n">
-        <v>603</v>
-      </c>
-      <c r="D241" t="n">
-        <v>605</v>
-      </c>
-      <c r="E241" t="n">
-        <v>603</v>
-      </c>
-      <c r="F241" t="n">
-        <v>922.8973</v>
-      </c>
-      <c r="G241" t="n">
-        <v>609.3</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>13</v>
-      </c>
-      <c r="J241" t="n">
-        <v>561</v>
-      </c>
-      <c r="K241" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L241" t="n">
-        <v>606.6</v>
-      </c>
-      <c r="M241" t="n">
-        <v>606.7</v>
-      </c>
-      <c r="N241" t="n">
-        <v>608.2666666666667</v>
-      </c>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
-      <c r="S241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>606</v>
-      </c>
-      <c r="C242" t="n">
-        <v>606</v>
-      </c>
-      <c r="D242" t="n">
-        <v>606</v>
-      </c>
-      <c r="E242" t="n">
-        <v>606</v>
-      </c>
-      <c r="F242" t="n">
-        <v>1</v>
-      </c>
-      <c r="G242" t="n">
-        <v>609.5333333333333</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>16</v>
-      </c>
-      <c r="J242" t="n">
-        <v>564</v>
-      </c>
-      <c r="K242" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L242" t="n">
-        <v>606.4</v>
-      </c>
-      <c r="M242" t="n">
-        <v>606.75</v>
-      </c>
-      <c r="N242" t="n">
-        <v>608.0333333333333</v>
-      </c>
-      <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr"/>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
-      <c r="S242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>597</v>
-      </c>
-      <c r="C243" t="n">
-        <v>596</v>
-      </c>
-      <c r="D243" t="n">
-        <v>597</v>
-      </c>
-      <c r="E243" t="n">
-        <v>596</v>
-      </c>
-      <c r="F243" t="n">
-        <v>418.3295</v>
-      </c>
-      <c r="G243" t="n">
-        <v>609.5833333333334</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>6</v>
-      </c>
-      <c r="J243" t="n">
-        <v>574</v>
-      </c>
-      <c r="K243" t="n">
-        <v>-44</v>
-      </c>
-      <c r="L243" t="n">
-        <v>605.2</v>
-      </c>
-      <c r="M243" t="n">
-        <v>605.75</v>
-      </c>
-      <c r="N243" t="n">
-        <v>607.5</v>
-      </c>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>601</v>
-      </c>
-      <c r="C244" t="n">
-        <v>595</v>
-      </c>
-      <c r="D244" t="n">
-        <v>601</v>
-      </c>
-      <c r="E244" t="n">
-        <v>595</v>
-      </c>
-      <c r="F244" t="n">
-        <v>911.6389</v>
-      </c>
-      <c r="G244" t="n">
-        <v>609.5833333333334</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>5</v>
-      </c>
-      <c r="J244" t="n">
-        <v>575</v>
-      </c>
-      <c r="K244" t="n">
-        <v>-44</v>
-      </c>
-      <c r="L244" t="n">
-        <v>604</v>
-      </c>
-      <c r="M244" t="n">
-        <v>605.25</v>
-      </c>
-      <c r="N244" t="n">
-        <v>606.8</v>
-      </c>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
-      <c r="S244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>595</v>
-      </c>
-      <c r="C245" t="n">
-        <v>601</v>
-      </c>
-      <c r="D245" t="n">
-        <v>601</v>
-      </c>
-      <c r="E245" t="n">
-        <v>595</v>
-      </c>
-      <c r="F245" t="n">
-        <v>1475.6143</v>
-      </c>
-      <c r="G245" t="n">
-        <v>609.6666666666666</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>11</v>
-      </c>
-      <c r="J245" t="n">
-        <v>581</v>
-      </c>
-      <c r="K245" t="n">
-        <v>-16.12903225806452</v>
-      </c>
-      <c r="L245" t="n">
-        <v>603.5</v>
-      </c>
-      <c r="M245" t="n">
-        <v>605.05</v>
-      </c>
-      <c r="N245" t="n">
-        <v>606.3</v>
-      </c>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
-      <c r="S245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>601</v>
-      </c>
-      <c r="C246" t="n">
-        <v>603</v>
-      </c>
-      <c r="D246" t="n">
-        <v>603</v>
-      </c>
-      <c r="E246" t="n">
-        <v>601</v>
-      </c>
-      <c r="F246" t="n">
-        <v>127.9059</v>
-      </c>
-      <c r="G246" t="n">
-        <v>609.75</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>13</v>
-      </c>
-      <c r="J246" t="n">
-        <v>583</v>
-      </c>
-      <c r="K246" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L246" t="n">
-        <v>603.2</v>
-      </c>
-      <c r="M246" t="n">
-        <v>604.9</v>
-      </c>
-      <c r="N246" t="n">
-        <v>606.2666666666667</v>
-      </c>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
-      <c r="S246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>608</v>
-      </c>
-      <c r="C247" t="n">
-        <v>608</v>
-      </c>
-      <c r="D247" t="n">
-        <v>608</v>
-      </c>
-      <c r="E247" t="n">
-        <v>608</v>
-      </c>
-      <c r="F247" t="n">
-        <v>11</v>
-      </c>
-      <c r="G247" t="n">
-        <v>609.9166666666666</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>18</v>
-      </c>
-      <c r="J247" t="n">
-        <v>588</v>
-      </c>
-      <c r="K247" t="n">
-        <v>2.702702702702703</v>
-      </c>
-      <c r="L247" t="n">
-        <v>603.4</v>
-      </c>
-      <c r="M247" t="n">
-        <v>605</v>
-      </c>
-      <c r="N247" t="n">
-        <v>606.3333333333334</v>
-      </c>
-      <c r="O247" t="inlineStr"/>
-      <c r="P247" t="inlineStr"/>
-      <c r="Q247" t="inlineStr"/>
-      <c r="R247" t="inlineStr"/>
-      <c r="S247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>597</v>
-      </c>
-      <c r="C248" t="n">
-        <v>596</v>
-      </c>
-      <c r="D248" t="n">
-        <v>597</v>
-      </c>
-      <c r="E248" t="n">
-        <v>596</v>
-      </c>
-      <c r="F248" t="n">
-        <v>152.888</v>
-      </c>
-      <c r="G248" t="n">
-        <v>609.8666666666667</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>6</v>
-      </c>
-      <c r="J248" t="n">
-        <v>600</v>
-      </c>
-      <c r="K248" t="n">
-        <v>-20.83333333333334</v>
-      </c>
-      <c r="L248" t="n">
-        <v>602.3</v>
-      </c>
-      <c r="M248" t="n">
-        <v>604.5</v>
-      </c>
-      <c r="N248" t="n">
-        <v>606.1</v>
-      </c>
-      <c r="O248" t="inlineStr"/>
-      <c r="P248" t="inlineStr"/>
-      <c r="Q248" t="inlineStr"/>
-      <c r="R248" t="inlineStr"/>
-      <c r="S248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>596</v>
-      </c>
-      <c r="C249" t="n">
-        <v>593</v>
-      </c>
-      <c r="D249" t="n">
-        <v>596</v>
-      </c>
-      <c r="E249" t="n">
-        <v>593</v>
-      </c>
-      <c r="F249" t="n">
-        <v>1888.4164</v>
-      </c>
-      <c r="G249" t="n">
-        <v>609.7666666666667</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>3</v>
-      </c>
-      <c r="J249" t="n">
-        <v>603</v>
-      </c>
-      <c r="K249" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L249" t="n">
-        <v>601</v>
-      </c>
-      <c r="M249" t="n">
-        <v>603.9</v>
-      </c>
-      <c r="N249" t="n">
-        <v>605.2333333333333</v>
-      </c>
-      <c r="O249" t="inlineStr"/>
-      <c r="P249" t="inlineStr"/>
-      <c r="Q249" t="inlineStr"/>
-      <c r="R249" t="inlineStr"/>
-      <c r="S249" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>593</v>
-      </c>
-      <c r="C250" t="n">
-        <v>593</v>
-      </c>
-      <c r="D250" t="n">
-        <v>593</v>
-      </c>
-      <c r="E250" t="n">
-        <v>593</v>
-      </c>
-      <c r="F250" t="n">
-        <v>442.9715</v>
-      </c>
-      <c r="G250" t="n">
-        <v>609.65</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>3</v>
-      </c>
-      <c r="J250" t="n">
-        <v>603</v>
-      </c>
-      <c r="K250" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L250" t="n">
-        <v>599.4</v>
-      </c>
-      <c r="M250" t="n">
-        <v>603.2</v>
-      </c>
-      <c r="N250" t="n">
-        <v>604.3666666666667</v>
-      </c>
-      <c r="O250" t="inlineStr"/>
-      <c r="P250" t="inlineStr"/>
-      <c r="Q250" t="inlineStr"/>
-      <c r="R250" t="inlineStr"/>
-      <c r="S250" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>593</v>
-      </c>
-      <c r="C251" t="n">
-        <v>590</v>
-      </c>
-      <c r="D251" t="n">
-        <v>593</v>
-      </c>
-      <c r="E251" t="n">
-        <v>590</v>
-      </c>
-      <c r="F251" t="n">
-        <v>2394.0974</v>
-      </c>
-      <c r="G251" t="n">
-        <v>609.3333333333334</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="n">
-        <v>606</v>
-      </c>
-      <c r="K251" t="n">
-        <v>-38.09523809523809</v>
-      </c>
-      <c r="L251" t="n">
-        <v>598.1</v>
-      </c>
-      <c r="M251" t="n">
-        <v>602.35</v>
-      </c>
-      <c r="N251" t="n">
-        <v>603.8333333333334</v>
-      </c>
-      <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr"/>
-      <c r="Q251" t="inlineStr"/>
-      <c r="R251" t="inlineStr"/>
-      <c r="S251" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>591</v>
-      </c>
-      <c r="C252" t="n">
-        <v>588</v>
-      </c>
-      <c r="D252" t="n">
-        <v>591</v>
-      </c>
-      <c r="E252" t="n">
-        <v>588</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1085.9999</v>
-      </c>
-      <c r="G252" t="n">
-        <v>608.9833333333333</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J252" t="n">
-        <v>608</v>
-      </c>
-      <c r="K252" t="n">
-        <v>-23.52941176470588</v>
-      </c>
-      <c r="L252" t="n">
-        <v>596.3</v>
-      </c>
-      <c r="M252" t="n">
-        <v>601.35</v>
-      </c>
-      <c r="N252" t="n">
-        <v>603.2666666666667</v>
-      </c>
-      <c r="O252" t="inlineStr"/>
-      <c r="P252" t="inlineStr"/>
-      <c r="Q252" t="inlineStr"/>
-      <c r="R252" t="inlineStr"/>
-      <c r="S252" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>588</v>
-      </c>
-      <c r="C253" t="n">
-        <v>587</v>
-      </c>
-      <c r="D253" t="n">
-        <v>588</v>
-      </c>
-      <c r="E253" t="n">
-        <v>587</v>
-      </c>
-      <c r="F253" t="n">
-        <v>450</v>
-      </c>
-      <c r="G253" t="n">
-        <v>608.6166666666667</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J253" t="n">
-        <v>609</v>
-      </c>
-      <c r="K253" t="n">
-        <v>-23.52941176470588</v>
-      </c>
-      <c r="L253" t="n">
-        <v>595.4</v>
-      </c>
-      <c r="M253" t="n">
-        <v>600.3</v>
-      </c>
-      <c r="N253" t="n">
-        <v>602.3</v>
-      </c>
-      <c r="O253" t="inlineStr"/>
-      <c r="P253" t="inlineStr"/>
-      <c r="Q253" t="inlineStr"/>
-      <c r="R253" t="inlineStr"/>
-      <c r="S253" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>587</v>
-      </c>
-      <c r="C254" t="n">
-        <v>580</v>
-      </c>
-      <c r="D254" t="n">
-        <v>587</v>
-      </c>
-      <c r="E254" t="n">
-        <v>580</v>
-      </c>
-      <c r="F254" t="n">
-        <v>935.8697</v>
-      </c>
-      <c r="G254" t="n">
-        <v>608.0666666666667</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J254" t="n">
-        <v>616</v>
-      </c>
-      <c r="K254" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L254" t="n">
-        <v>593.9</v>
-      </c>
-      <c r="M254" t="n">
-        <v>598.95</v>
-      </c>
-      <c r="N254" t="n">
-        <v>601.4666666666667</v>
-      </c>
-      <c r="O254" t="inlineStr"/>
-      <c r="P254" t="inlineStr"/>
-      <c r="Q254" t="inlineStr"/>
-      <c r="R254" t="inlineStr"/>
-      <c r="S254" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-18 BackTest GXC.xlsx
+++ b/BackTest/2019-10-18 BackTest GXC.xlsx
@@ -1011,17 +1011,13 @@
         <v>584.9333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>582</v>
-      </c>
-      <c r="K18" t="n">
-        <v>582</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1050,22 +1046,14 @@
         <v>585</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>584</v>
-      </c>
-      <c r="K19" t="n">
-        <v>582</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1093,22 +1081,14 @@
         <v>585.0666666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>584</v>
-      </c>
-      <c r="K20" t="n">
-        <v>582</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1136,17 +1116,13 @@
         <v>585.15</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>584</v>
-      </c>
-      <c r="K21" t="n">
-        <v>584</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
@@ -1181,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>584</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1222,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>584</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1362,17 +1326,13 @@
         <v>585.5166666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>583</v>
-      </c>
-      <c r="K27" t="n">
-        <v>583</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
@@ -1401,22 +1361,14 @@
         <v>585.5666666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>583</v>
-      </c>
-      <c r="K28" t="n">
-        <v>583</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1444,22 +1396,14 @@
         <v>585.7666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>583</v>
-      </c>
-      <c r="K29" t="n">
-        <v>583</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1487,17 +1431,13 @@
         <v>585.8666666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>584</v>
-      </c>
-      <c r="K30" t="n">
-        <v>584</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
@@ -1526,22 +1466,14 @@
         <v>585.95</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>585</v>
-      </c>
-      <c r="K31" t="n">
-        <v>584</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1569,22 +1501,14 @@
         <v>586.0166666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>584</v>
-      </c>
-      <c r="K32" t="n">
-        <v>584</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1682,17 +1606,13 @@
         <v>586.0833333333334</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>582</v>
-      </c>
-      <c r="K35" t="n">
-        <v>582</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
@@ -1721,22 +1641,14 @@
         <v>586.1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>581</v>
-      </c>
-      <c r="K36" t="n">
-        <v>582</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1764,22 +1676,14 @@
         <v>586.1166666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>581</v>
-      </c>
-      <c r="K37" t="n">
-        <v>582</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1807,17 +1711,13 @@
         <v>586.1166666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>580</v>
-      </c>
-      <c r="K38" t="n">
-        <v>580</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
@@ -1846,22 +1746,14 @@
         <v>586.05</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>576</v>
-      </c>
-      <c r="K39" t="n">
-        <v>580</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1889,22 +1781,14 @@
         <v>585.9166666666666</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>572</v>
-      </c>
-      <c r="K40" t="n">
-        <v>580</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1938,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="K41" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
@@ -1977,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="K42" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2023,7 +1907,7 @@
         <v>582</v>
       </c>
       <c r="K43" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2066,7 +1950,7 @@
         <v>582</v>
       </c>
       <c r="K44" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2106,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K45" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2149,10 +2033,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="K46" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2186,16 +2070,14 @@
         <v>586.0166666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>584</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2229,16 +2111,14 @@
         <v>585.9166666666666</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>587</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2272,16 +2152,14 @@
         <v>585.9</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>584</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2315,16 +2193,14 @@
         <v>585.8333333333334</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>591</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2365,7 +2241,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2406,7 +2282,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2447,7 +2323,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2488,7 +2364,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2529,7 +2405,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2570,7 +2446,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2611,7 +2487,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2652,7 +2528,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2693,7 +2569,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2734,7 +2610,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2775,7 +2651,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2816,7 +2692,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2857,7 +2733,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2898,7 +2774,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2939,7 +2815,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2980,7 +2856,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3021,7 +2897,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3062,7 +2938,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3103,7 +2979,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3144,7 +3020,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3185,7 +3061,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3226,7 +3102,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3267,7 +3143,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3308,7 +3184,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3349,7 +3225,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3390,7 +3266,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3431,7 +3307,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3472,7 +3348,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3513,7 +3389,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3554,7 +3430,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3595,7 +3471,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3636,7 +3512,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3677,7 +3553,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3718,7 +3594,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3759,7 +3635,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3800,7 +3676,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3841,7 +3717,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3882,7 +3758,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3923,7 +3799,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3964,7 +3840,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4005,7 +3881,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4046,7 +3922,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4087,7 +3963,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4128,7 +4004,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4169,7 +4045,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4210,7 +4086,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4251,7 +4127,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4292,7 +4168,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4333,7 +4209,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4374,7 +4250,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4415,7 +4291,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4456,7 +4332,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4497,7 +4373,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4538,7 +4414,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4579,7 +4455,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4620,7 +4496,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4661,7 +4537,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4702,7 +4578,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4743,7 +4619,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4784,7 +4660,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4825,7 +4701,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4866,7 +4742,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4907,7 +4783,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4948,7 +4824,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4989,7 +4865,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5030,7 +4906,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5071,7 +4947,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5112,7 +4988,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5153,7 +5029,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5194,7 +5070,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5235,7 +5111,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5276,7 +5152,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5317,7 +5193,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5358,7 +5234,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5399,7 +5275,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5440,7 +5316,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5481,7 +5357,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5522,7 +5398,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5563,7 +5439,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5604,7 +5480,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5645,7 +5521,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5686,7 +5562,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5727,7 +5603,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5768,7 +5644,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5809,7 +5685,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5850,7 +5726,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5891,7 +5767,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5932,7 +5808,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5973,7 +5849,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6014,7 +5890,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6055,7 +5931,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6096,7 +5972,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6137,7 +6013,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6178,7 +6054,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6219,7 +6095,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6260,7 +6136,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6301,7 +6177,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6342,7 +6218,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6383,7 +6259,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6424,7 +6300,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6465,7 +6341,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6506,7 +6382,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6547,7 +6423,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6588,7 +6464,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6629,7 +6505,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6670,7 +6546,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6711,7 +6587,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6752,7 +6628,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6793,7 +6669,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6834,7 +6710,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6875,7 +6751,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6916,7 +6792,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6957,7 +6833,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6998,7 +6874,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -7039,7 +6915,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -7080,7 +6956,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -7121,7 +6997,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -7162,7 +7038,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -7203,7 +7079,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -7244,7 +7120,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -7285,7 +7161,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -7326,7 +7202,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -7367,7 +7243,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -7408,7 +7284,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -7449,7 +7325,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -7490,7 +7366,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -7531,7 +7407,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -7572,7 +7448,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7613,7 +7489,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7654,7 +7530,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7695,7 +7571,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7736,7 +7612,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7777,7 +7653,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7818,7 +7694,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7859,7 +7735,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7900,7 +7776,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7941,7 +7817,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7982,7 +7858,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -8023,7 +7899,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -8064,7 +7940,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -8105,7 +7981,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -8146,7 +8022,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -8187,7 +8063,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -8228,7 +8104,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -8269,7 +8145,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -8310,7 +8186,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -8347,19 +8223,19 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>1.055344827586207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -8391,8 +8267,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>572</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8426,8 +8308,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>572</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8461,8 +8349,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>572</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8496,8 +8390,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>572</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8531,8 +8431,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>572</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8566,8 +8472,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>572</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8601,8 +8513,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>572</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8636,8 +8554,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>572</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +8595,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>572</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8706,8 +8636,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>572</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8741,8 +8677,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>572</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8776,8 +8718,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>572</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8808,13 +8756,19 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>572</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M210" t="n">
-        <v>1</v>
+        <v>1.073671328671329</v>
       </c>
     </row>
     <row r="211">
@@ -8843,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>

--- a/BackTest/2019-10-18 BackTest GXC.xlsx
+++ b/BackTest/2019-10-18 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M233"/>
+  <dimension ref="A1:M234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C2" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="D2" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E2" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="F2" t="n">
-        <v>391.0148</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>583</v>
+        <v>582.8333333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C3" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D3" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="E3" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="F3" t="n">
-        <v>1172.8923</v>
+        <v>391.0148</v>
       </c>
       <c r="G3" t="n">
-        <v>583.1</v>
+        <v>583</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C4" t="n">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D4" t="n">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E4" t="n">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F4" t="n">
-        <v>6.8033</v>
+        <v>1172.8923</v>
       </c>
       <c r="G4" t="n">
-        <v>583.2666666666667</v>
+        <v>583.1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>589</v>
       </c>
       <c r="F5" t="n">
-        <v>15.3402</v>
+        <v>6.8033</v>
       </c>
       <c r="G5" t="n">
-        <v>583.4166666666666</v>
+        <v>583.2666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>589</v>
       </c>
       <c r="F6" t="n">
-        <v>19.668</v>
+        <v>15.3402</v>
       </c>
       <c r="G6" t="n">
-        <v>583.5666666666667</v>
+        <v>583.4166666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>589</v>
       </c>
       <c r="F7" t="n">
-        <v>127.2334</v>
+        <v>19.668</v>
       </c>
       <c r="G7" t="n">
-        <v>583.7166666666667</v>
+        <v>583.5666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>589</v>
       </c>
       <c r="F8" t="n">
-        <v>57.2555</v>
+        <v>127.2334</v>
       </c>
       <c r="G8" t="n">
-        <v>583.8666666666667</v>
+        <v>583.7166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C9" t="n">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="D9" t="n">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="E9" t="n">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>57.2555</v>
       </c>
       <c r="G9" t="n">
-        <v>584.1333333333333</v>
+        <v>583.8666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C10" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D10" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E10" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F10" t="n">
-        <v>5.0594</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>584.4666666666667</v>
+        <v>584.1333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="C11" t="n">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="D11" t="n">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="E11" t="n">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="F11" t="n">
-        <v>73.973</v>
+        <v>5.0594</v>
       </c>
       <c r="G11" t="n">
-        <v>584.5833333333334</v>
+        <v>584.4666666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C12" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D12" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E12" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F12" t="n">
-        <v>426.165</v>
+        <v>73.973</v>
       </c>
       <c r="G12" t="n">
-        <v>584.6</v>
+        <v>584.5833333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C13" t="n">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="D13" t="n">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="E13" t="n">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="F13" t="n">
-        <v>5066.9883</v>
+        <v>426.165</v>
       </c>
       <c r="G13" t="n">
-        <v>584.8333333333334</v>
+        <v>584.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C14" t="n">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="D14" t="n">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="E14" t="n">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="F14" t="n">
-        <v>515.4215</v>
+        <v>5066.9883</v>
       </c>
       <c r="G14" t="n">
-        <v>585</v>
+        <v>584.8333333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C15" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="D15" t="n">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="E15" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="F15" t="n">
-        <v>250</v>
+        <v>515.4215</v>
       </c>
       <c r="G15" t="n">
-        <v>584.9</v>
+        <v>585</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C16" t="n">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D16" t="n">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E16" t="n">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F16" t="n">
-        <v>170.138</v>
+        <v>250</v>
       </c>
       <c r="G16" t="n">
-        <v>584.8666666666667</v>
+        <v>584.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C17" t="n">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D17" t="n">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E17" t="n">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F17" t="n">
-        <v>1104</v>
+        <v>170.138</v>
       </c>
       <c r="G17" t="n">
-        <v>584.9</v>
+        <v>584.8666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C18" t="n">
         <v>582</v>
       </c>
       <c r="D18" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E18" t="n">
         <v>582</v>
       </c>
       <c r="F18" t="n">
-        <v>284.5395</v>
+        <v>1104</v>
       </c>
       <c r="G18" t="n">
-        <v>584.9333333333333</v>
+        <v>584.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C19" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D19" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E19" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F19" t="n">
-        <v>1674.4169</v>
+        <v>284.5395</v>
       </c>
       <c r="G19" t="n">
-        <v>585</v>
+        <v>584.9333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,19 +1075,23 @@
         <v>584</v>
       </c>
       <c r="F20" t="n">
-        <v>572</v>
+        <v>1674.4169</v>
       </c>
       <c r="G20" t="n">
-        <v>585.0666666666667</v>
+        <v>585</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>582</v>
+      </c>
+      <c r="K20" t="n">
+        <v>582</v>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
@@ -1110,20 +1114,28 @@
         <v>584</v>
       </c>
       <c r="F21" t="n">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="G21" t="n">
-        <v>585.15</v>
+        <v>585.0666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>584</v>
+      </c>
+      <c r="K21" t="n">
+        <v>582</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1145,20 +1157,28 @@
         <v>584</v>
       </c>
       <c r="F22" t="n">
-        <v>635.9999</v>
+        <v>585</v>
       </c>
       <c r="G22" t="n">
-        <v>585.2166666666667</v>
+        <v>585.15</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>584</v>
+      </c>
+      <c r="K22" t="n">
+        <v>582</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1180,19 +1200,23 @@
         <v>584</v>
       </c>
       <c r="F23" t="n">
-        <v>1801.0599</v>
+        <v>635.9999</v>
       </c>
       <c r="G23" t="n">
-        <v>585.2833333333333</v>
+        <v>585.2166666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>584</v>
+      </c>
+      <c r="K23" t="n">
+        <v>584</v>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
@@ -1215,20 +1239,28 @@
         <v>584</v>
       </c>
       <c r="F24" t="n">
-        <v>188.6767</v>
+        <v>1801.0599</v>
       </c>
       <c r="G24" t="n">
-        <v>585.35</v>
+        <v>585.2833333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>584</v>
+      </c>
+      <c r="K24" t="n">
+        <v>584</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1270,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C25" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D25" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E25" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F25" t="n">
-        <v>167.832</v>
+        <v>188.6767</v>
       </c>
       <c r="G25" t="n">
-        <v>585.3833333333333</v>
+        <v>585.35</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,8 +1294,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>584</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,31 +1311,35 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C26" t="n">
         <v>582</v>
       </c>
       <c r="D26" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E26" t="n">
         <v>582</v>
       </c>
       <c r="F26" t="n">
-        <v>842.9903</v>
+        <v>167.832</v>
       </c>
       <c r="G26" t="n">
-        <v>585.4333333333333</v>
+        <v>585.3833333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>584</v>
+      </c>
+      <c r="K26" t="n">
+        <v>584</v>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
@@ -1311,29 +1353,37 @@
         <v>583</v>
       </c>
       <c r="C27" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D27" t="n">
         <v>583</v>
       </c>
       <c r="E27" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F27" t="n">
-        <v>1.71526586</v>
+        <v>842.9903</v>
       </c>
       <c r="G27" t="n">
-        <v>585.5166666666667</v>
+        <v>585.4333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>582</v>
+      </c>
+      <c r="K27" t="n">
+        <v>584</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1355,20 +1405,28 @@
         <v>583</v>
       </c>
       <c r="F28" t="n">
-        <v>320</v>
+        <v>1.71526586</v>
       </c>
       <c r="G28" t="n">
-        <v>585.5666666666667</v>
+        <v>585.5166666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>582</v>
+      </c>
+      <c r="K28" t="n">
+        <v>584</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1390,10 +1448,10 @@
         <v>583</v>
       </c>
       <c r="F29" t="n">
-        <v>1704.7056</v>
+        <v>320</v>
       </c>
       <c r="G29" t="n">
-        <v>585.7666666666667</v>
+        <v>585.5666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,8 +1460,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>584</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1477,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C30" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D30" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E30" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>1704.7056</v>
       </c>
       <c r="G30" t="n">
-        <v>585.8666666666667</v>
+        <v>585.7666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,8 +1501,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>584</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1518,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C31" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D31" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E31" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>585.95</v>
+        <v>585.8666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,8 +1542,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>584</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1559,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C32" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D32" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E32" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F32" t="n">
-        <v>264.4018</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>586.0166666666667</v>
+        <v>585.95</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,8 +1583,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>584</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1600,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C33" t="n">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D33" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E33" t="n">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="F33" t="n">
-        <v>2963.8478</v>
+        <v>264.4018</v>
       </c>
       <c r="G33" t="n">
-        <v>586.0333333333333</v>
+        <v>586.0166666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,8 +1624,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>584</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1565,10 +1653,10 @@
         <v>581</v>
       </c>
       <c r="F34" t="n">
-        <v>400</v>
+        <v>2963.8478</v>
       </c>
       <c r="G34" t="n">
-        <v>586.05</v>
+        <v>586.0333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,8 +1665,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>584</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1591,19 +1685,19 @@
         <v>582</v>
       </c>
       <c r="C35" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D35" t="n">
         <v>582</v>
       </c>
       <c r="E35" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F35" t="n">
-        <v>1322.4731</v>
+        <v>400</v>
       </c>
       <c r="G35" t="n">
-        <v>586.0833333333334</v>
+        <v>586.05</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,8 +1706,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>584</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1723,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C36" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D36" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E36" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F36" t="n">
-        <v>1282.5417</v>
+        <v>1322.4731</v>
       </c>
       <c r="G36" t="n">
-        <v>586.1</v>
+        <v>586.0833333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,8 +1747,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>584</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1670,10 +1776,10 @@
         <v>581</v>
       </c>
       <c r="F37" t="n">
-        <v>890.4783</v>
+        <v>1282.5417</v>
       </c>
       <c r="G37" t="n">
-        <v>586.1166666666667</v>
+        <v>586.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,8 +1788,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>584</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,19 +1805,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C38" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D38" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E38" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F38" t="n">
-        <v>166.956</v>
+        <v>890.4783</v>
       </c>
       <c r="G38" t="n">
         <v>586.1166666666667</v>
@@ -1717,8 +1829,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>584</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1846,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C39" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D39" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="E39" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F39" t="n">
-        <v>149.3095</v>
+        <v>166.956</v>
       </c>
       <c r="G39" t="n">
-        <v>586.05</v>
+        <v>586.1166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1870,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>584</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1887,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C40" t="n">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D40" t="n">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E40" t="n">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F40" t="n">
-        <v>4.1996</v>
+        <v>149.3095</v>
       </c>
       <c r="G40" t="n">
-        <v>585.9166666666666</v>
+        <v>586.05</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1911,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>584</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,36 +1928,38 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C41" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="D41" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E41" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>4.1996</v>
       </c>
       <c r="G41" t="n">
         <v>585.9166666666666</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>572</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>572</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
+        <v>584</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1837,38 +1969,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C42" t="n">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D42" t="n">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E42" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F42" t="n">
-        <v>91.2792</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>585.95</v>
+        <v>585.9166666666666</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>580</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -1880,38 +2010,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C43" t="n">
         <v>582</v>
       </c>
       <c r="D43" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E43" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F43" t="n">
-        <v>323.035</v>
+        <v>91.2792</v>
       </c>
       <c r="G43" t="n">
-        <v>585.9833333333333</v>
+        <v>585.95</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>582</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -1932,29 +2060,27 @@
         <v>582</v>
       </c>
       <c r="E44" t="n">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="F44" t="n">
-        <v>226.74692176</v>
+        <v>323.035</v>
       </c>
       <c r="G44" t="n">
-        <v>586.0166666666667</v>
+        <v>585.9833333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>582</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -1966,34 +2092,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C45" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D45" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E45" t="n">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="F45" t="n">
-        <v>468.9181</v>
+        <v>226.74692176</v>
       </c>
       <c r="G45" t="n">
-        <v>586.0833333333334</v>
+        <v>586.0166666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>582</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2009,34 +2133,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C46" t="n">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D46" t="n">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E46" t="n">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F46" t="n">
-        <v>45.0381</v>
+        <v>468.9181</v>
       </c>
       <c r="G46" t="n">
-        <v>586.0333333333333</v>
+        <v>586.0833333333334</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>584</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2052,22 +2174,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C47" t="n">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D47" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="E47" t="n">
         <v>582</v>
       </c>
       <c r="F47" t="n">
-        <v>149.6201</v>
+        <v>45.0381</v>
       </c>
       <c r="G47" t="n">
-        <v>586.0166666666667</v>
+        <v>586.0333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2077,7 +2199,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2093,22 +2215,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C48" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D48" t="n">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E48" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F48" t="n">
-        <v>24.698</v>
+        <v>149.6201</v>
       </c>
       <c r="G48" t="n">
-        <v>585.9166666666666</v>
+        <v>586.0166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2118,7 +2240,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2134,22 +2256,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C49" t="n">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="D49" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E49" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F49" t="n">
-        <v>676.0023</v>
+        <v>24.698</v>
       </c>
       <c r="G49" t="n">
-        <v>585.9</v>
+        <v>585.9166666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2159,7 +2281,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2175,22 +2297,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C50" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D50" t="n">
         <v>591</v>
       </c>
       <c r="E50" t="n">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F50" t="n">
-        <v>197.4504</v>
+        <v>676.0023</v>
       </c>
       <c r="G50" t="n">
-        <v>585.8333333333334</v>
+        <v>585.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2200,7 +2322,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2216,22 +2338,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C51" t="n">
         <v>588</v>
       </c>
       <c r="D51" t="n">
+        <v>591</v>
+      </c>
+      <c r="E51" t="n">
         <v>588</v>
       </c>
-      <c r="E51" t="n">
-        <v>587</v>
-      </c>
       <c r="F51" t="n">
-        <v>15.2859</v>
+        <v>197.4504</v>
       </c>
       <c r="G51" t="n">
-        <v>585.7666666666667</v>
+        <v>585.8333333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2241,7 +2363,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2266,13 +2388,13 @@
         <v>588</v>
       </c>
       <c r="E52" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F52" t="n">
-        <v>337.4</v>
+        <v>15.2859</v>
       </c>
       <c r="G52" t="n">
-        <v>585.6</v>
+        <v>585.7666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2282,7 +2404,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2310,10 +2432,10 @@
         <v>588</v>
       </c>
       <c r="F53" t="n">
-        <v>65.9671</v>
+        <v>337.4</v>
       </c>
       <c r="G53" t="n">
-        <v>585.4833333333333</v>
+        <v>585.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2323,7 +2445,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2351,10 +2473,10 @@
         <v>588</v>
       </c>
       <c r="F54" t="n">
-        <v>176.03926054</v>
+        <v>65.9671</v>
       </c>
       <c r="G54" t="n">
-        <v>585.35</v>
+        <v>585.4833333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2364,7 +2486,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2383,19 +2505,19 @@
         <v>588</v>
       </c>
       <c r="C55" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D55" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E55" t="n">
         <v>588</v>
       </c>
       <c r="F55" t="n">
-        <v>42.05635776</v>
+        <v>176.03926054</v>
       </c>
       <c r="G55" t="n">
-        <v>585.2333333333333</v>
+        <v>585.35</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2405,7 +2527,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2424,19 +2546,19 @@
         <v>588</v>
       </c>
       <c r="C56" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D56" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E56" t="n">
         <v>588</v>
       </c>
       <c r="F56" t="n">
-        <v>189.35662869</v>
+        <v>42.05635776</v>
       </c>
       <c r="G56" t="n">
-        <v>585.1</v>
+        <v>585.2333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2446,7 +2568,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2462,22 +2584,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C57" t="n">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D57" t="n">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E57" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F57" t="n">
-        <v>4.321</v>
+        <v>189.35662869</v>
       </c>
       <c r="G57" t="n">
-        <v>584.9833333333333</v>
+        <v>585.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2487,7 +2609,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2506,19 +2628,19 @@
         <v>587</v>
       </c>
       <c r="C58" t="n">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D58" t="n">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E58" t="n">
         <v>587</v>
       </c>
       <c r="F58" t="n">
-        <v>247.2471</v>
+        <v>4.321</v>
       </c>
       <c r="G58" t="n">
-        <v>584.8833333333333</v>
+        <v>584.9833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2528,7 +2650,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2544,19 +2666,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C59" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D59" t="n">
         <v>590</v>
       </c>
       <c r="E59" t="n">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F59" t="n">
-        <v>30.4621</v>
+        <v>247.2471</v>
       </c>
       <c r="G59" t="n">
         <v>584.8833333333333</v>
@@ -2569,7 +2691,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2597,7 +2719,7 @@
         <v>590</v>
       </c>
       <c r="F60" t="n">
-        <v>671.7528</v>
+        <v>30.4621</v>
       </c>
       <c r="G60" t="n">
         <v>584.8833333333333</v>
@@ -2610,7 +2732,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2638,10 +2760,10 @@
         <v>590</v>
       </c>
       <c r="F61" t="n">
-        <v>2955.7140817</v>
+        <v>671.7528</v>
       </c>
       <c r="G61" t="n">
-        <v>584.8</v>
+        <v>584.8833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2651,7 +2773,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2667,22 +2789,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C62" t="n">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D62" t="n">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E62" t="n">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F62" t="n">
-        <v>450.8883</v>
+        <v>2955.7140817</v>
       </c>
       <c r="G62" t="n">
-        <v>584.8333333333334</v>
+        <v>584.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2692,7 +2814,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2720,10 +2842,10 @@
         <v>592</v>
       </c>
       <c r="F63" t="n">
-        <v>514.6</v>
+        <v>450.8883</v>
       </c>
       <c r="G63" t="n">
-        <v>584.9666666666667</v>
+        <v>584.8333333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2733,7 +2855,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2749,22 +2871,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C64" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D64" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E64" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F64" t="n">
-        <v>63.8</v>
+        <v>514.6</v>
       </c>
       <c r="G64" t="n">
-        <v>585</v>
+        <v>584.9666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2774,7 +2896,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2805,7 +2927,7 @@
         <v>63.8</v>
       </c>
       <c r="G65" t="n">
-        <v>585.0333333333333</v>
+        <v>585</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2815,7 +2937,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2843,10 +2965,10 @@
         <v>591</v>
       </c>
       <c r="F66" t="n">
-        <v>63.7728</v>
+        <v>63.8</v>
       </c>
       <c r="G66" t="n">
-        <v>585.0666666666667</v>
+        <v>585.0333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2856,7 +2978,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2884,10 +3006,10 @@
         <v>591</v>
       </c>
       <c r="F67" t="n">
-        <v>284.5762</v>
+        <v>63.7728</v>
       </c>
       <c r="G67" t="n">
-        <v>585.1</v>
+        <v>585.0666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2897,7 +3019,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2925,10 +3047,10 @@
         <v>591</v>
       </c>
       <c r="F68" t="n">
-        <v>42.2975</v>
+        <v>284.5762</v>
       </c>
       <c r="G68" t="n">
-        <v>585.1333333333333</v>
+        <v>585.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2938,7 +3060,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2966,10 +3088,10 @@
         <v>591</v>
       </c>
       <c r="F69" t="n">
-        <v>39.2669</v>
+        <v>42.2975</v>
       </c>
       <c r="G69" t="n">
-        <v>585.05</v>
+        <v>585.1333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2979,7 +3101,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -2995,22 +3117,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C70" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D70" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E70" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F70" t="n">
-        <v>79</v>
+        <v>39.2669</v>
       </c>
       <c r="G70" t="n">
-        <v>584.9833333333333</v>
+        <v>585.05</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3020,7 +3142,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3036,22 +3158,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C71" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D71" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E71" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F71" t="n">
-        <v>69.6589</v>
+        <v>79</v>
       </c>
       <c r="G71" t="n">
-        <v>585.1166666666667</v>
+        <v>584.9833333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3061,7 +3183,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3089,10 +3211,10 @@
         <v>591</v>
       </c>
       <c r="F72" t="n">
-        <v>29.3884</v>
+        <v>69.6589</v>
       </c>
       <c r="G72" t="n">
-        <v>585.2833333333333</v>
+        <v>585.1166666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3102,7 +3224,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3130,10 +3252,10 @@
         <v>591</v>
       </c>
       <c r="F73" t="n">
-        <v>22.5651</v>
+        <v>29.3884</v>
       </c>
       <c r="G73" t="n">
-        <v>585.2333333333333</v>
+        <v>585.2833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3143,7 +3265,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3171,10 +3293,10 @@
         <v>591</v>
       </c>
       <c r="F74" t="n">
-        <v>22.3941</v>
+        <v>22.5651</v>
       </c>
       <c r="G74" t="n">
-        <v>585.3833333333333</v>
+        <v>585.2333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3184,7 +3306,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3212,10 +3334,10 @@
         <v>591</v>
       </c>
       <c r="F75" t="n">
-        <v>196.2594</v>
+        <v>22.3941</v>
       </c>
       <c r="G75" t="n">
-        <v>585.6666666666666</v>
+        <v>585.3833333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3225,7 +3347,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3253,10 +3375,10 @@
         <v>591</v>
       </c>
       <c r="F76" t="n">
-        <v>35.5176</v>
+        <v>196.2594</v>
       </c>
       <c r="G76" t="n">
-        <v>585.8833333333333</v>
+        <v>585.6666666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3266,7 +3388,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3285,19 +3407,19 @@
         <v>591</v>
       </c>
       <c r="C77" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D77" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E77" t="n">
         <v>591</v>
       </c>
       <c r="F77" t="n">
-        <v>177.6687</v>
+        <v>35.5176</v>
       </c>
       <c r="G77" t="n">
-        <v>586.05</v>
+        <v>585.8833333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3307,7 +3429,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3326,19 +3448,19 @@
         <v>591</v>
       </c>
       <c r="C78" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D78" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E78" t="n">
         <v>591</v>
       </c>
       <c r="F78" t="n">
-        <v>213.02</v>
+        <v>177.6687</v>
       </c>
       <c r="G78" t="n">
-        <v>586.2</v>
+        <v>586.05</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3348,7 +3470,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3376,10 +3498,10 @@
         <v>591</v>
       </c>
       <c r="F79" t="n">
-        <v>80</v>
+        <v>213.02</v>
       </c>
       <c r="G79" t="n">
-        <v>586.3166666666667</v>
+        <v>586.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3389,7 +3511,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3417,10 +3539,10 @@
         <v>591</v>
       </c>
       <c r="F80" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="G80" t="n">
-        <v>586.4333333333333</v>
+        <v>586.3166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3430,7 +3552,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3446,22 +3568,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C81" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D81" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E81" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F81" t="n">
-        <v>78.0337</v>
+        <v>150</v>
       </c>
       <c r="G81" t="n">
-        <v>586.5666666666667</v>
+        <v>586.4333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3471,7 +3593,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3490,19 +3612,19 @@
         <v>592</v>
       </c>
       <c r="C82" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D82" t="n">
         <v>592</v>
       </c>
       <c r="E82" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F82" t="n">
-        <v>674.9555</v>
+        <v>78.0337</v>
       </c>
       <c r="G82" t="n">
-        <v>586.6833333333333</v>
+        <v>586.5666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3512,7 +3634,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3528,22 +3650,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C83" t="n">
         <v>591</v>
       </c>
       <c r="D83" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E83" t="n">
         <v>591</v>
       </c>
       <c r="F83" t="n">
-        <v>308.0598</v>
+        <v>674.9555</v>
       </c>
       <c r="G83" t="n">
-        <v>586.8</v>
+        <v>586.6833333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3553,7 +3675,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3581,10 +3703,10 @@
         <v>591</v>
       </c>
       <c r="F84" t="n">
-        <v>87.48990000000001</v>
+        <v>308.0598</v>
       </c>
       <c r="G84" t="n">
-        <v>586.9166666666666</v>
+        <v>586.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3594,7 +3716,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3610,22 +3732,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C85" t="n">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D85" t="n">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E85" t="n">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F85" t="n">
-        <v>2.62248322</v>
+        <v>87.48990000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>587.15</v>
+        <v>586.9166666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3635,7 +3757,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3651,22 +3773,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C86" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="D86" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="E86" t="n">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="F86" t="n">
-        <v>283.6683</v>
+        <v>2.62248322</v>
       </c>
       <c r="G86" t="n">
-        <v>587.2833333333333</v>
+        <v>587.15</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3676,7 +3798,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3701,13 +3823,13 @@
         <v>590</v>
       </c>
       <c r="E87" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F87" t="n">
-        <v>472.4</v>
+        <v>283.6683</v>
       </c>
       <c r="G87" t="n">
-        <v>587.4</v>
+        <v>587.2833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3717,7 +3839,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3733,22 +3855,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C88" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D88" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E88" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F88" t="n">
-        <v>1.8878</v>
+        <v>472.4</v>
       </c>
       <c r="G88" t="n">
-        <v>587.5333333333333</v>
+        <v>587.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3758,7 +3880,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3774,22 +3896,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C89" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D89" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E89" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F89" t="n">
-        <v>4.4311</v>
+        <v>1.8878</v>
       </c>
       <c r="G89" t="n">
-        <v>587.65</v>
+        <v>587.5333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3799,7 +3921,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3818,19 +3940,19 @@
         <v>590</v>
       </c>
       <c r="C90" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D90" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E90" t="n">
         <v>590</v>
       </c>
       <c r="F90" t="n">
-        <v>43.8426</v>
+        <v>4.4311</v>
       </c>
       <c r="G90" t="n">
-        <v>587.7666666666667</v>
+        <v>587.65</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3840,7 +3962,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3856,7 +3978,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C91" t="n">
         <v>591</v>
@@ -3868,10 +3990,10 @@
         <v>590</v>
       </c>
       <c r="F91" t="n">
-        <v>74.8994</v>
+        <v>43.8426</v>
       </c>
       <c r="G91" t="n">
-        <v>587.8666666666667</v>
+        <v>587.7666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3881,7 +4003,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3906,13 +4028,13 @@
         <v>591</v>
       </c>
       <c r="E92" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F92" t="n">
-        <v>1.7089</v>
+        <v>74.8994</v>
       </c>
       <c r="G92" t="n">
-        <v>587.9833333333333</v>
+        <v>587.8666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3922,7 +4044,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3947,13 +4069,13 @@
         <v>591</v>
       </c>
       <c r="E93" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F93" t="n">
-        <v>331.764</v>
+        <v>1.7089</v>
       </c>
       <c r="G93" t="n">
-        <v>588.15</v>
+        <v>587.9833333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3963,7 +4085,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3988,13 +4110,13 @@
         <v>591</v>
       </c>
       <c r="E94" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F94" t="n">
-        <v>119.4207</v>
+        <v>331.764</v>
       </c>
       <c r="G94" t="n">
-        <v>588.3166666666667</v>
+        <v>588.15</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4004,7 +4126,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4032,10 +4154,10 @@
         <v>591</v>
       </c>
       <c r="F95" t="n">
-        <v>27.5591</v>
+        <v>119.4207</v>
       </c>
       <c r="G95" t="n">
-        <v>588.4666666666667</v>
+        <v>588.3166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4045,7 +4167,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4073,10 +4195,10 @@
         <v>591</v>
       </c>
       <c r="F96" t="n">
-        <v>41.8551</v>
+        <v>27.5591</v>
       </c>
       <c r="G96" t="n">
-        <v>588.6333333333333</v>
+        <v>588.4666666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4086,7 +4208,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4114,10 +4236,10 @@
         <v>591</v>
       </c>
       <c r="F97" t="n">
-        <v>66.7929</v>
+        <v>41.8551</v>
       </c>
       <c r="G97" t="n">
-        <v>588.8</v>
+        <v>588.6333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4127,7 +4249,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4152,13 +4274,13 @@
         <v>591</v>
       </c>
       <c r="E98" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F98" t="n">
-        <v>95.2298</v>
+        <v>66.7929</v>
       </c>
       <c r="G98" t="n">
-        <v>588.9833333333333</v>
+        <v>588.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4168,7 +4290,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4193,13 +4315,13 @@
         <v>591</v>
       </c>
       <c r="E99" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F99" t="n">
-        <v>90.9841</v>
+        <v>95.2298</v>
       </c>
       <c r="G99" t="n">
-        <v>589.2333333333333</v>
+        <v>588.9833333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4209,7 +4331,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4237,10 +4359,10 @@
         <v>591</v>
       </c>
       <c r="F100" t="n">
-        <v>179.5806</v>
+        <v>90.9841</v>
       </c>
       <c r="G100" t="n">
-        <v>589.55</v>
+        <v>589.2333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4250,7 +4372,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4278,10 +4400,10 @@
         <v>591</v>
       </c>
       <c r="F101" t="n">
-        <v>17.1496</v>
+        <v>179.5806</v>
       </c>
       <c r="G101" t="n">
-        <v>589.7333333333333</v>
+        <v>589.55</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4291,7 +4413,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4319,10 +4441,10 @@
         <v>591</v>
       </c>
       <c r="F102" t="n">
-        <v>22.1774</v>
+        <v>17.1496</v>
       </c>
       <c r="G102" t="n">
-        <v>589.8833333333333</v>
+        <v>589.7333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4332,7 +4454,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4354,16 +4476,16 @@
         <v>591</v>
       </c>
       <c r="D103" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E103" t="n">
         <v>591</v>
       </c>
       <c r="F103" t="n">
-        <v>112.8383</v>
+        <v>22.1774</v>
       </c>
       <c r="G103" t="n">
-        <v>590.0333333333333</v>
+        <v>589.8833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4373,7 +4495,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4395,16 +4517,16 @@
         <v>591</v>
       </c>
       <c r="D104" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E104" t="n">
         <v>591</v>
       </c>
       <c r="F104" t="n">
-        <v>143.1784</v>
+        <v>112.8383</v>
       </c>
       <c r="G104" t="n">
-        <v>590.1833333333333</v>
+        <v>590.0333333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4414,7 +4536,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4442,10 +4564,10 @@
         <v>591</v>
       </c>
       <c r="F105" t="n">
-        <v>6.1384</v>
+        <v>143.1784</v>
       </c>
       <c r="G105" t="n">
-        <v>590.3</v>
+        <v>590.1833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4455,7 +4577,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4483,10 +4605,10 @@
         <v>591</v>
       </c>
       <c r="F106" t="n">
-        <v>55.246</v>
+        <v>6.1384</v>
       </c>
       <c r="G106" t="n">
-        <v>590.3666666666667</v>
+        <v>590.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4496,7 +4618,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4524,10 +4646,10 @@
         <v>591</v>
       </c>
       <c r="F107" t="n">
-        <v>35.7774</v>
+        <v>55.246</v>
       </c>
       <c r="G107" t="n">
-        <v>590.5166666666667</v>
+        <v>590.3666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4537,7 +4659,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4553,22 +4675,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C108" t="n">
         <v>591</v>
       </c>
       <c r="D108" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E108" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F108" t="n">
-        <v>869.539</v>
+        <v>35.7774</v>
       </c>
       <c r="G108" t="n">
-        <v>590.6333333333333</v>
+        <v>590.5166666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4578,7 +4700,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4594,19 +4716,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C109" t="n">
         <v>591</v>
       </c>
       <c r="D109" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E109" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F109" t="n">
-        <v>40.6911</v>
+        <v>869.539</v>
       </c>
       <c r="G109" t="n">
         <v>590.6333333333333</v>
@@ -4619,7 +4741,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4647,10 +4769,10 @@
         <v>591</v>
       </c>
       <c r="F110" t="n">
-        <v>18.4964</v>
+        <v>40.6911</v>
       </c>
       <c r="G110" t="n">
-        <v>590.6833333333333</v>
+        <v>590.6333333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4660,7 +4782,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4688,10 +4810,10 @@
         <v>591</v>
       </c>
       <c r="F111" t="n">
-        <v>12.7125</v>
+        <v>18.4964</v>
       </c>
       <c r="G111" t="n">
-        <v>590.7333333333333</v>
+        <v>590.6833333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4701,7 +4823,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4717,22 +4839,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C112" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D112" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E112" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F112" t="n">
-        <v>280</v>
+        <v>12.7125</v>
       </c>
       <c r="G112" t="n">
-        <v>590.6833333333333</v>
+        <v>590.7333333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4742,7 +4864,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4758,22 +4880,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C113" t="n">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D113" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E113" t="n">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F113" t="n">
-        <v>2.6175</v>
+        <v>280</v>
       </c>
       <c r="G113" t="n">
-        <v>590.7333333333333</v>
+        <v>590.6833333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4783,7 +4905,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4799,22 +4921,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C114" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D114" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="E114" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F114" t="n">
-        <v>7</v>
+        <v>2.6175</v>
       </c>
       <c r="G114" t="n">
-        <v>590.6833333333333</v>
+        <v>590.7333333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4824,7 +4946,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4852,10 +4974,10 @@
         <v>585</v>
       </c>
       <c r="F115" t="n">
-        <v>641.669</v>
+        <v>7</v>
       </c>
       <c r="G115" t="n">
-        <v>590.6</v>
+        <v>590.6833333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4865,7 +4987,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4884,19 +5006,19 @@
         <v>585</v>
       </c>
       <c r="C116" t="n">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D116" t="n">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E116" t="n">
         <v>585</v>
       </c>
       <c r="F116" t="n">
-        <v>410.7966</v>
+        <v>641.669</v>
       </c>
       <c r="G116" t="n">
-        <v>590.6333333333333</v>
+        <v>590.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4906,7 +5028,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4922,22 +5044,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C117" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D117" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E117" t="n">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="F117" t="n">
-        <v>17.8688</v>
+        <v>410.7966</v>
       </c>
       <c r="G117" t="n">
-        <v>590.7166666666667</v>
+        <v>590.6333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4947,7 +5069,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4975,10 +5097,10 @@
         <v>592</v>
       </c>
       <c r="F118" t="n">
-        <v>36.2347</v>
+        <v>17.8688</v>
       </c>
       <c r="G118" t="n">
-        <v>590.7666666666667</v>
+        <v>590.7166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4988,7 +5110,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5004,22 +5126,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="C119" t="n">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="D119" t="n">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E119" t="n">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="F119" t="n">
-        <v>664.7854</v>
+        <v>36.2347</v>
       </c>
       <c r="G119" t="n">
-        <v>590.6333333333333</v>
+        <v>590.7666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5029,7 +5151,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5045,19 +5167,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C120" t="n">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="D120" t="n">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E120" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F120" t="n">
-        <v>14.622</v>
+        <v>664.7854</v>
       </c>
       <c r="G120" t="n">
         <v>590.6333333333333</v>
@@ -5070,7 +5192,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5086,7 +5208,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C121" t="n">
         <v>590</v>
@@ -5095,10 +5217,10 @@
         <v>590</v>
       </c>
       <c r="E121" t="n">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="F121" t="n">
-        <v>7.4913</v>
+        <v>14.622</v>
       </c>
       <c r="G121" t="n">
         <v>590.6333333333333</v>
@@ -5111,7 +5233,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5127,22 +5249,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C122" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D122" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E122" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F122" t="n">
-        <v>2.0865</v>
+        <v>7.4913</v>
       </c>
       <c r="G122" t="n">
-        <v>590.5833333333334</v>
+        <v>590.6333333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5152,7 +5274,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5168,22 +5290,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C123" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D123" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E123" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F123" t="n">
-        <v>13.4532</v>
+        <v>2.0865</v>
       </c>
       <c r="G123" t="n">
-        <v>590.5666666666667</v>
+        <v>590.5833333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5193,7 +5315,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5209,22 +5331,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C124" t="n">
+        <v>591</v>
+      </c>
+      <c r="D124" t="n">
         <v>593</v>
       </c>
-      <c r="D124" t="n">
-        <v>595</v>
-      </c>
       <c r="E124" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F124" t="n">
-        <v>12.4287</v>
+        <v>13.4532</v>
       </c>
       <c r="G124" t="n">
-        <v>590.6</v>
+        <v>590.5666666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5234,7 +5356,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5250,22 +5372,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="C125" t="n">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D125" t="n">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="E125" t="n">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="F125" t="n">
-        <v>200</v>
+        <v>12.4287</v>
       </c>
       <c r="G125" t="n">
-        <v>590.45</v>
+        <v>590.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5275,7 +5397,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5291,22 +5413,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C126" t="n">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D126" t="n">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E126" t="n">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F126" t="n">
-        <v>101.531</v>
+        <v>200</v>
       </c>
       <c r="G126" t="n">
-        <v>590.35</v>
+        <v>590.45</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5316,7 +5438,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5332,22 +5454,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C127" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D127" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E127" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F127" t="n">
-        <v>118.1982</v>
+        <v>101.531</v>
       </c>
       <c r="G127" t="n">
-        <v>590.3333333333334</v>
+        <v>590.35</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5357,7 +5479,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5373,22 +5495,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C128" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D128" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E128" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F128" t="n">
-        <v>20.3037</v>
+        <v>118.1982</v>
       </c>
       <c r="G128" t="n">
-        <v>590.3</v>
+        <v>590.3333333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5398,7 +5520,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5426,10 +5548,10 @@
         <v>589</v>
       </c>
       <c r="F129" t="n">
-        <v>23.2929</v>
+        <v>20.3037</v>
       </c>
       <c r="G129" t="n">
-        <v>590.2666666666667</v>
+        <v>590.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5439,7 +5561,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5467,10 +5589,10 @@
         <v>589</v>
       </c>
       <c r="F130" t="n">
-        <v>8.608599999999999</v>
+        <v>23.2929</v>
       </c>
       <c r="G130" t="n">
-        <v>590.25</v>
+        <v>590.2666666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5480,7 +5602,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5496,22 +5618,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="C131" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="D131" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="E131" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F131" t="n">
-        <v>40</v>
+        <v>8.608599999999999</v>
       </c>
       <c r="G131" t="n">
-        <v>590.1333333333333</v>
+        <v>590.25</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5521,7 +5643,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5537,22 +5659,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C132" t="n">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D132" t="n">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E132" t="n">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F132" t="n">
-        <v>65.99299999999999</v>
+        <v>40</v>
       </c>
       <c r="G132" t="n">
-        <v>590.05</v>
+        <v>590.1333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5562,7 +5684,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5578,22 +5700,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C133" t="n">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D133" t="n">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E133" t="n">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F133" t="n">
-        <v>4.103</v>
+        <v>65.99299999999999</v>
       </c>
       <c r="G133" t="n">
-        <v>590.0666666666667</v>
+        <v>590.05</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5603,7 +5725,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5619,22 +5741,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="C134" t="n">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="D134" t="n">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="E134" t="n">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="F134" t="n">
-        <v>250</v>
+        <v>4.103</v>
       </c>
       <c r="G134" t="n">
-        <v>589.9666666666667</v>
+        <v>590.0666666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5644,7 +5766,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5660,22 +5782,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C135" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D135" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E135" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F135" t="n">
-        <v>625.8017</v>
+        <v>250</v>
       </c>
       <c r="G135" t="n">
-        <v>589.8333333333334</v>
+        <v>589.9666666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5685,7 +5807,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5701,19 +5823,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C136" t="n">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D136" t="n">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="E136" t="n">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F136" t="n">
-        <v>13.262</v>
+        <v>625.8017</v>
       </c>
       <c r="G136" t="n">
         <v>589.8333333333334</v>
@@ -5726,7 +5848,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5742,22 +5864,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C137" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D137" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="E137" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F137" t="n">
-        <v>149.7052</v>
+        <v>13.262</v>
       </c>
       <c r="G137" t="n">
-        <v>589.7333333333333</v>
+        <v>589.8333333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5767,7 +5889,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5783,19 +5905,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C138" t="n">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D138" t="n">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E138" t="n">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F138" t="n">
-        <v>9.245699999999999</v>
+        <v>149.7052</v>
       </c>
       <c r="G138" t="n">
         <v>589.7333333333333</v>
@@ -5808,7 +5930,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5824,22 +5946,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C139" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D139" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E139" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F139" t="n">
-        <v>19.4009</v>
+        <v>9.245699999999999</v>
       </c>
       <c r="G139" t="n">
-        <v>589.7166666666667</v>
+        <v>589.7333333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5849,7 +5971,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5868,19 +5990,19 @@
         <v>590</v>
       </c>
       <c r="C140" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D140" t="n">
         <v>590</v>
       </c>
       <c r="E140" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F140" t="n">
-        <v>19.3228</v>
+        <v>19.4009</v>
       </c>
       <c r="G140" t="n">
-        <v>589.6833333333333</v>
+        <v>589.7166666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5890,7 +6012,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5906,22 +6028,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C141" t="n">
         <v>589</v>
       </c>
       <c r="D141" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E141" t="n">
         <v>589</v>
       </c>
       <c r="F141" t="n">
-        <v>1.5704</v>
+        <v>19.3228</v>
       </c>
       <c r="G141" t="n">
-        <v>589.6333333333333</v>
+        <v>589.6833333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5931,7 +6053,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5947,22 +6069,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C142" t="n">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D142" t="n">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E142" t="n">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="F142" t="n">
-        <v>141.5195</v>
+        <v>1.5704</v>
       </c>
       <c r="G142" t="n">
-        <v>589.55</v>
+        <v>589.6333333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5972,7 +6094,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6000,10 +6122,10 @@
         <v>586</v>
       </c>
       <c r="F143" t="n">
-        <v>11.4805</v>
+        <v>141.5195</v>
       </c>
       <c r="G143" t="n">
-        <v>589.4666666666667</v>
+        <v>589.55</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6013,7 +6135,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6029,22 +6151,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C144" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D144" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E144" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F144" t="n">
-        <v>1.2512</v>
+        <v>11.4805</v>
       </c>
       <c r="G144" t="n">
-        <v>589.45</v>
+        <v>589.4666666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6054,7 +6176,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6073,19 +6195,19 @@
         <v>590</v>
       </c>
       <c r="C145" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D145" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E145" t="n">
         <v>590</v>
       </c>
       <c r="F145" t="n">
-        <v>13.2377</v>
+        <v>1.2512</v>
       </c>
       <c r="G145" t="n">
-        <v>589.4</v>
+        <v>589.45</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6095,7 +6217,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6111,7 +6233,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C146" t="n">
         <v>593</v>
@@ -6120,13 +6242,13 @@
         <v>593</v>
       </c>
       <c r="E146" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F146" t="n">
-        <v>2.4485</v>
+        <v>13.2377</v>
       </c>
       <c r="G146" t="n">
-        <v>589.45</v>
+        <v>589.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6136,7 +6258,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6164,10 +6286,10 @@
         <v>593</v>
       </c>
       <c r="F147" t="n">
-        <v>1.2239</v>
+        <v>2.4485</v>
       </c>
       <c r="G147" t="n">
-        <v>589.5</v>
+        <v>589.45</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6177,7 +6299,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6193,22 +6315,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="C148" t="n">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D148" t="n">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E148" t="n">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="F148" t="n">
-        <v>398.8072</v>
+        <v>1.2239</v>
       </c>
       <c r="G148" t="n">
-        <v>589.5833333333334</v>
+        <v>589.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6218,7 +6340,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6234,22 +6356,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C149" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D149" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E149" t="n">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F149" t="n">
-        <v>92.2021</v>
+        <v>398.8072</v>
       </c>
       <c r="G149" t="n">
-        <v>589.6666666666666</v>
+        <v>589.5833333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6259,7 +6381,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6275,22 +6397,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C150" t="n">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="D150" t="n">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E150" t="n">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F150" t="n">
-        <v>21.7451</v>
+        <v>92.2021</v>
       </c>
       <c r="G150" t="n">
-        <v>589.5666666666667</v>
+        <v>589.6666666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6300,7 +6422,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6316,22 +6438,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C151" t="n">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D151" t="n">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E151" t="n">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F151" t="n">
-        <v>170.203</v>
+        <v>21.7451</v>
       </c>
       <c r="G151" t="n">
-        <v>589.6333333333333</v>
+        <v>589.5666666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6341,7 +6463,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6357,22 +6479,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C152" t="n">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="D152" t="n">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="E152" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="F152" t="n">
-        <v>150</v>
+        <v>170.203</v>
       </c>
       <c r="G152" t="n">
-        <v>589.5833333333334</v>
+        <v>589.6333333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6382,7 +6504,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6410,10 +6532,10 @@
         <v>588</v>
       </c>
       <c r="F153" t="n">
-        <v>336</v>
+        <v>150</v>
       </c>
       <c r="G153" t="n">
-        <v>589.5333333333333</v>
+        <v>589.5833333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6423,7 +6545,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6439,22 +6561,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C154" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D154" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E154" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F154" t="n">
-        <v>210.764</v>
+        <v>336</v>
       </c>
       <c r="G154" t="n">
-        <v>589.45</v>
+        <v>589.5333333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6464,7 +6586,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6480,22 +6602,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C155" t="n">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D155" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E155" t="n">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F155" t="n">
-        <v>3.9384</v>
+        <v>210.764</v>
       </c>
       <c r="G155" t="n">
-        <v>589.4833333333333</v>
+        <v>589.45</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6505,7 +6627,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6521,22 +6643,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C156" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D156" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="E156" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="F156" t="n">
-        <v>717.0467</v>
+        <v>3.9384</v>
       </c>
       <c r="G156" t="n">
-        <v>589.4333333333333</v>
+        <v>589.4833333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6546,7 +6668,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6562,22 +6684,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C157" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D157" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E157" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F157" t="n">
-        <v>140</v>
+        <v>717.0467</v>
       </c>
       <c r="G157" t="n">
-        <v>589.35</v>
+        <v>589.4333333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6587,7 +6709,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6603,22 +6725,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C158" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D158" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E158" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F158" t="n">
-        <v>27.452</v>
+        <v>140</v>
       </c>
       <c r="G158" t="n">
-        <v>589.3333333333334</v>
+        <v>589.35</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6628,7 +6750,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6644,22 +6766,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C159" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="D159" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="E159" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F159" t="n">
-        <v>100</v>
+        <v>27.452</v>
       </c>
       <c r="G159" t="n">
-        <v>589.2333333333333</v>
+        <v>589.3333333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6669,7 +6791,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6688,19 +6810,19 @@
         <v>585</v>
       </c>
       <c r="C160" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D160" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E160" t="n">
         <v>585</v>
       </c>
       <c r="F160" t="n">
-        <v>733.5485</v>
+        <v>100</v>
       </c>
       <c r="G160" t="n">
-        <v>589.2166666666667</v>
+        <v>589.2333333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6710,7 +6832,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6726,7 +6848,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C161" t="n">
         <v>590</v>
@@ -6735,13 +6857,13 @@
         <v>590</v>
       </c>
       <c r="E161" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F161" t="n">
-        <v>57.6895</v>
+        <v>733.5485</v>
       </c>
       <c r="G161" t="n">
-        <v>589.2</v>
+        <v>589.2166666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6751,7 +6873,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6779,10 +6901,10 @@
         <v>590</v>
       </c>
       <c r="F162" t="n">
-        <v>1.7298</v>
+        <v>57.6895</v>
       </c>
       <c r="G162" t="n">
-        <v>589.1833333333333</v>
+        <v>589.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6792,7 +6914,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6808,22 +6930,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C163" t="n">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="D163" t="n">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="E163" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F163" t="n">
-        <v>202.7978</v>
+        <v>1.7298</v>
       </c>
       <c r="G163" t="n">
-        <v>589.2833333333333</v>
+        <v>589.1833333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6833,7 +6955,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6849,7 +6971,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C164" t="n">
         <v>597</v>
@@ -6858,13 +6980,13 @@
         <v>597</v>
       </c>
       <c r="E164" t="n">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F164" t="n">
-        <v>35.2488</v>
+        <v>202.7978</v>
       </c>
       <c r="G164" t="n">
-        <v>589.3833333333333</v>
+        <v>589.2833333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6874,7 +6996,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6890,22 +7012,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="C165" t="n">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="D165" t="n">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="E165" t="n">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="F165" t="n">
-        <v>500</v>
+        <v>35.2488</v>
       </c>
       <c r="G165" t="n">
-        <v>589.3</v>
+        <v>589.3833333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6915,7 +7037,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6931,22 +7053,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C166" t="n">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D166" t="n">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="E166" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F166" t="n">
-        <v>842.16103709</v>
+        <v>500</v>
       </c>
       <c r="G166" t="n">
-        <v>589.3333333333334</v>
+        <v>589.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6956,7 +7078,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6972,19 +7094,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C167" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D167" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E167" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="F167" t="n">
-        <v>500.6185</v>
+        <v>842.16103709</v>
       </c>
       <c r="G167" t="n">
         <v>589.3333333333334</v>
@@ -6997,7 +7119,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -7013,22 +7135,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C168" t="n">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="D168" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="E168" t="n">
         <v>584</v>
       </c>
       <c r="F168" t="n">
-        <v>636.9737</v>
+        <v>500.6185</v>
       </c>
       <c r="G168" t="n">
-        <v>589.2166666666667</v>
+        <v>589.3333333333334</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -7038,7 +7160,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -7054,22 +7176,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C169" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D169" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E169" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F169" t="n">
-        <v>3979.4781</v>
+        <v>636.9737</v>
       </c>
       <c r="G169" t="n">
-        <v>589.0833333333334</v>
+        <v>589.2166666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7079,7 +7201,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -7095,22 +7217,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C170" t="n">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D170" t="n">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E170" t="n">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>3979.4781</v>
       </c>
       <c r="G170" t="n">
-        <v>589.0333333333333</v>
+        <v>589.0833333333334</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7120,7 +7242,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -7139,19 +7261,19 @@
         <v>588</v>
       </c>
       <c r="C171" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D171" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E171" t="n">
         <v>588</v>
       </c>
       <c r="F171" t="n">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>589.0166666666667</v>
+        <v>589.0333333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7161,7 +7283,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -7177,7 +7299,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C172" t="n">
         <v>590</v>
@@ -7186,13 +7308,13 @@
         <v>590</v>
       </c>
       <c r="E172" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F172" t="n">
-        <v>355</v>
+        <v>170</v>
       </c>
       <c r="G172" t="n">
-        <v>589.1</v>
+        <v>589.0166666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7202,7 +7324,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -7230,10 +7352,10 @@
         <v>590</v>
       </c>
       <c r="F173" t="n">
-        <v>864.8698000000001</v>
+        <v>355</v>
       </c>
       <c r="G173" t="n">
-        <v>589.0833333333334</v>
+        <v>589.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7243,7 +7365,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -7259,22 +7381,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C174" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D174" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E174" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F174" t="n">
-        <v>17176.5851</v>
+        <v>864.8698000000001</v>
       </c>
       <c r="G174" t="n">
-        <v>589.1833333333333</v>
+        <v>589.0833333333334</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7284,7 +7406,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -7312,10 +7434,10 @@
         <v>591</v>
       </c>
       <c r="F175" t="n">
-        <v>113114.097</v>
+        <v>17176.5851</v>
       </c>
       <c r="G175" t="n">
-        <v>589.2833333333333</v>
+        <v>589.1833333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7325,7 +7447,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -7347,13 +7469,13 @@
         <v>591</v>
       </c>
       <c r="D176" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E176" t="n">
         <v>591</v>
       </c>
       <c r="F176" t="n">
-        <v>73942.1547</v>
+        <v>113114.097</v>
       </c>
       <c r="G176" t="n">
         <v>589.2833333333333</v>
@@ -7366,7 +7488,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -7382,19 +7504,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C177" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D177" t="n">
         <v>592</v>
       </c>
       <c r="E177" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F177" t="n">
-        <v>360.9999</v>
+        <v>73942.1547</v>
       </c>
       <c r="G177" t="n">
         <v>589.2833333333333</v>
@@ -7407,7 +7529,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -7435,7 +7557,7 @@
         <v>592</v>
       </c>
       <c r="F178" t="n">
-        <v>165.9779</v>
+        <v>360.9999</v>
       </c>
       <c r="G178" t="n">
         <v>589.2833333333333</v>
@@ -7448,7 +7570,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7464,7 +7586,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C179" t="n">
         <v>592</v>
@@ -7473,13 +7595,13 @@
         <v>592</v>
       </c>
       <c r="E179" t="n">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F179" t="n">
-        <v>665.4</v>
+        <v>165.9779</v>
       </c>
       <c r="G179" t="n">
-        <v>589.45</v>
+        <v>589.2833333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7489,7 +7611,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7505,22 +7627,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C180" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D180" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E180" t="n">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F180" t="n">
-        <v>125.215</v>
+        <v>665.4</v>
       </c>
       <c r="G180" t="n">
-        <v>589.4166666666666</v>
+        <v>589.45</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7530,7 +7652,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7546,22 +7668,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C181" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D181" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E181" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F181" t="n">
-        <v>1</v>
+        <v>125.215</v>
       </c>
       <c r="G181" t="n">
-        <v>589.45</v>
+        <v>589.4166666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7571,7 +7693,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7599,10 +7721,10 @@
         <v>592</v>
       </c>
       <c r="F182" t="n">
-        <v>3.032</v>
+        <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>589.5</v>
+        <v>589.45</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7612,7 +7734,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7628,22 +7750,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C183" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D183" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E183" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F183" t="n">
-        <v>93.2381</v>
+        <v>3.032</v>
       </c>
       <c r="G183" t="n">
-        <v>589.5333333333333</v>
+        <v>589.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7653,7 +7775,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7672,19 +7794,19 @@
         <v>593</v>
       </c>
       <c r="C184" t="n">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D184" t="n">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E184" t="n">
         <v>593</v>
       </c>
       <c r="F184" t="n">
-        <v>544.1952</v>
+        <v>93.2381</v>
       </c>
       <c r="G184" t="n">
-        <v>589.5666666666667</v>
+        <v>589.5333333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7694,7 +7816,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7710,22 +7832,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>593</v>
+      </c>
+      <c r="C185" t="n">
         <v>595</v>
       </c>
-      <c r="C185" t="n">
-        <v>596</v>
-      </c>
       <c r="D185" t="n">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E185" t="n">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F185" t="n">
-        <v>629.3141000000001</v>
+        <v>544.1952</v>
       </c>
       <c r="G185" t="n">
-        <v>589.8</v>
+        <v>589.5666666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7735,7 +7857,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7751,22 +7873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C186" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D186" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E186" t="n">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F186" t="n">
-        <v>619</v>
+        <v>629.3141000000001</v>
       </c>
       <c r="G186" t="n">
-        <v>590.0166666666667</v>
+        <v>589.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7776,7 +7898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7792,7 +7914,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C187" t="n">
         <v>598</v>
@@ -7801,13 +7923,13 @@
         <v>598</v>
       </c>
       <c r="E187" t="n">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F187" t="n">
-        <v>103.5181</v>
+        <v>619</v>
       </c>
       <c r="G187" t="n">
-        <v>590.15</v>
+        <v>590.0166666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7817,7 +7939,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7833,22 +7955,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C188" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D188" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E188" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F188" t="n">
-        <v>546</v>
+        <v>103.5181</v>
       </c>
       <c r="G188" t="n">
-        <v>590.3166666666667</v>
+        <v>590.15</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7858,7 +7980,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7886,10 +8008,10 @@
         <v>599</v>
       </c>
       <c r="F189" t="n">
-        <v>124.1525</v>
+        <v>546</v>
       </c>
       <c r="G189" t="n">
-        <v>590.4833333333333</v>
+        <v>590.3166666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7899,7 +8021,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7915,22 +8037,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C190" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D190" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E190" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F190" t="n">
-        <v>11</v>
+        <v>124.1525</v>
       </c>
       <c r="G190" t="n">
-        <v>590.6666666666666</v>
+        <v>590.4833333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7940,7 +8062,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7956,22 +8078,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="C191" t="n">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D191" t="n">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="E191" t="n">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G191" t="n">
-        <v>591.0833333333334</v>
+        <v>590.6666666666666</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7981,7 +8103,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -8009,10 +8131,10 @@
         <v>609</v>
       </c>
       <c r="F192" t="n">
-        <v>1061.7059</v>
+        <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>591.4666666666667</v>
+        <v>591.0833333333334</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -8022,7 +8144,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -8050,10 +8172,10 @@
         <v>609</v>
       </c>
       <c r="F193" t="n">
-        <v>354.8619</v>
+        <v>1061.7059</v>
       </c>
       <c r="G193" t="n">
-        <v>591.75</v>
+        <v>591.4666666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -8063,7 +8185,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -8079,22 +8201,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C194" t="n">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D194" t="n">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E194" t="n">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F194" t="n">
-        <v>275</v>
+        <v>354.8619</v>
       </c>
       <c r="G194" t="n">
-        <v>592.2166666666667</v>
+        <v>591.75</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -8104,7 +8226,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -8120,22 +8242,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C195" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D195" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E195" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F195" t="n">
-        <v>507.9999</v>
+        <v>275</v>
       </c>
       <c r="G195" t="n">
-        <v>592.7</v>
+        <v>592.2166666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -8145,7 +8267,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -8161,22 +8283,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C196" t="n">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D196" t="n">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E196" t="n">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F196" t="n">
-        <v>1521.7329</v>
+        <v>507.9999</v>
       </c>
       <c r="G196" t="n">
-        <v>593.0166666666667</v>
+        <v>592.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8186,7 +8308,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -8202,40 +8324,40 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C197" t="n">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D197" t="n">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E197" t="n">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F197" t="n">
-        <v>1033.1603</v>
+        <v>1521.7329</v>
       </c>
       <c r="G197" t="n">
-        <v>593.5</v>
+        <v>593.0166666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>1</v>
+        <v>1.039520547945206</v>
       </c>
     </row>
     <row r="198">
@@ -8243,22 +8365,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>613</v>
+      </c>
+      <c r="C198" t="n">
         <v>615</v>
       </c>
-      <c r="C198" t="n">
-        <v>617</v>
-      </c>
       <c r="D198" t="n">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E198" t="n">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F198" t="n">
-        <v>191.922</v>
+        <v>1033.1603</v>
       </c>
       <c r="G198" t="n">
-        <v>593.9333333333333</v>
+        <v>593.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8267,14 +8389,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>572</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8284,7 +8400,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C199" t="n">
         <v>617</v>
@@ -8293,29 +8409,23 @@
         <v>617</v>
       </c>
       <c r="E199" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F199" t="n">
-        <v>2109.7525</v>
+        <v>191.922</v>
       </c>
       <c r="G199" t="n">
-        <v>594.3833333333333</v>
+        <v>593.9333333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>572</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8325,22 +8435,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C200" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D200" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E200" t="n">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F200" t="n">
-        <v>477.05</v>
+        <v>2109.7525</v>
       </c>
       <c r="G200" t="n">
-        <v>594.8666666666667</v>
+        <v>594.3833333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8349,14 +8459,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>572</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8378,10 +8482,10 @@
         <v>618</v>
       </c>
       <c r="F201" t="n">
-        <v>4082.1407</v>
+        <v>477.05</v>
       </c>
       <c r="G201" t="n">
-        <v>595.35</v>
+        <v>594.8666666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8390,14 +8494,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>572</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8407,7 +8505,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C202" t="n">
         <v>618</v>
@@ -8416,13 +8514,13 @@
         <v>618</v>
       </c>
       <c r="E202" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F202" t="n">
-        <v>1596.3464</v>
+        <v>4082.1407</v>
       </c>
       <c r="G202" t="n">
-        <v>595.8833333333333</v>
+        <v>595.35</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8431,14 +8529,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>572</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8448,7 +8540,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C203" t="n">
         <v>618</v>
@@ -8457,13 +8549,13 @@
         <v>618</v>
       </c>
       <c r="E203" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F203" t="n">
-        <v>3078.2012</v>
+        <v>1596.3464</v>
       </c>
       <c r="G203" t="n">
-        <v>596.4166666666666</v>
+        <v>595.8833333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8472,14 +8564,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>572</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8489,22 +8575,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C204" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D204" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E204" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F204" t="n">
-        <v>875.8796</v>
+        <v>3078.2012</v>
       </c>
       <c r="G204" t="n">
-        <v>596.9</v>
+        <v>596.4166666666666</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8513,14 +8599,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>572</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8533,35 +8613,29 @@
         <v>619</v>
       </c>
       <c r="C205" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D205" t="n">
         <v>619</v>
       </c>
       <c r="E205" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F205" t="n">
-        <v>1110</v>
+        <v>875.8796</v>
       </c>
       <c r="G205" t="n">
-        <v>597.3166666666667</v>
+        <v>596.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>572</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8574,19 +8648,19 @@
         <v>619</v>
       </c>
       <c r="C206" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D206" t="n">
         <v>619</v>
       </c>
       <c r="E206" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F206" t="n">
-        <v>1091.9183</v>
+        <v>1110</v>
       </c>
       <c r="G206" t="n">
-        <v>597.7</v>
+        <v>597.3166666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8595,14 +8669,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>572</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8612,22 +8680,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C207" t="n">
         <v>616</v>
       </c>
       <c r="D207" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E207" t="n">
         <v>616</v>
       </c>
       <c r="F207" t="n">
-        <v>247.775</v>
+        <v>1091.9183</v>
       </c>
       <c r="G207" t="n">
-        <v>598.0833333333334</v>
+        <v>597.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8636,14 +8704,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>572</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8653,22 +8715,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C208" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D208" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E208" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F208" t="n">
-        <v>212.5</v>
+        <v>247.775</v>
       </c>
       <c r="G208" t="n">
-        <v>598.4666666666667</v>
+        <v>598.0833333333334</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8677,14 +8739,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>572</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8697,19 +8753,19 @@
         <v>619</v>
       </c>
       <c r="C209" t="n">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="D209" t="n">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="E209" t="n">
         <v>619</v>
       </c>
       <c r="F209" t="n">
-        <v>155.3961</v>
+        <v>212.5</v>
       </c>
       <c r="G209" t="n">
-        <v>598.9833333333333</v>
+        <v>598.4666666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8718,14 +8774,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>572</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8738,37 +8788,31 @@
         <v>619</v>
       </c>
       <c r="C210" t="n">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="D210" t="n">
+        <v>626</v>
+      </c>
+      <c r="E210" t="n">
         <v>619</v>
       </c>
-      <c r="E210" t="n">
-        <v>617</v>
-      </c>
       <c r="F210" t="n">
-        <v>643.8552</v>
+        <v>155.3961</v>
       </c>
       <c r="G210" t="n">
-        <v>599.5166666666667</v>
+        <v>598.9833333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>572</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
-        <v>1.073671328671329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -8779,25 +8823,25 @@
         <v>619</v>
       </c>
       <c r="C211" t="n">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="D211" t="n">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="E211" t="n">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F211" t="n">
-        <v>329.7348</v>
+        <v>643.8552</v>
       </c>
       <c r="G211" t="n">
-        <v>600.0333333333333</v>
+        <v>599.5166666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
@@ -8811,22 +8855,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C212" t="n">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="D212" t="n">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="E212" t="n">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F212" t="n">
-        <v>161.983</v>
+        <v>329.7348</v>
       </c>
       <c r="G212" t="n">
-        <v>600.45</v>
+        <v>600.0333333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8849,19 +8893,19 @@
         <v>613</v>
       </c>
       <c r="C213" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D213" t="n">
         <v>613</v>
       </c>
       <c r="E213" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F213" t="n">
-        <v>1214.3454</v>
+        <v>161.983</v>
       </c>
       <c r="G213" t="n">
-        <v>600.85</v>
+        <v>600.45</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8881,22 +8925,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C214" t="n">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D214" t="n">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E214" t="n">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F214" t="n">
-        <v>1</v>
+        <v>1214.3454</v>
       </c>
       <c r="G214" t="n">
-        <v>601.35</v>
+        <v>600.85</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8931,7 +8975,7 @@
         <v>1</v>
       </c>
       <c r="G215" t="n">
-        <v>601.7333333333333</v>
+        <v>601.35</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8951,22 +8995,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C216" t="n">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="D216" t="n">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="E216" t="n">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="F216" t="n">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="G216" t="n">
-        <v>602</v>
+        <v>601.7333333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8986,22 +9030,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="C217" t="n">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D217" t="n">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="E217" t="n">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F217" t="n">
-        <v>74.5</v>
+        <v>226</v>
       </c>
       <c r="G217" t="n">
-        <v>602.3333333333334</v>
+        <v>602</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -9021,22 +9065,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C218" t="n">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D218" t="n">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E218" t="n">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F218" t="n">
-        <v>3891.9319</v>
+        <v>74.5</v>
       </c>
       <c r="G218" t="n">
-        <v>602.55</v>
+        <v>602.3333333333334</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -9056,22 +9100,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="C219" t="n">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="D219" t="n">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="E219" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F219" t="n">
-        <v>267.9729</v>
+        <v>3891.9319</v>
       </c>
       <c r="G219" t="n">
-        <v>603.1166666666667</v>
+        <v>602.55</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -9091,7 +9135,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C220" t="n">
         <v>619</v>
@@ -9100,13 +9144,13 @@
         <v>619</v>
       </c>
       <c r="E220" t="n">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F220" t="n">
-        <v>183.2273</v>
+        <v>267.9729</v>
       </c>
       <c r="G220" t="n">
-        <v>603.6</v>
+        <v>603.1166666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -9126,22 +9170,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="C221" t="n">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="D221" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E221" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F221" t="n">
-        <v>79.2</v>
+        <v>183.2273</v>
       </c>
       <c r="G221" t="n">
-        <v>603.8666666666667</v>
+        <v>603.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -9161,22 +9205,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="C222" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D222" t="n">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="E222" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F222" t="n">
-        <v>124.527</v>
+        <v>79.2</v>
       </c>
       <c r="G222" t="n">
-        <v>604.1166666666667</v>
+        <v>603.8666666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -9196,22 +9240,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="C223" t="n">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="D223" t="n">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="E223" t="n">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="F223" t="n">
-        <v>1</v>
+        <v>124.527</v>
       </c>
       <c r="G223" t="n">
-        <v>604.4333333333333</v>
+        <v>604.1166666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -9231,22 +9275,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="C224" t="n">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="D224" t="n">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="E224" t="n">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="F224" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G224" t="n">
-        <v>604.5666666666667</v>
+        <v>604.4333333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -9281,7 +9325,7 @@
         <v>100</v>
       </c>
       <c r="G225" t="n">
-        <v>604.8833333333333</v>
+        <v>604.5666666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -9301,22 +9345,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C226" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D226" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E226" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F226" t="n">
         <v>100</v>
       </c>
       <c r="G226" t="n">
-        <v>605.1</v>
+        <v>604.8833333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -9348,10 +9392,10 @@
         <v>606</v>
       </c>
       <c r="F227" t="n">
-        <v>132.54</v>
+        <v>100</v>
       </c>
       <c r="G227" t="n">
-        <v>605.35</v>
+        <v>605.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -9383,10 +9427,10 @@
         <v>606</v>
       </c>
       <c r="F228" t="n">
-        <v>92.273</v>
+        <v>132.54</v>
       </c>
       <c r="G228" t="n">
-        <v>605.7166666666667</v>
+        <v>605.35</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9406,22 +9450,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C229" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D229" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E229" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F229" t="n">
-        <v>159.733</v>
+        <v>92.273</v>
       </c>
       <c r="G229" t="n">
-        <v>606.0833333333334</v>
+        <v>605.7166666666667</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9441,22 +9485,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C230" t="n">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D230" t="n">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E230" t="n">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F230" t="n">
-        <v>157.9999</v>
+        <v>159.733</v>
       </c>
       <c r="G230" t="n">
-        <v>606.4</v>
+        <v>606.0833333333334</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9488,10 +9532,10 @@
         <v>607</v>
       </c>
       <c r="F231" t="n">
-        <v>434</v>
+        <v>157.9999</v>
       </c>
       <c r="G231" t="n">
-        <v>606.6833333333333</v>
+        <v>606.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9511,22 +9555,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C232" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D232" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E232" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F232" t="n">
-        <v>41.5002</v>
+        <v>434</v>
       </c>
       <c r="G232" t="n">
-        <v>606.9833333333333</v>
+        <v>606.6833333333333</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9558,10 +9602,10 @@
         <v>608</v>
       </c>
       <c r="F233" t="n">
-        <v>285.0511</v>
+        <v>41.5002</v>
       </c>
       <c r="G233" t="n">
-        <v>607.2833333333333</v>
+        <v>606.9833333333333</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9576,6 +9620,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>608</v>
+      </c>
+      <c r="C234" t="n">
+        <v>608</v>
+      </c>
+      <c r="D234" t="n">
+        <v>608</v>
+      </c>
+      <c r="E234" t="n">
+        <v>608</v>
+      </c>
+      <c r="F234" t="n">
+        <v>285.0511</v>
+      </c>
+      <c r="G234" t="n">
+        <v>607.2833333333333</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-18 BackTest GXC.xlsx
+++ b/BackTest/2019-10-18 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M234"/>
+  <dimension ref="A1:N244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
+        <v>593.0666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>582.8333333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>391.0148</v>
       </c>
       <c r="G3" t="n">
+        <v>593.5333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>583</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>595</v>
+      </c>
+      <c r="L3" t="n">
+        <v>595</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>1172.8923</v>
       </c>
       <c r="G4" t="n">
+        <v>593.1333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>583.1</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>590</v>
+      </c>
+      <c r="L4" t="n">
+        <v>595</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>6.8033</v>
       </c>
       <c r="G5" t="n">
+        <v>592.9333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>583.2666666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>584</v>
+      </c>
+      <c r="L5" t="n">
+        <v>595</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,25 @@
         <v>15.3402</v>
       </c>
       <c r="G6" t="n">
+        <v>592.7333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>583.4166666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>589</v>
+      </c>
+      <c r="L6" t="n">
+        <v>589</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,29 @@
         <v>19.668</v>
       </c>
       <c r="G7" t="n">
+        <v>592.5333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>583.5666666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>589</v>
+      </c>
+      <c r="L7" t="n">
+        <v>589</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +713,29 @@
         <v>127.2334</v>
       </c>
       <c r="G8" t="n">
+        <v>591.9333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>583.7166666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>589</v>
+      </c>
+      <c r="L8" t="n">
+        <v>589</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +759,25 @@
         <v>57.2555</v>
       </c>
       <c r="G9" t="n">
+        <v>591.5333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>583.8666666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>589</v>
+      </c>
+      <c r="L9" t="n">
+        <v>589</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +801,29 @@
         <v>11</v>
       </c>
       <c r="G10" t="n">
+        <v>591.5333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>584.1333333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>589</v>
+      </c>
+      <c r="L10" t="n">
+        <v>589</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +847,27 @@
         <v>5.0594</v>
       </c>
       <c r="G11" t="n">
+        <v>591.3333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>584.4666666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>589</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +891,21 @@
         <v>73.973</v>
       </c>
       <c r="G12" t="n">
+        <v>590.4</v>
+      </c>
+      <c r="H12" t="n">
         <v>584.5833333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +929,21 @@
         <v>426.165</v>
       </c>
       <c r="G13" t="n">
+        <v>589.5333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>584.6</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +967,21 @@
         <v>5066.9883</v>
       </c>
       <c r="G14" t="n">
+        <v>589.4666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>584.8333333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1005,25 @@
         <v>515.4215</v>
       </c>
       <c r="G15" t="n">
+        <v>588.9333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>585</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>594</v>
+      </c>
+      <c r="L15" t="n">
+        <v>594</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1047,29 @@
         <v>250</v>
       </c>
       <c r="G16" t="n">
+        <v>587.8666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>584.9</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>582</v>
+      </c>
+      <c r="L16" t="n">
+        <v>594</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1093,29 @@
         <v>170.138</v>
       </c>
       <c r="G17" t="n">
+        <v>586.7333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>584.8666666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>574</v>
+      </c>
+      <c r="L17" t="n">
+        <v>594</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1139,29 @@
         <v>1104</v>
       </c>
       <c r="G18" t="n">
+        <v>586.2</v>
+      </c>
+      <c r="H18" t="n">
         <v>584.9</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>578</v>
+      </c>
+      <c r="L18" t="n">
+        <v>594</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1185,29 @@
         <v>284.5395</v>
       </c>
       <c r="G19" t="n">
+        <v>586.0666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>584.9333333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>582</v>
+      </c>
+      <c r="L19" t="n">
+        <v>594</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,22 +1231,27 @@
         <v>1674.4169</v>
       </c>
       <c r="G20" t="n">
+        <v>585.7333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>585</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>582</v>
-      </c>
-      <c r="K20" t="n">
-        <v>582</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>594</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1117,26 +1275,27 @@
         <v>572</v>
       </c>
       <c r="G21" t="n">
+        <v>585.4</v>
+      </c>
+      <c r="H21" t="n">
         <v>585.0666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>584</v>
-      </c>
-      <c r="K21" t="n">
-        <v>582</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>594</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,26 +1319,27 @@
         <v>585</v>
       </c>
       <c r="G22" t="n">
+        <v>585.0666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>585.15</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>584</v>
-      </c>
-      <c r="K22" t="n">
-        <v>582</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>594</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1203,22 +1363,29 @@
         <v>635.9999</v>
       </c>
       <c r="G23" t="n">
+        <v>584.7333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>585.2166666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>584</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>584</v>
       </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>594</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1242,26 +1409,29 @@
         <v>1801.0599</v>
       </c>
       <c r="G24" t="n">
+        <v>584.4</v>
+      </c>
+      <c r="H24" t="n">
         <v>585.2833333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>584</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>584</v>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>594</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,24 +1455,29 @@
         <v>188.6767</v>
       </c>
       <c r="G25" t="n">
+        <v>583.6</v>
+      </c>
+      <c r="H25" t="n">
         <v>585.35</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="n">
         <v>584</v>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>594</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1326,22 +1501,27 @@
         <v>167.832</v>
       </c>
       <c r="G26" t="n">
+        <v>582.8</v>
+      </c>
+      <c r="H26" t="n">
         <v>585.3833333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>584</v>
-      </c>
-      <c r="K26" t="n">
-        <v>584</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>594</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1365,26 +1545,29 @@
         <v>842.9903</v>
       </c>
       <c r="G27" t="n">
+        <v>582.7333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>585.4333333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>582</v>
       </c>
-      <c r="K27" t="n">
-        <v>584</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>594</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1408,26 +1591,29 @@
         <v>1.71526586</v>
       </c>
       <c r="G28" t="n">
+        <v>582.8666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>585.5166666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>582</v>
       </c>
-      <c r="K28" t="n">
-        <v>584</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>594</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1451,24 +1637,27 @@
         <v>320</v>
       </c>
       <c r="G29" t="n">
+        <v>582.1333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>585.5666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>584</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>594</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1492,24 +1681,29 @@
         <v>1704.7056</v>
       </c>
       <c r="G30" t="n">
+        <v>582.2</v>
+      </c>
+      <c r="H30" t="n">
         <v>585.7666666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="n">
-        <v>584</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+        <v>583</v>
+      </c>
+      <c r="L30" t="n">
+        <v>594</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,24 +1727,27 @@
         <v>4</v>
       </c>
       <c r="G31" t="n">
+        <v>582.8666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>585.8666666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>584</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>594</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1574,24 +1771,27 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
+        <v>583.3333333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>585.95</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>584</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>594</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1615,24 +1815,27 @@
         <v>264.4018</v>
       </c>
       <c r="G33" t="n">
+        <v>583.4666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>586.0166666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>584</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>594</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1656,24 +1859,27 @@
         <v>2963.8478</v>
       </c>
       <c r="G34" t="n">
+        <v>583.4</v>
+      </c>
+      <c r="H34" t="n">
         <v>586.0333333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>584</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>594</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1697,24 +1903,27 @@
         <v>400</v>
       </c>
       <c r="G35" t="n">
+        <v>583.2</v>
+      </c>
+      <c r="H35" t="n">
         <v>586.05</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>584</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>594</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1738,24 +1947,27 @@
         <v>1322.4731</v>
       </c>
       <c r="G36" t="n">
+        <v>583.0666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>586.0833333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>584</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>594</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1779,24 +1991,27 @@
         <v>1282.5417</v>
       </c>
       <c r="G37" t="n">
+        <v>582.8666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>586.1</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>584</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>594</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1820,24 +2035,27 @@
         <v>890.4783</v>
       </c>
       <c r="G38" t="n">
+        <v>582.6666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>586.1166666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>584</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>594</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1861,24 +2079,27 @@
         <v>166.956</v>
       </c>
       <c r="G39" t="n">
+        <v>582.4</v>
+      </c>
+      <c r="H39" t="n">
         <v>586.1166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>584</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>594</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1902,24 +2123,27 @@
         <v>149.3095</v>
       </c>
       <c r="G40" t="n">
+        <v>581.8666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>586.05</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>584</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>594</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1943,24 +2167,27 @@
         <v>4.1996</v>
       </c>
       <c r="G41" t="n">
+        <v>581.2</v>
+      </c>
+      <c r="H41" t="n">
         <v>585.9166666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>584</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>594</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1984,24 +2211,27 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
+        <v>581.0666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>585.9166666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>584</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>594</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2025,24 +2255,27 @@
         <v>91.2792</v>
       </c>
       <c r="G43" t="n">
+        <v>581</v>
+      </c>
+      <c r="H43" t="n">
         <v>585.95</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>584</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>594</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2066,24 +2299,27 @@
         <v>323.035</v>
       </c>
       <c r="G44" t="n">
+        <v>580.9333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>585.9833333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>584</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>594</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2107,24 +2343,27 @@
         <v>226.74692176</v>
       </c>
       <c r="G45" t="n">
+        <v>580.8666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>586.0166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>584</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>594</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,24 +2387,27 @@
         <v>468.9181</v>
       </c>
       <c r="G46" t="n">
+        <v>580.8666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>586.0833333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>584</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>594</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2189,24 +2431,27 @@
         <v>45.0381</v>
       </c>
       <c r="G47" t="n">
+        <v>581</v>
+      </c>
+      <c r="H47" t="n">
         <v>586.0333333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>584</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>594</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,24 +2475,27 @@
         <v>149.6201</v>
       </c>
       <c r="G48" t="n">
+        <v>580.8666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>586.0166666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>584</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>594</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2271,24 +2519,27 @@
         <v>24.698</v>
       </c>
       <c r="G49" t="n">
+        <v>581.0666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>585.9166666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>584</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>594</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2312,24 +2563,27 @@
         <v>676.0023</v>
       </c>
       <c r="G50" t="n">
+        <v>581.7333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>585.9</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>584</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>594</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2353,24 +2607,27 @@
         <v>197.4504</v>
       </c>
       <c r="G51" t="n">
+        <v>582.1333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>585.8333333333334</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>584</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>594</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2394,24 +2651,27 @@
         <v>15.2859</v>
       </c>
       <c r="G52" t="n">
+        <v>582.6</v>
+      </c>
+      <c r="H52" t="n">
         <v>585.7666666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>584</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>594</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2435,24 +2695,27 @@
         <v>337.4</v>
       </c>
       <c r="G53" t="n">
+        <v>583.0666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>585.6</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>584</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>594</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2476,24 +2739,27 @@
         <v>65.9671</v>
       </c>
       <c r="G54" t="n">
+        <v>583.6</v>
+      </c>
+      <c r="H54" t="n">
         <v>585.4833333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>584</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>594</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2517,24 +2783,27 @@
         <v>176.03926054</v>
       </c>
       <c r="G55" t="n">
+        <v>584.4</v>
+      </c>
+      <c r="H55" t="n">
         <v>585.35</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>584</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>594</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2558,24 +2827,27 @@
         <v>42.05635776</v>
       </c>
       <c r="G56" t="n">
+        <v>585.6</v>
+      </c>
+      <c r="H56" t="n">
         <v>585.2333333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>584</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>594</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,24 +2871,27 @@
         <v>189.35662869</v>
       </c>
       <c r="G57" t="n">
+        <v>586.2</v>
+      </c>
+      <c r="H57" t="n">
         <v>585.1</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>584</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>594</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2640,24 +2915,27 @@
         <v>4.321</v>
       </c>
       <c r="G58" t="n">
+        <v>586.5333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>584.9833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>584</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>594</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2681,24 +2959,27 @@
         <v>247.2471</v>
       </c>
       <c r="G59" t="n">
+        <v>587</v>
+      </c>
+      <c r="H59" t="n">
         <v>584.8833333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>584</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>594</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,24 +3003,27 @@
         <v>30.4621</v>
       </c>
       <c r="G60" t="n">
+        <v>587.5333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>584.8833333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>584</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>594</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2763,24 +3047,27 @@
         <v>671.7528</v>
       </c>
       <c r="G61" t="n">
+        <v>587.9333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>584.8833333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>584</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>594</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2804,24 +3091,27 @@
         <v>2955.7140817</v>
       </c>
       <c r="G62" t="n">
+        <v>588.1333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>584.8</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>584</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>594</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,24 +3135,27 @@
         <v>450.8883</v>
       </c>
       <c r="G63" t="n">
+        <v>588.8</v>
+      </c>
+      <c r="H63" t="n">
         <v>584.8333333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>584</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>594</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2886,24 +3179,27 @@
         <v>514.6</v>
       </c>
       <c r="G64" t="n">
+        <v>589.3333333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>584.9666666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>584</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>594</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2927,24 +3223,27 @@
         <v>63.8</v>
       </c>
       <c r="G65" t="n">
+        <v>589.3333333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>585</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>584</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>594</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,24 +3267,27 @@
         <v>63.8</v>
       </c>
       <c r="G66" t="n">
+        <v>589.5333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>585.0333333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>584</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>594</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3009,24 +3311,27 @@
         <v>63.7728</v>
       </c>
       <c r="G67" t="n">
+        <v>589.7333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>585.0666666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>584</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>594</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3050,24 +3355,27 @@
         <v>284.5762</v>
       </c>
       <c r="G68" t="n">
+        <v>589.9333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>585.1</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>584</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>594</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,24 +3399,27 @@
         <v>42.2975</v>
       </c>
       <c r="G69" t="n">
+        <v>590.1333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>585.1333333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>584</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>594</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3132,24 +3443,27 @@
         <v>39.2669</v>
       </c>
       <c r="G70" t="n">
+        <v>590.3333333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>585.05</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>584</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>594</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3173,24 +3487,27 @@
         <v>79</v>
       </c>
       <c r="G71" t="n">
+        <v>590.3333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>584.9833333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>584</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>594</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,24 +3531,27 @@
         <v>69.6589</v>
       </c>
       <c r="G72" t="n">
+        <v>590.4666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>585.1166666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>584</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>594</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3255,24 +3575,27 @@
         <v>29.3884</v>
       </c>
       <c r="G73" t="n">
+        <v>590.7333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>585.2833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>584</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>594</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3296,24 +3619,27 @@
         <v>22.5651</v>
       </c>
       <c r="G74" t="n">
+        <v>590.8666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>585.2333333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>584</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>594</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3337,24 +3663,27 @@
         <v>22.3941</v>
       </c>
       <c r="G75" t="n">
+        <v>590.9333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>585.3833333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>584</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>594</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3378,24 +3707,27 @@
         <v>196.2594</v>
       </c>
       <c r="G76" t="n">
+        <v>591</v>
+      </c>
+      <c r="H76" t="n">
         <v>585.6666666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>584</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>594</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3419,24 +3751,27 @@
         <v>35.5176</v>
       </c>
       <c r="G77" t="n">
+        <v>591.0666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>585.8833333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>584</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>594</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3460,24 +3795,27 @@
         <v>177.6687</v>
       </c>
       <c r="G78" t="n">
+        <v>591.0666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>586.05</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>584</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>594</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3501,24 +3839,27 @@
         <v>213.02</v>
       </c>
       <c r="G79" t="n">
+        <v>591</v>
+      </c>
+      <c r="H79" t="n">
         <v>586.2</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>584</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>594</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3542,24 +3883,27 @@
         <v>80</v>
       </c>
       <c r="G80" t="n">
+        <v>591</v>
+      </c>
+      <c r="H80" t="n">
         <v>586.3166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>584</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>594</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3583,24 +3927,27 @@
         <v>150</v>
       </c>
       <c r="G81" t="n">
+        <v>591</v>
+      </c>
+      <c r="H81" t="n">
         <v>586.4333333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>584</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>594</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3624,24 +3971,27 @@
         <v>78.0337</v>
       </c>
       <c r="G82" t="n">
+        <v>591.0666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>586.5666666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>584</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>594</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3665,24 +4015,27 @@
         <v>674.9555</v>
       </c>
       <c r="G83" t="n">
+        <v>591.0666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>586.6833333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>584</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>594</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,24 +4059,27 @@
         <v>308.0598</v>
       </c>
       <c r="G84" t="n">
+        <v>591.0666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>586.8</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>584</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>594</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3747,24 +4103,27 @@
         <v>87.48990000000001</v>
       </c>
       <c r="G85" t="n">
+        <v>591.0666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>586.9166666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>584</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>594</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3788,24 +4147,27 @@
         <v>2.62248322</v>
       </c>
       <c r="G86" t="n">
+        <v>591.4666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>587.15</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>584</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>594</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3829,24 +4191,27 @@
         <v>283.6683</v>
       </c>
       <c r="G87" t="n">
+        <v>591.4</v>
+      </c>
+      <c r="H87" t="n">
         <v>587.2833333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>584</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>594</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3870,24 +4235,27 @@
         <v>472.4</v>
       </c>
       <c r="G88" t="n">
+        <v>591.3333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>587.4</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>584</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>594</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3911,24 +4279,27 @@
         <v>1.8878</v>
       </c>
       <c r="G89" t="n">
+        <v>591.3333333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>587.5333333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>584</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>594</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3952,24 +4323,27 @@
         <v>4.4311</v>
       </c>
       <c r="G90" t="n">
+        <v>591.2666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>587.65</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>584</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>594</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3993,24 +4367,27 @@
         <v>43.8426</v>
       </c>
       <c r="G91" t="n">
+        <v>591.2666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>587.7666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>584</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>594</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,24 +4411,27 @@
         <v>74.8994</v>
       </c>
       <c r="G92" t="n">
+        <v>591.2666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>587.8666666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>584</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>594</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4075,24 +4455,27 @@
         <v>1.7089</v>
       </c>
       <c r="G93" t="n">
+        <v>591.2</v>
+      </c>
+      <c r="H93" t="n">
         <v>587.9833333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>584</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>594</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4116,24 +4499,27 @@
         <v>331.764</v>
       </c>
       <c r="G94" t="n">
+        <v>591.2</v>
+      </c>
+      <c r="H94" t="n">
         <v>588.15</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>584</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>594</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4157,24 +4543,27 @@
         <v>119.4207</v>
       </c>
       <c r="G95" t="n">
+        <v>591.2</v>
+      </c>
+      <c r="H95" t="n">
         <v>588.3166666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>584</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>594</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4198,24 +4587,27 @@
         <v>27.5591</v>
       </c>
       <c r="G96" t="n">
+        <v>591.2</v>
+      </c>
+      <c r="H96" t="n">
         <v>588.4666666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>584</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>594</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4239,24 +4631,27 @@
         <v>41.8551</v>
       </c>
       <c r="G97" t="n">
+        <v>591.1333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>588.6333333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>584</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>594</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,24 +4675,27 @@
         <v>66.7929</v>
       </c>
       <c r="G98" t="n">
+        <v>591.1333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>588.8</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>584</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>594</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,24 +4719,27 @@
         <v>95.2298</v>
       </c>
       <c r="G99" t="n">
+        <v>591.1333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>588.9833333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>584</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>594</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,24 +4763,27 @@
         <v>90.9841</v>
       </c>
       <c r="G100" t="n">
+        <v>591.1333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>589.2333333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>584</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>594</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,24 +4807,27 @@
         <v>179.5806</v>
       </c>
       <c r="G101" t="n">
+        <v>590.8</v>
+      </c>
+      <c r="H101" t="n">
         <v>589.55</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>584</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>594</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4444,24 +4851,27 @@
         <v>17.1496</v>
       </c>
       <c r="G102" t="n">
+        <v>590.8666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>589.7333333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>584</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>594</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4485,24 +4895,27 @@
         <v>22.1774</v>
       </c>
       <c r="G103" t="n">
+        <v>590.9333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>589.8833333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>584</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>594</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,24 +4939,27 @@
         <v>112.8383</v>
       </c>
       <c r="G104" t="n">
+        <v>590.9333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>590.0333333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>584</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>594</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4567,24 +4983,27 @@
         <v>143.1784</v>
       </c>
       <c r="G105" t="n">
+        <v>591</v>
+      </c>
+      <c r="H105" t="n">
         <v>590.1833333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>584</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>594</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4608,24 +5027,27 @@
         <v>6.1384</v>
       </c>
       <c r="G106" t="n">
+        <v>591</v>
+      </c>
+      <c r="H106" t="n">
         <v>590.3</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>584</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>594</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4649,24 +5071,27 @@
         <v>55.246</v>
       </c>
       <c r="G107" t="n">
+        <v>591</v>
+      </c>
+      <c r="H107" t="n">
         <v>590.3666666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>584</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>594</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4690,24 +5115,27 @@
         <v>35.7774</v>
       </c>
       <c r="G108" t="n">
+        <v>591</v>
+      </c>
+      <c r="H108" t="n">
         <v>590.5166666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>584</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>594</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4731,24 +5159,27 @@
         <v>869.539</v>
       </c>
       <c r="G109" t="n">
+        <v>591</v>
+      </c>
+      <c r="H109" t="n">
         <v>590.6333333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>584</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>594</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4772,24 +5203,27 @@
         <v>40.6911</v>
       </c>
       <c r="G110" t="n">
+        <v>591</v>
+      </c>
+      <c r="H110" t="n">
         <v>590.6333333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>584</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>594</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4813,24 +5247,27 @@
         <v>18.4964</v>
       </c>
       <c r="G111" t="n">
+        <v>591</v>
+      </c>
+      <c r="H111" t="n">
         <v>590.6833333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>584</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>594</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4854,24 +5291,27 @@
         <v>12.7125</v>
       </c>
       <c r="G112" t="n">
+        <v>591</v>
+      </c>
+      <c r="H112" t="n">
         <v>590.7333333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>584</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>594</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4895,24 +5335,27 @@
         <v>280</v>
       </c>
       <c r="G113" t="n">
+        <v>590.6</v>
+      </c>
+      <c r="H113" t="n">
         <v>590.6833333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>584</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>594</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,24 +5379,27 @@
         <v>2.6175</v>
       </c>
       <c r="G114" t="n">
+        <v>590.6</v>
+      </c>
+      <c r="H114" t="n">
         <v>590.7333333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>584</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>594</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4977,24 +5423,27 @@
         <v>7</v>
       </c>
       <c r="G115" t="n">
+        <v>590.2</v>
+      </c>
+      <c r="H115" t="n">
         <v>590.6833333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>584</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>594</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5018,24 +5467,27 @@
         <v>641.669</v>
       </c>
       <c r="G116" t="n">
+        <v>589.8</v>
+      </c>
+      <c r="H116" t="n">
         <v>590.6</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>584</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>594</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5059,24 +5511,27 @@
         <v>410.7966</v>
       </c>
       <c r="G117" t="n">
+        <v>589.8</v>
+      </c>
+      <c r="H117" t="n">
         <v>590.6333333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>584</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>594</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5100,24 +5555,27 @@
         <v>17.8688</v>
       </c>
       <c r="G118" t="n">
+        <v>589.8666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>590.7166666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>584</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>594</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5141,24 +5599,27 @@
         <v>36.2347</v>
       </c>
       <c r="G119" t="n">
+        <v>589.9333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>590.7666666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>584</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>594</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5182,24 +5643,27 @@
         <v>664.7854</v>
       </c>
       <c r="G120" t="n">
+        <v>589.3333333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>590.6333333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>584</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>594</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5223,24 +5687,27 @@
         <v>14.622</v>
       </c>
       <c r="G121" t="n">
+        <v>589.2666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>590.6333333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>584</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>594</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,24 +5731,27 @@
         <v>7.4913</v>
       </c>
       <c r="G122" t="n">
+        <v>589.2</v>
+      </c>
+      <c r="H122" t="n">
         <v>590.6333333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>584</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>594</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5305,24 +5775,27 @@
         <v>2.0865</v>
       </c>
       <c r="G123" t="n">
+        <v>589.0666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>590.5833333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>584</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>594</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5346,24 +5819,27 @@
         <v>13.4532</v>
       </c>
       <c r="G124" t="n">
+        <v>589.0666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>590.5666666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>584</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>594</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5387,24 +5863,27 @@
         <v>12.4287</v>
       </c>
       <c r="G125" t="n">
+        <v>589.2</v>
+      </c>
+      <c r="H125" t="n">
         <v>590.6</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>584</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>594</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5428,24 +5907,27 @@
         <v>200</v>
       </c>
       <c r="G126" t="n">
+        <v>588.6</v>
+      </c>
+      <c r="H126" t="n">
         <v>590.45</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>584</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>594</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,24 +5951,27 @@
         <v>101.531</v>
       </c>
       <c r="G127" t="n">
+        <v>588.2</v>
+      </c>
+      <c r="H127" t="n">
         <v>590.35</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>584</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>594</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5510,24 +5995,27 @@
         <v>118.1982</v>
       </c>
       <c r="G128" t="n">
+        <v>588.5333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>590.3333333333334</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>584</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>594</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5551,24 +6039,27 @@
         <v>20.3037</v>
       </c>
       <c r="G129" t="n">
+        <v>588.4</v>
+      </c>
+      <c r="H129" t="n">
         <v>590.3</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>584</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>594</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5592,24 +6083,27 @@
         <v>23.2929</v>
       </c>
       <c r="G130" t="n">
+        <v>588.6666666666666</v>
+      </c>
+      <c r="H130" t="n">
         <v>590.2666666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>584</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>594</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5633,24 +6127,27 @@
         <v>8.608599999999999</v>
       </c>
       <c r="G131" t="n">
+        <v>588.9333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>590.25</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>584</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>594</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5674,24 +6171,27 @@
         <v>40</v>
       </c>
       <c r="G132" t="n">
+        <v>588.4666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>590.1333333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>584</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>594</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5715,24 +6215,27 @@
         <v>65.99299999999999</v>
       </c>
       <c r="G133" t="n">
+        <v>588.0666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>590.05</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>584</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>594</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5756,24 +6259,27 @@
         <v>4.103</v>
       </c>
       <c r="G134" t="n">
+        <v>588.0666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>590.0666666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>584</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>594</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5797,24 +6303,27 @@
         <v>250</v>
       </c>
       <c r="G135" t="n">
+        <v>588.2666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>589.9666666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>584</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>594</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,24 +6347,27 @@
         <v>625.8017</v>
       </c>
       <c r="G136" t="n">
+        <v>587.8</v>
+      </c>
+      <c r="H136" t="n">
         <v>589.8333333333334</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>584</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>594</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5879,24 +6391,27 @@
         <v>13.262</v>
       </c>
       <c r="G137" t="n">
+        <v>587.8666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>589.8333333333334</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>584</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>594</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5920,24 +6435,27 @@
         <v>149.7052</v>
       </c>
       <c r="G138" t="n">
+        <v>587.6666666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>589.7333333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>584</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>594</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,24 +6479,27 @@
         <v>9.245699999999999</v>
       </c>
       <c r="G139" t="n">
+        <v>587.6666666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>589.7333333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>584</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>594</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6002,24 +6523,27 @@
         <v>19.4009</v>
       </c>
       <c r="G140" t="n">
+        <v>587.4666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>589.7166666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>584</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>594</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6043,24 +6567,27 @@
         <v>19.3228</v>
       </c>
       <c r="G141" t="n">
+        <v>587.9333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>589.6833333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>584</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>594</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6084,24 +6611,27 @@
         <v>1.5704</v>
       </c>
       <c r="G142" t="n">
+        <v>588.2</v>
+      </c>
+      <c r="H142" t="n">
         <v>589.6333333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>584</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>594</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6125,24 +6655,27 @@
         <v>141.5195</v>
       </c>
       <c r="G143" t="n">
+        <v>587.9333333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>589.55</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>584</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>594</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6166,24 +6699,27 @@
         <v>11.4805</v>
       </c>
       <c r="G144" t="n">
+        <v>587.7333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>589.4666666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>584</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>594</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6207,24 +6743,27 @@
         <v>1.2512</v>
       </c>
       <c r="G145" t="n">
+        <v>587.8</v>
+      </c>
+      <c r="H145" t="n">
         <v>589.45</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>584</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>594</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6248,24 +6787,27 @@
         <v>13.2377</v>
       </c>
       <c r="G146" t="n">
+        <v>588.0666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>589.4</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>584</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>594</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6289,24 +6831,27 @@
         <v>2.4485</v>
       </c>
       <c r="G147" t="n">
+        <v>588.6666666666666</v>
+      </c>
+      <c r="H147" t="n">
         <v>589.45</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>584</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>594</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6330,24 +6875,27 @@
         <v>1.2239</v>
       </c>
       <c r="G148" t="n">
+        <v>589.1333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>589.5</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>584</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>594</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6371,24 +6919,27 @@
         <v>398.8072</v>
       </c>
       <c r="G149" t="n">
+        <v>589.4</v>
+      </c>
+      <c r="H149" t="n">
         <v>589.5833333333334</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>584</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>594</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6412,24 +6963,27 @@
         <v>92.2021</v>
       </c>
       <c r="G150" t="n">
+        <v>590.0666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>589.6666666666666</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>584</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>594</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6453,24 +7007,27 @@
         <v>21.7451</v>
       </c>
       <c r="G151" t="n">
+        <v>590.2</v>
+      </c>
+      <c r="H151" t="n">
         <v>589.5666666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>584</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>594</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6494,24 +7051,27 @@
         <v>170.203</v>
       </c>
       <c r="G152" t="n">
+        <v>590.4666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>589.6333333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>584</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>594</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6535,24 +7095,27 @@
         <v>150</v>
       </c>
       <c r="G153" t="n">
+        <v>590.6</v>
+      </c>
+      <c r="H153" t="n">
         <v>589.5833333333334</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>584</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>594</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6576,24 +7139,27 @@
         <v>336</v>
       </c>
       <c r="G154" t="n">
+        <v>590.4</v>
+      </c>
+      <c r="H154" t="n">
         <v>589.5333333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>584</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>594</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6617,24 +7183,27 @@
         <v>210.764</v>
       </c>
       <c r="G155" t="n">
+        <v>590.1333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>589.45</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>584</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>594</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6658,24 +7227,27 @@
         <v>3.9384</v>
       </c>
       <c r="G156" t="n">
+        <v>590.4</v>
+      </c>
+      <c r="H156" t="n">
         <v>589.4833333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>584</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>594</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6699,24 +7271,27 @@
         <v>717.0467</v>
       </c>
       <c r="G157" t="n">
+        <v>590.3333333333334</v>
+      </c>
+      <c r="H157" t="n">
         <v>589.4333333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>584</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>594</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6740,24 +7315,27 @@
         <v>140</v>
       </c>
       <c r="G158" t="n">
+        <v>590.3333333333334</v>
+      </c>
+      <c r="H158" t="n">
         <v>589.35</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>584</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>594</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6781,24 +7359,27 @@
         <v>27.452</v>
       </c>
       <c r="G159" t="n">
+        <v>590.6</v>
+      </c>
+      <c r="H159" t="n">
         <v>589.3333333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>584</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>594</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6822,24 +7403,27 @@
         <v>100</v>
       </c>
       <c r="G160" t="n">
+        <v>590.2666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>589.2333333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>584</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>594</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6863,24 +7447,27 @@
         <v>733.5485</v>
       </c>
       <c r="G161" t="n">
+        <v>590.0666666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>589.2166666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>584</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>594</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6904,24 +7491,27 @@
         <v>57.6895</v>
       </c>
       <c r="G162" t="n">
+        <v>589.8666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>589.2</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>584</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>594</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6945,24 +7535,27 @@
         <v>1.7298</v>
       </c>
       <c r="G163" t="n">
+        <v>589.6666666666666</v>
+      </c>
+      <c r="H163" t="n">
         <v>589.1833333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>584</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>594</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6986,24 +7579,27 @@
         <v>202.7978</v>
       </c>
       <c r="G164" t="n">
+        <v>589.7333333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>589.2833333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>584</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>594</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,24 +7623,27 @@
         <v>35.2488</v>
       </c>
       <c r="G165" t="n">
+        <v>589.8666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>589.3833333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>584</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>594</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7068,24 +7667,27 @@
         <v>500</v>
       </c>
       <c r="G166" t="n">
+        <v>589.9333333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>589.3</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>584</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>594</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7109,24 +7711,27 @@
         <v>842.16103709</v>
       </c>
       <c r="G167" t="n">
+        <v>589.8</v>
+      </c>
+      <c r="H167" t="n">
         <v>589.3333333333334</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>584</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>594</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7150,24 +7755,27 @@
         <v>500.6185</v>
       </c>
       <c r="G168" t="n">
+        <v>590</v>
+      </c>
+      <c r="H168" t="n">
         <v>589.3333333333334</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>584</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>594</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7191,24 +7799,27 @@
         <v>636.9737</v>
       </c>
       <c r="G169" t="n">
+        <v>589.7333333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>589.2166666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>584</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>594</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7232,24 +7843,27 @@
         <v>3979.4781</v>
       </c>
       <c r="G170" t="n">
+        <v>589.5333333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>589.0833333333334</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>584</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>594</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,24 +7887,27 @@
         <v>1</v>
       </c>
       <c r="G171" t="n">
+        <v>589.2</v>
+      </c>
+      <c r="H171" t="n">
         <v>589.0333333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>584</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>594</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7314,24 +7931,27 @@
         <v>170</v>
       </c>
       <c r="G172" t="n">
+        <v>589.3333333333334</v>
+      </c>
+      <c r="H172" t="n">
         <v>589.0166666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>584</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>594</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7355,24 +7975,27 @@
         <v>355</v>
       </c>
       <c r="G173" t="n">
+        <v>589.6</v>
+      </c>
+      <c r="H173" t="n">
         <v>589.1</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>584</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>594</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7396,24 +8019,27 @@
         <v>864.8698000000001</v>
       </c>
       <c r="G174" t="n">
+        <v>589.6</v>
+      </c>
+      <c r="H174" t="n">
         <v>589.0833333333334</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>584</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>594</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7437,24 +8063,27 @@
         <v>17176.5851</v>
       </c>
       <c r="G175" t="n">
+        <v>590</v>
+      </c>
+      <c r="H175" t="n">
         <v>589.1833333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>584</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>594</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7478,24 +8107,27 @@
         <v>113114.097</v>
       </c>
       <c r="G176" t="n">
+        <v>590.0666666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>589.2833333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>584</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>594</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7519,24 +8151,27 @@
         <v>73942.1547</v>
       </c>
       <c r="G177" t="n">
+        <v>590.1333333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>589.2833333333333</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>584</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>594</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7560,24 +8195,27 @@
         <v>360.9999</v>
       </c>
       <c r="G178" t="n">
+        <v>590.2666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>589.2833333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>584</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>594</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7601,24 +8239,27 @@
         <v>165.9779</v>
       </c>
       <c r="G179" t="n">
+        <v>589.9333333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>589.2833333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>584</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>594</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7642,24 +8283,27 @@
         <v>665.4</v>
       </c>
       <c r="G180" t="n">
+        <v>589.6</v>
+      </c>
+      <c r="H180" t="n">
         <v>589.45</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>584</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>594</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7683,24 +8327,27 @@
         <v>125.215</v>
       </c>
       <c r="G181" t="n">
+        <v>589.7333333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>589.4166666666666</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>584</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>594</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7724,24 +8371,27 @@
         <v>1</v>
       </c>
       <c r="G182" t="n">
+        <v>589.6666666666666</v>
+      </c>
+      <c r="H182" t="n">
         <v>589.45</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>584</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>594</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7765,24 +8415,27 @@
         <v>3.032</v>
       </c>
       <c r="G183" t="n">
+        <v>589.7333333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>589.5</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>584</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>594</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7806,24 +8459,27 @@
         <v>93.2381</v>
       </c>
       <c r="G184" t="n">
+        <v>590.3333333333334</v>
+      </c>
+      <c r="H184" t="n">
         <v>589.5333333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>584</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>594</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7847,24 +8503,27 @@
         <v>544.1952</v>
       </c>
       <c r="G185" t="n">
+        <v>591.1333333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>589.5666666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>584</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>594</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7888,24 +8547,27 @@
         <v>629.3141000000001</v>
       </c>
       <c r="G186" t="n">
+        <v>591.6666666666666</v>
+      </c>
+      <c r="H186" t="n">
         <v>589.8</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>584</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>594</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7929,24 +8591,27 @@
         <v>619</v>
       </c>
       <c r="G187" t="n">
+        <v>592.2</v>
+      </c>
+      <c r="H187" t="n">
         <v>590.0166666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>584</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>594</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7970,24 +8635,27 @@
         <v>103.5181</v>
       </c>
       <c r="G188" t="n">
+        <v>592.7333333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>590.15</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>584</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>594</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8011,24 +8679,27 @@
         <v>546</v>
       </c>
       <c r="G189" t="n">
+        <v>593.3333333333334</v>
+      </c>
+      <c r="H189" t="n">
         <v>590.3166666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>584</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>594</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8052,24 +8723,27 @@
         <v>124.1525</v>
       </c>
       <c r="G190" t="n">
+        <v>593.8666666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>590.4833333333333</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>584</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>594</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8093,24 +8767,27 @@
         <v>11</v>
       </c>
       <c r="G191" t="n">
+        <v>594.4666666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>590.6666666666666</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>584</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>594</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8134,24 +8811,27 @@
         <v>1</v>
       </c>
       <c r="G192" t="n">
+        <v>595.6666666666666</v>
+      </c>
+      <c r="H192" t="n">
         <v>591.0833333333334</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>584</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>594</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8175,24 +8855,27 @@
         <v>1061.7059</v>
       </c>
       <c r="G193" t="n">
+        <v>596.8</v>
+      </c>
+      <c r="H193" t="n">
         <v>591.4666666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>584</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>594</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8216,24 +8899,27 @@
         <v>354.8619</v>
       </c>
       <c r="G194" t="n">
+        <v>597.9333333333333</v>
+      </c>
+      <c r="H194" t="n">
         <v>591.75</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>584</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>594</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8257,24 +8943,27 @@
         <v>275</v>
       </c>
       <c r="G195" t="n">
+        <v>599.3333333333334</v>
+      </c>
+      <c r="H195" t="n">
         <v>592.2166666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>584</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>594</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8298,24 +8987,27 @@
         <v>507.9999</v>
       </c>
       <c r="G196" t="n">
+        <v>600.9333333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>592.7</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>584</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>594</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8339,25 +9031,28 @@
         <v>1521.7329</v>
       </c>
       <c r="G197" t="n">
+        <v>602.1333333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>593.0166666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>584</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1.039520547945206</v>
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>594</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -8380,18 +9075,27 @@
         <v>1033.1603</v>
       </c>
       <c r="G198" t="n">
+        <v>603.6666666666666</v>
+      </c>
+      <c r="H198" t="n">
         <v>593.5</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>594</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8415,18 +9119,27 @@
         <v>191.922</v>
       </c>
       <c r="G199" t="n">
+        <v>605.2666666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>593.9333333333333</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>594</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8450,18 +9163,27 @@
         <v>2109.7525</v>
       </c>
       <c r="G200" t="n">
+        <v>606.7333333333333</v>
+      </c>
+      <c r="H200" t="n">
         <v>594.3833333333333</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>594</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8485,18 +9207,27 @@
         <v>477.05</v>
       </c>
       <c r="G201" t="n">
+        <v>608.2</v>
+      </c>
+      <c r="H201" t="n">
         <v>594.8666666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>594</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8520,18 +9251,27 @@
         <v>4082.1407</v>
       </c>
       <c r="G202" t="n">
+        <v>609.5333333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>595.35</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>594</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8555,18 +9295,27 @@
         <v>1596.3464</v>
       </c>
       <c r="G203" t="n">
+        <v>610.8666666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>595.8833333333333</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>594</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8590,18 +9339,27 @@
         <v>3078.2012</v>
       </c>
       <c r="G204" t="n">
+        <v>612.1333333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>596.4166666666666</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>594</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8625,18 +9383,27 @@
         <v>875.8796</v>
       </c>
       <c r="G205" t="n">
+        <v>613.4666666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>596.9</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>594</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8660,18 +9427,27 @@
         <v>1110</v>
       </c>
       <c r="G206" t="n">
+        <v>614.6666666666666</v>
+      </c>
+      <c r="H206" t="n">
         <v>597.3166666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>594</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8695,18 +9471,27 @@
         <v>1091.9183</v>
       </c>
       <c r="G207" t="n">
+        <v>615.1333333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>597.7</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>594</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8730,18 +9515,27 @@
         <v>247.775</v>
       </c>
       <c r="G208" t="n">
+        <v>615.6</v>
+      </c>
+      <c r="H208" t="n">
         <v>598.0833333333334</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>594</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8765,19 +9559,28 @@
         <v>212.5</v>
       </c>
       <c r="G209" t="n">
+        <v>616.2666666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>598.4666666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
+      <c r="L209" t="n">
+        <v>594</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>1.037087542087542</v>
       </c>
     </row>
     <row r="210">
@@ -8800,18 +9603,21 @@
         <v>155.3961</v>
       </c>
       <c r="G210" t="n">
+        <v>617.1333333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>598.9833333333333</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8835,18 +9641,21 @@
         <v>643.8552</v>
       </c>
       <c r="G211" t="n">
+        <v>617.4666666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>599.5166666666667</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8870,18 +9679,21 @@
         <v>329.7348</v>
       </c>
       <c r="G212" t="n">
+        <v>618.5333333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>600.0333333333333</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8905,18 +9717,21 @@
         <v>161.983</v>
       </c>
       <c r="G213" t="n">
+        <v>618.4</v>
+      </c>
+      <c r="H213" t="n">
         <v>600.45</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8940,18 +9755,21 @@
         <v>1214.3454</v>
       </c>
       <c r="G214" t="n">
+        <v>618.0666666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>600.85</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8975,18 +9793,21 @@
         <v>1</v>
       </c>
       <c r="G215" t="n">
+        <v>618</v>
+      </c>
+      <c r="H215" t="n">
         <v>601.35</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9010,18 +9831,21 @@
         <v>1</v>
       </c>
       <c r="G216" t="n">
+        <v>617.8666666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>601.7333333333333</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9045,18 +9869,21 @@
         <v>226</v>
       </c>
       <c r="G217" t="n">
+        <v>616.9333333333333</v>
+      </c>
+      <c r="H217" t="n">
         <v>602</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9080,18 +9907,21 @@
         <v>74.5</v>
       </c>
       <c r="G218" t="n">
+        <v>616.1333333333333</v>
+      </c>
+      <c r="H218" t="n">
         <v>602.3333333333334</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9115,18 +9945,21 @@
         <v>3891.9319</v>
       </c>
       <c r="G219" t="n">
+        <v>615.1333333333333</v>
+      </c>
+      <c r="H219" t="n">
         <v>602.55</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9150,18 +9983,21 @@
         <v>267.9729</v>
       </c>
       <c r="G220" t="n">
+        <v>615.1333333333333</v>
+      </c>
+      <c r="H220" t="n">
         <v>603.1166666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9185,18 +10021,21 @@
         <v>183.2273</v>
       </c>
       <c r="G221" t="n">
+        <v>615.2</v>
+      </c>
+      <c r="H221" t="n">
         <v>603.6</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9220,18 +10059,21 @@
         <v>79.2</v>
       </c>
       <c r="G222" t="n">
+        <v>614.5333333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>603.8666666666667</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9255,18 +10097,21 @@
         <v>124.527</v>
       </c>
       <c r="G223" t="n">
+        <v>613.8</v>
+      </c>
+      <c r="H223" t="n">
         <v>604.1166666666667</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9290,18 +10135,21 @@
         <v>1</v>
       </c>
       <c r="G224" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="H224" t="n">
         <v>604.4333333333333</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9325,18 +10173,21 @@
         <v>100</v>
       </c>
       <c r="G225" t="n">
+        <v>612.2</v>
+      </c>
+      <c r="H225" t="n">
         <v>604.5666666666667</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9360,18 +10211,21 @@
         <v>100</v>
       </c>
       <c r="G226" t="n">
+        <v>611.4</v>
+      </c>
+      <c r="H226" t="n">
         <v>604.8833333333333</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9395,18 +10249,21 @@
         <v>100</v>
       </c>
       <c r="G227" t="n">
+        <v>610.0666666666667</v>
+      </c>
+      <c r="H227" t="n">
         <v>605.1</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9430,18 +10287,21 @@
         <v>132.54</v>
       </c>
       <c r="G228" t="n">
+        <v>609.6</v>
+      </c>
+      <c r="H228" t="n">
         <v>605.35</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9465,18 +10325,21 @@
         <v>92.273</v>
       </c>
       <c r="G229" t="n">
+        <v>609.2</v>
+      </c>
+      <c r="H229" t="n">
         <v>605.7166666666667</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9500,18 +10363,21 @@
         <v>159.733</v>
       </c>
       <c r="G230" t="n">
+        <v>608.4666666666667</v>
+      </c>
+      <c r="H230" t="n">
         <v>606.0833333333334</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9535,18 +10401,21 @@
         <v>157.9999</v>
       </c>
       <c r="G231" t="n">
+        <v>607.8666666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>606.4</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9570,18 +10439,21 @@
         <v>434</v>
       </c>
       <c r="G232" t="n">
+        <v>608.0666666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>606.6833333333333</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9605,18 +10477,21 @@
         <v>41.5002</v>
       </c>
       <c r="G233" t="n">
+        <v>608.2</v>
+      </c>
+      <c r="H233" t="n">
         <v>606.9833333333333</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9640,18 +10515,401 @@
         <v>285.0511</v>
       </c>
       <c r="G234" t="n">
+        <v>608.5333333333333</v>
+      </c>
+      <c r="H234" t="n">
         <v>607.2833333333333</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>608</v>
+      </c>
+      <c r="C235" t="n">
+        <v>607</v>
+      </c>
+      <c r="D235" t="n">
+        <v>608</v>
+      </c>
+      <c r="E235" t="n">
+        <v>607</v>
+      </c>
+      <c r="F235" t="n">
+        <v>364</v>
+      </c>
+      <c r="G235" t="n">
+        <v>607.7333333333333</v>
+      </c>
+      <c r="H235" t="n">
+        <v>607.55</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>608</v>
+      </c>
+      <c r="C236" t="n">
+        <v>606</v>
+      </c>
+      <c r="D236" t="n">
+        <v>608</v>
+      </c>
+      <c r="E236" t="n">
+        <v>606</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2935.0991</v>
+      </c>
+      <c r="G236" t="n">
+        <v>606.8666666666667</v>
+      </c>
+      <c r="H236" t="n">
+        <v>607.8</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>606</v>
+      </c>
+      <c r="C237" t="n">
+        <v>606</v>
+      </c>
+      <c r="D237" t="n">
+        <v>606</v>
+      </c>
+      <c r="E237" t="n">
+        <v>606</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1593.6143</v>
+      </c>
+      <c r="G237" t="n">
+        <v>606.8666666666667</v>
+      </c>
+      <c r="H237" t="n">
+        <v>608.05</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>606</v>
+      </c>
+      <c r="C238" t="n">
+        <v>606</v>
+      </c>
+      <c r="D238" t="n">
+        <v>606</v>
+      </c>
+      <c r="E238" t="n">
+        <v>606</v>
+      </c>
+      <c r="F238" t="n">
+        <v>707.2184</v>
+      </c>
+      <c r="G238" t="n">
+        <v>606.9333333333333</v>
+      </c>
+      <c r="H238" t="n">
+        <v>608.2833333333333</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>607</v>
+      </c>
+      <c r="C239" t="n">
+        <v>607</v>
+      </c>
+      <c r="D239" t="n">
+        <v>607</v>
+      </c>
+      <c r="E239" t="n">
+        <v>606</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2178.3855</v>
+      </c>
+      <c r="G239" t="n">
+        <v>606.3333333333334</v>
+      </c>
+      <c r="H239" t="n">
+        <v>608.5333333333333</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>606</v>
+      </c>
+      <c r="C240" t="n">
+        <v>606</v>
+      </c>
+      <c r="D240" t="n">
+        <v>606</v>
+      </c>
+      <c r="E240" t="n">
+        <v>606</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.3219</v>
+      </c>
+      <c r="G240" t="n">
+        <v>606.4</v>
+      </c>
+      <c r="H240" t="n">
+        <v>608.7666666666667</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>609</v>
+      </c>
+      <c r="C241" t="n">
+        <v>609</v>
+      </c>
+      <c r="D241" t="n">
+        <v>609</v>
+      </c>
+      <c r="E241" t="n">
+        <v>609</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1</v>
+      </c>
+      <c r="G241" t="n">
+        <v>606.6666666666666</v>
+      </c>
+      <c r="H241" t="n">
+        <v>609.1166666666667</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>605</v>
+      </c>
+      <c r="C242" t="n">
+        <v>603</v>
+      </c>
+      <c r="D242" t="n">
+        <v>605</v>
+      </c>
+      <c r="E242" t="n">
+        <v>603</v>
+      </c>
+      <c r="F242" t="n">
+        <v>922.8973</v>
+      </c>
+      <c r="G242" t="n">
+        <v>606.4666666666667</v>
+      </c>
+      <c r="H242" t="n">
+        <v>609.3</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>606</v>
+      </c>
+      <c r="C243" t="n">
+        <v>606</v>
+      </c>
+      <c r="D243" t="n">
+        <v>606</v>
+      </c>
+      <c r="E243" t="n">
+        <v>606</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1</v>
+      </c>
+      <c r="G243" t="n">
+        <v>606.4666666666667</v>
+      </c>
+      <c r="H243" t="n">
+        <v>609.5333333333333</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>597</v>
+      </c>
+      <c r="C244" t="n">
+        <v>596</v>
+      </c>
+      <c r="D244" t="n">
+        <v>597</v>
+      </c>
+      <c r="E244" t="n">
+        <v>596</v>
+      </c>
+      <c r="F244" t="n">
+        <v>418.3295</v>
+      </c>
+      <c r="G244" t="n">
+        <v>605.8</v>
+      </c>
+      <c r="H244" t="n">
+        <v>609.5833333333334</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-18 BackTest GXC.xlsx
+++ b/BackTest/2019-10-18 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N302"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-3625.36945292</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>-2682.79645292</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>578</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>579</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>580</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +601,21 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>580</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +640,21 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>580</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +679,21 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>580</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +718,21 @@
         <v>-3111.45025292</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>580</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +757,21 @@
         <v>-1851.25115292</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>574</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +796,21 @@
         <v>-1847.80287706</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
         <v>576</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +835,21 @@
         <v>-1847.80287706</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>580</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,24 +874,19 @@
         <v>-2669.33457706</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>580</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,24 +911,21 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>572</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -996,24 +950,21 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>580</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,24 +989,21 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>580</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1080,24 +1028,21 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>580</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1122,24 +1067,21 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>580</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1164,24 +1106,21 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>580</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1206,24 +1145,21 @@
         <v>-4445.29487706</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>580</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1248,24 +1184,21 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
         <v>579</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1290,24 +1223,21 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>580</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1332,24 +1262,21 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>580</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1374,24 +1301,21 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>580</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1416,24 +1340,21 @@
         <v>-4342.29487706</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>580</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1458,24 +1379,21 @@
         <v>-4557.96487706</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
         <v>579</v>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1500,24 +1418,19 @@
         <v>-4517.23097706</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>578</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1542,24 +1455,19 @@
         <v>-5003.01067706</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>580</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1584,24 +1492,19 @@
         <v>-4973.15117706</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>571</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1626,24 +1529,19 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>578</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1668,24 +1566,19 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>580</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1710,24 +1603,19 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>580</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1752,24 +1640,19 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>580</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1794,24 +1677,19 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>580</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1836,24 +1714,19 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>580</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1878,24 +1751,19 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>580</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1920,24 +1788,19 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>580</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1962,24 +1825,21 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>580</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2004,24 +1864,21 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>580</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2046,24 +1903,21 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>580</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2088,24 +1942,21 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>580</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2130,24 +1981,21 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>580</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2172,24 +2020,21 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>580</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2214,24 +2059,21 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>580</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2256,24 +2098,21 @@
         <v>-4936.43807706</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>580</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>580</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2298,22 +2137,21 @@
         <v>-5312.43797706</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2338,24 +2176,21 @@
         <v>2239.51782294</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
         <v>583</v>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2380,22 +2215,21 @@
         <v>2242.31342294</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2422,20 +2256,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2460,22 +2291,21 @@
         <v>2242.31342294</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2502,20 +2332,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2540,22 +2367,21 @@
         <v>4887.31592294</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2580,22 +2406,21 @@
         <v>5537.31592294</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2622,20 +2447,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2660,22 +2482,21 @@
         <v>5777.31592294</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2702,20 +2523,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2740,22 +2558,21 @@
         <v>5151.833622939999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2782,20 +2599,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2822,20 +2636,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2860,22 +2671,21 @@
         <v>4498.434722939999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2900,22 +2710,21 @@
         <v>4107.419922939999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2940,22 +2749,21 @@
         <v>2934.527622939999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2980,22 +2788,21 @@
         <v>2941.330922939999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3020,22 +2827,21 @@
         <v>2941.330922939999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3060,22 +2866,21 @@
         <v>2941.330922939999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3100,22 +2905,21 @@
         <v>2941.330922939999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3140,22 +2944,21 @@
         <v>2941.330922939999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3180,22 +2983,21 @@
         <v>2952.330922939999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3220,22 +3022,21 @@
         <v>2947.271522939999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3260,22 +3061,21 @@
         <v>2873.298522939999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3300,22 +3100,21 @@
         <v>2447.133522939999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3340,22 +3139,21 @@
         <v>7514.121822939999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3380,22 +3178,21 @@
         <v>6998.700322939999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3420,22 +3217,21 @@
         <v>6748.700322939999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3460,22 +3256,21 @@
         <v>6918.838322939999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3500,22 +3295,21 @@
         <v>8022.838322939999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3540,22 +3334,21 @@
         <v>8022.838322939999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3580,22 +3373,21 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3620,22 +3412,21 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3662,20 +3453,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3702,20 +3490,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3740,22 +3525,21 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3780,22 +3564,21 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3820,22 +3603,21 @@
         <v>9529.423222939999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3860,22 +3642,21 @@
         <v>9529.423222939999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3902,20 +3683,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3940,22 +3718,21 @@
         <v>9531.138488799999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3982,20 +3759,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4022,20 +3796,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4060,22 +3831,21 @@
         <v>9545.138488799999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4102,20 +3872,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4142,20 +3909,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4182,20 +3946,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4222,20 +3983,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4262,20 +4020,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4302,20 +4057,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4342,20 +4094,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4382,20 +4131,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4420,22 +4166,19 @@
         <v>6036.3551888</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4462,20 +4205,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4500,22 +4240,19 @@
         <v>6128.6343888</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4542,20 +4279,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4580,22 +4314,19 @@
         <v>6128.6343888</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4622,20 +4353,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4660,22 +4388,19 @@
         <v>6642.5905888</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4702,20 +4427,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4742,20 +4464,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4782,20 +4501,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4822,20 +4538,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4862,20 +4575,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4902,20 +4612,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4942,20 +4649,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4982,20 +4686,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5022,20 +4723,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5062,20 +4760,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5102,20 +4797,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5142,20 +4834,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5182,20 +4871,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5222,20 +4908,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5262,20 +4945,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5302,20 +4982,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5342,20 +5019,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5382,20 +5056,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5422,20 +5093,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5460,22 +5128,19 @@
         <v>7509.396617869998</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5502,20 +5167,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5540,22 +5202,21 @@
         <v>7509.396617869998</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5580,22 +5241,21 @@
         <v>7509.396617869998</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5620,22 +5280,19 @@
         <v>7430.396617869998</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5660,22 +5317,21 @@
         <v>7500.055517869999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5700,22 +5356,21 @@
         <v>7500.055517869999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5740,22 +5395,21 @@
         <v>7500.055517869999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5780,22 +5434,19 @@
         <v>7500.055517869999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5820,22 +5471,19 @@
         <v>7500.055517869999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5860,22 +5508,21 @@
         <v>7500.055517869999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5900,22 +5547,21 @@
         <v>7677.724217869999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5940,22 +5586,19 @@
         <v>7464.704217869999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5980,22 +5623,21 @@
         <v>7464.704217869999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6022,20 +5664,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6060,22 +5699,19 @@
         <v>7542.737917869998</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6100,22 +5736,19 @@
         <v>6867.782417869998</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6140,22 +5773,19 @@
         <v>6867.782417869998</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6180,22 +5810,19 @@
         <v>6867.782417869998</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6220,22 +5847,19 @@
         <v>6870.404901089998</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6260,22 +5884,19 @@
         <v>6586.736601089998</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6300,22 +5921,21 @@
         <v>6586.736601089998</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6340,22 +5960,21 @@
         <v>6588.624401089998</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6380,22 +5999,21 @@
         <v>6584.193301089998</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6420,22 +6038,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6460,22 +6077,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6500,22 +6116,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6540,22 +6155,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6580,22 +6194,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6620,22 +6233,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6660,22 +6272,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6700,22 +6311,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6740,22 +6350,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6780,22 +6389,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6820,22 +6428,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6860,22 +6467,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6900,22 +6506,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6940,22 +6545,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6980,22 +6584,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7020,22 +6623,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7060,22 +6662,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7100,22 +6701,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7140,22 +6740,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7180,22 +6779,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7220,22 +6818,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7260,22 +6857,21 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7300,22 +6896,21 @@
         <v>6348.035901089998</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7340,22 +6935,21 @@
         <v>6350.653401089999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7380,22 +6974,21 @@
         <v>6343.653401089999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7420,22 +7013,21 @@
         <v>6343.653401089999</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7460,22 +7052,21 @@
         <v>6754.450001089998</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7500,22 +7091,21 @@
         <v>6772.318801089998</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7540,22 +7130,21 @@
         <v>6772.318801089998</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7580,22 +7169,21 @@
         <v>6107.533401089999</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7620,22 +7208,21 @@
         <v>6122.155401089999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7660,22 +7247,21 @@
         <v>6122.155401089999</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7700,22 +7286,21 @@
         <v>6120.068901089999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7740,22 +7325,21 @@
         <v>6133.522101089999</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7780,22 +7364,21 @@
         <v>6145.950801089999</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7822,20 +7405,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7862,20 +7442,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7900,22 +7477,21 @@
         <v>6165.680001089999</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7940,22 +7516,21 @@
         <v>6145.376301089998</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7982,20 +7557,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8022,20 +7594,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8062,20 +7631,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8102,20 +7668,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8142,20 +7705,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8182,20 +7742,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8222,20 +7779,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8260,22 +7814,21 @@
         <v>5312.932601089999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8302,20 +7855,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8342,20 +7892,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8382,20 +7929,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8422,20 +7966,17 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8462,20 +8003,17 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8502,20 +8040,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8542,20 +8077,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8580,22 +8112,21 @@
         <v>4993.481101089998</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8622,20 +8153,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8662,20 +8190,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8702,20 +8227,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8742,20 +8264,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8782,20 +8301,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8822,20 +8338,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8862,20 +8375,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8902,20 +8412,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8942,20 +8449,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8982,20 +8486,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9022,20 +8523,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9062,20 +8560,17 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9102,20 +8597,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9142,20 +8634,17 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9182,20 +8671,17 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9222,20 +8708,17 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9262,20 +8745,17 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9302,20 +8782,17 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9342,20 +8819,17 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9382,20 +8856,17 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9422,20 +8893,17 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9462,20 +8930,17 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9502,20 +8967,17 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9542,20 +9004,17 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9582,20 +9041,17 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9622,20 +9078,17 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9662,20 +9115,17 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9702,20 +9152,17 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9742,20 +9189,17 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9782,20 +9226,17 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9820,22 +9261,19 @@
         <v>17684.38363818</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9862,20 +9300,17 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9902,20 +9337,17 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9942,20 +9374,17 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9982,20 +9411,17 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10022,20 +9448,17 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10062,20 +9485,17 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10102,20 +9522,17 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10142,20 +9559,17 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10182,20 +9596,17 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10222,20 +9633,17 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10262,20 +9670,17 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10302,20 +9707,17 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10342,20 +9744,17 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10382,20 +9781,17 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10422,20 +9818,17 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10462,20 +9855,17 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10502,20 +9892,17 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10542,20 +9929,17 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10582,20 +9966,17 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10622,20 +10003,17 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10662,20 +10040,17 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10702,20 +10077,17 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10742,20 +10114,17 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10782,20 +10151,17 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10822,20 +10188,17 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10862,20 +10225,17 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10902,20 +10262,17 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10942,18 +10299,17 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>1</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
       </c>
       <c r="M262" t="inlineStr"/>
-      <c r="N262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10978,18 +10334,17 @@
         <v>21188.19503817999</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -11016,16 +10371,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>1</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -11050,18 +10402,15 @@
         <v>18986.27673817999</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -11088,16 +10437,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>1</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -11122,18 +10468,15 @@
         <v>19198.77673817999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -11158,18 +10501,15 @@
         <v>19354.17283817999</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -11194,18 +10534,15 @@
         <v>18710.31763817999</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -11230,18 +10567,15 @@
         <v>19040.05243817999</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -11266,18 +10600,15 @@
         <v>18878.06943817999</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11302,18 +10633,15 @@
         <v>17663.72403817999</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11338,18 +10666,15 @@
         <v>17664.72403817999</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11374,18 +10699,15 @@
         <v>17664.72403817999</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11410,18 +10732,15 @@
         <v>17438.72403817999</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11448,16 +10767,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>1</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11482,18 +10798,15 @@
         <v>13621.29213817999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11518,18 +10831,15 @@
         <v>13889.26503817999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11554,18 +10864,15 @@
         <v>13889.26503817999</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11592,16 +10899,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>1</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11626,18 +10930,15 @@
         <v>13685.53803817999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11664,16 +10965,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11700,16 +10998,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11736,16 +11031,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11772,16 +11064,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11808,16 +11097,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11844,16 +11130,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11880,16 +11163,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>1</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11914,18 +11194,15 @@
         <v>13684.80493817999</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11950,18 +11227,15 @@
         <v>13684.80493817999</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11986,18 +11260,15 @@
         <v>13726.30513817999</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -12024,16 +11295,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -12058,18 +11326,15 @@
         <v>13362.30513817999</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -12094,18 +11359,15 @@
         <v>10427.20603817999</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -12130,18 +11392,15 @@
         <v>10427.20603817999</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -12168,16 +11427,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -12202,18 +11458,15 @@
         <v>12605.59153818</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -12238,18 +11491,15 @@
         <v>12605.26963817999</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -12274,18 +11524,15 @@
         <v>12606.26963817999</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -12312,16 +11559,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -12348,16 +11592,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -12384,18 +11625,15 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest GXC.xlsx
+++ b/BackTest/2019-10-18 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3625.36945292</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2682.79645292</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>578</v>
@@ -523,7 +523,7 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>579</v>
@@ -562,7 +562,7 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>580</v>
@@ -601,7 +601,7 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>580</v>
@@ -640,7 +640,7 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>580</v>
@@ -679,7 +679,7 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>580</v>
@@ -718,7 +718,7 @@
         <v>-3111.45025292</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>580</v>
@@ -757,7 +757,7 @@
         <v>-1851.25115292</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>574</v>
@@ -796,7 +796,7 @@
         <v>-1847.80287706</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>576</v>
@@ -835,7 +835,7 @@
         <v>-1847.80287706</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>580</v>
@@ -874,9 +874,11 @@
         <v>-2669.33457706</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>580</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -911,7 +913,7 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>572</v>
@@ -950,7 +952,7 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>580</v>
@@ -989,7 +991,7 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>580</v>
@@ -1028,7 +1030,7 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>580</v>
@@ -1067,7 +1069,7 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>580</v>
@@ -1106,7 +1108,7 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>580</v>
@@ -1145,7 +1147,7 @@
         <v>-4445.29487706</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>580</v>
@@ -1184,7 +1186,7 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>579</v>
@@ -1223,7 +1225,7 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>580</v>
@@ -1262,7 +1264,7 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>580</v>
@@ -1301,7 +1303,7 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>580</v>
@@ -1340,7 +1342,7 @@
         <v>-4342.29487706</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>580</v>
@@ -1379,7 +1381,7 @@
         <v>-4557.96487706</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>579</v>
@@ -1418,9 +1420,11 @@
         <v>-4517.23097706</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>578</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1455,9 +1459,11 @@
         <v>-5003.01067706</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>580</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1492,9 +1498,11 @@
         <v>-4973.15117706</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>571</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1529,9 +1537,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>578</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1566,9 +1576,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>580</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1603,9 +1615,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>580</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1640,9 +1654,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>580</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1677,9 +1693,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>580</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1714,9 +1732,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>580</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1751,9 +1771,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>580</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1788,9 +1810,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>580</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1825,7 +1849,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>580</v>
@@ -1864,7 +1888,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>580</v>
@@ -1903,7 +1927,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>580</v>
@@ -1942,7 +1966,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>580</v>
@@ -1981,7 +2005,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>580</v>
@@ -2020,7 +2044,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>580</v>
@@ -2059,7 +2083,7 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>580</v>
@@ -2098,7 +2122,7 @@
         <v>-4936.43807706</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>580</v>
@@ -2137,11 +2161,9 @@
         <v>-5312.43797706</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2176,11 +2198,9 @@
         <v>2239.51782294</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2215,11 +2235,9 @@
         <v>2242.31342294</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2291,11 +2309,9 @@
         <v>2242.31342294</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>592</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2367,11 +2383,9 @@
         <v>4887.31592294</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2406,11 +2420,9 @@
         <v>5537.31592294</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2482,11 +2494,9 @@
         <v>5777.31592294</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2558,11 +2568,9 @@
         <v>5151.833622939999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2671,11 +2679,9 @@
         <v>4498.434722939999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2710,11 +2716,9 @@
         <v>4107.419922939999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2749,11 +2753,9 @@
         <v>2934.527622939999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2788,11 +2790,9 @@
         <v>2941.330922939999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>584</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2827,11 +2827,9 @@
         <v>2941.330922939999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2866,11 +2864,9 @@
         <v>2941.330922939999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2905,11 +2901,9 @@
         <v>2941.330922939999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2944,11 +2938,9 @@
         <v>2941.330922939999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2983,11 +2975,9 @@
         <v>2952.330922939999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -3022,11 +3012,9 @@
         <v>2947.271522939999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3061,11 +3049,9 @@
         <v>2873.298522939999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3100,11 +3086,9 @@
         <v>2447.133522939999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3139,11 +3123,9 @@
         <v>7514.121822939999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3178,11 +3160,9 @@
         <v>6998.700322939999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3217,11 +3197,9 @@
         <v>6748.700322939999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>582</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3256,11 +3234,9 @@
         <v>6918.838322939999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>574</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3295,11 +3271,9 @@
         <v>8022.838322939999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3334,11 +3308,9 @@
         <v>8022.838322939999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>582</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3373,11 +3345,9 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>582</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3412,11 +3382,9 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>584</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3525,11 +3493,9 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>584</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3564,11 +3530,9 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>584</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3603,11 +3567,9 @@
         <v>9529.423222939999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>584</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3642,11 +3604,9 @@
         <v>9529.423222939999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>582</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3718,11 +3678,9 @@
         <v>9531.138488799999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3831,11 +3789,9 @@
         <v>9545.138488799999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>584</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -4166,7 +4122,7 @@
         <v>6036.3551888</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4240,7 +4196,7 @@
         <v>6128.6343888</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4314,7 +4270,7 @@
         <v>6128.6343888</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4388,7 +4344,7 @@
         <v>6642.5905888</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -5128,7 +5084,7 @@
         <v>7509.396617869998</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5202,11 +5158,9 @@
         <v>7509.396617869998</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5241,11 +5195,9 @@
         <v>7509.396617869998</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5280,7 +5232,7 @@
         <v>7430.396617869998</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5317,11 +5269,9 @@
         <v>7500.055517869999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5356,11 +5306,9 @@
         <v>7500.055517869999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5395,11 +5343,9 @@
         <v>7500.055517869999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5434,7 +5380,7 @@
         <v>7500.055517869999</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5471,7 +5417,7 @@
         <v>7500.055517869999</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5508,11 +5454,9 @@
         <v>7500.055517869999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5547,11 +5491,9 @@
         <v>7677.724217869999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5586,7 +5528,7 @@
         <v>7464.704217869999</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5623,11 +5565,9 @@
         <v>7464.704217869999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5699,7 +5639,7 @@
         <v>7542.737917869998</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5736,7 +5676,7 @@
         <v>6867.782417869998</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5773,7 +5713,7 @@
         <v>6867.782417869998</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5810,7 +5750,7 @@
         <v>6867.782417869998</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5847,7 +5787,7 @@
         <v>6870.404901089998</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5884,7 +5824,7 @@
         <v>6586.736601089998</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5921,11 +5861,9 @@
         <v>6586.736601089998</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5960,11 +5898,9 @@
         <v>6588.624401089998</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5999,11 +5935,9 @@
         <v>6584.193301089998</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -6038,11 +5972,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -6077,11 +6009,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -6116,11 +6046,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -6155,11 +6083,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -6194,11 +6120,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6233,11 +6157,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -6272,11 +6194,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6311,11 +6231,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6350,11 +6268,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -6389,11 +6305,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -6428,11 +6342,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -6467,11 +6379,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6506,11 +6416,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6545,11 +6453,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6584,11 +6490,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6623,11 +6527,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6662,11 +6564,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6701,11 +6601,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6740,11 +6638,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6779,11 +6675,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6818,11 +6712,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6857,11 +6749,9 @@
         <v>6628.035901089998</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6896,11 +6786,9 @@
         <v>6348.035901089998</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6935,11 +6823,9 @@
         <v>6350.653401089999</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6974,11 +6860,9 @@
         <v>6343.653401089999</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -7013,11 +6897,9 @@
         <v>6343.653401089999</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -7052,11 +6934,9 @@
         <v>6754.450001089998</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -7091,11 +6971,9 @@
         <v>6772.318801089998</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -7130,11 +7008,9 @@
         <v>6772.318801089998</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>592</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -7169,11 +7045,9 @@
         <v>6107.533401089999</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>592</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -7208,11 +7082,9 @@
         <v>6122.155401089999</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>582</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -7247,11 +7119,9 @@
         <v>6122.155401089999</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -7286,11 +7156,9 @@
         <v>6120.068901089999</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -7325,11 +7193,9 @@
         <v>6133.522101089999</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -7364,11 +7230,9 @@
         <v>6145.950801089999</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -7477,11 +7341,9 @@
         <v>6165.680001089999</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7516,11 +7378,9 @@
         <v>6145.376301089998</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7814,11 +7674,9 @@
         <v>5312.932601089999</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -8112,11 +7970,9 @@
         <v>4993.481101089998</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>586</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
@@ -9261,7 +9117,7 @@
         <v>17684.38363818</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -10334,16 +10190,18 @@
         <v>21188.19503817999</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L263" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
       <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
@@ -10373,7 +10231,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10402,11 +10264,15 @@
         <v>18986.27673817999</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10439,7 +10305,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10468,11 +10338,15 @@
         <v>19198.77673817999</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10501,11 +10375,15 @@
         <v>19354.17283817999</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10534,11 +10412,15 @@
         <v>18710.31763817999</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10567,11 +10449,15 @@
         <v>19040.05243817999</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10600,11 +10486,15 @@
         <v>18878.06943817999</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10633,14 +10523,16 @@
         <v>17663.72403817999</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
@@ -10666,7 +10558,7 @@
         <v>17664.72403817999</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10699,7 +10591,7 @@
         <v>17664.72403817999</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10732,7 +10624,7 @@
         <v>17438.72403817999</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10765,7 +10657,7 @@
         <v>17513.22403817999</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10798,7 +10690,7 @@
         <v>13621.29213817999</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10831,7 +10723,7 @@
         <v>13889.26503817999</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10864,7 +10756,7 @@
         <v>13889.26503817999</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10897,7 +10789,7 @@
         <v>13810.06503817999</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10930,7 +10822,7 @@
         <v>13685.53803817999</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10963,7 +10855,7 @@
         <v>13686.53803817999</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10996,7 +10888,7 @@
         <v>13586.53803817999</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11029,7 +10921,7 @@
         <v>13586.53803817999</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11062,7 +10954,7 @@
         <v>13686.53803817999</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11194,7 +11086,7 @@
         <v>13684.80493817999</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11227,7 +11119,7 @@
         <v>13684.80493817999</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11260,7 +11152,7 @@
         <v>13726.30513817999</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11326,7 +11218,7 @@
         <v>13362.30513817999</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11359,7 +11251,7 @@
         <v>10427.20603817999</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11392,7 +11284,7 @@
         <v>10427.20603817999</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11458,7 +11350,7 @@
         <v>12605.59153818</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11491,7 +11383,7 @@
         <v>12605.26963817999</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11524,7 +11416,7 @@
         <v>12606.26963817999</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11634,6 +11526,6 @@
       <c r="M302" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest GXC.xlsx
+++ b/BackTest/2019-10-18 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -601,11 +601,9 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -640,11 +638,9 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -679,11 +675,9 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -718,11 +712,9 @@
         <v>-3111.45025292</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -796,11 +788,9 @@
         <v>-1847.80287706</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>576</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -835,11 +825,9 @@
         <v>-1847.80287706</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -874,11 +862,9 @@
         <v>-2669.33457706</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -952,11 +938,9 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -991,11 +975,9 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1030,11 +1012,9 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1069,11 +1049,9 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1108,11 +1086,9 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1147,11 +1123,9 @@
         <v>-4445.29487706</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1186,11 +1160,9 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1225,11 +1197,9 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1264,11 +1234,9 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1303,11 +1271,9 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1342,11 +1308,9 @@
         <v>-4342.29487706</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1381,11 +1345,9 @@
         <v>-4557.96487706</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1420,11 +1382,9 @@
         <v>-4517.23097706</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1459,11 +1419,9 @@
         <v>-5003.01067706</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1576,11 +1534,9 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1693,11 +1649,9 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1732,11 +1686,9 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1771,11 +1723,9 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1810,11 +1760,9 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1849,11 +1797,9 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1888,11 +1834,9 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1927,11 +1871,9 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1966,11 +1908,9 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2005,11 +1945,9 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2044,11 +1982,9 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2383,18 +2319,16 @@
         <v>4887.31592294</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -2420,15 +2354,11 @@
         <v>5537.31592294</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2457,15 +2387,11 @@
         <v>5777.31592294</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2494,15 +2420,11 @@
         <v>5777.31592294</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2531,15 +2453,11 @@
         <v>4927.541022939999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2568,15 +2486,11 @@
         <v>5151.833622939999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2605,15 +2519,11 @@
         <v>4497.434722939999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2642,15 +2552,11 @@
         <v>4497.434722939999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2679,15 +2585,11 @@
         <v>4498.434722939999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2720,11 +2622,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2757,11 +2655,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2688,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2831,11 +2721,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2868,11 +2754,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2905,11 +2787,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2942,11 +2820,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2975,15 +2849,11 @@
         <v>2952.330922939999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3012,15 +2882,11 @@
         <v>2947.271522939999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3049,15 +2915,11 @@
         <v>2873.298522939999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3086,15 +2948,11 @@
         <v>2447.133522939999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3123,15 +2981,11 @@
         <v>7514.121822939999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3160,15 +3014,11 @@
         <v>6998.700322939999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3197,15 +3047,11 @@
         <v>6748.700322939999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3238,11 +3084,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3275,11 +3117,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3312,11 +3150,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3349,11 +3183,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3386,11 +3216,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3419,15 +3245,11 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3456,15 +3278,11 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3493,15 +3311,11 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3530,15 +3344,11 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3567,15 +3377,11 @@
         <v>9529.423222939999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3608,11 +3414,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3645,11 +3447,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3682,11 +3480,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3719,11 +3513,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3756,11 +3546,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3793,11 +3579,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3830,11 +3612,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3867,11 +3645,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3904,11 +3678,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3941,11 +3711,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3978,11 +3744,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +3777,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4052,11 +3810,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4089,11 +3843,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4126,11 +3876,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4163,11 +3909,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4200,11 +3942,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4237,11 +3975,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4274,11 +4008,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4311,11 +4041,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4348,11 +4074,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4385,11 +4107,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4422,11 +4140,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4459,11 +4173,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4496,11 +4206,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4533,11 +4239,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4570,11 +4272,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4607,11 +4305,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4644,11 +4338,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4681,11 +4371,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4718,11 +4404,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4755,11 +4437,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4792,11 +4470,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4829,11 +4503,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4866,11 +4536,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4903,11 +4569,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4940,11 +4602,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4977,11 +4635,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5014,11 +4668,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5051,11 +4701,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5088,11 +4734,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5125,11 +4767,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5162,11 +4800,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5199,11 +4833,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +4866,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5273,11 +4899,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5310,11 +4932,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5347,11 +4965,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5384,11 +4998,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5421,11 +5031,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5458,11 +5064,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5495,11 +5097,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5532,11 +5130,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5569,11 +5163,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5606,11 +5196,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5643,11 +5229,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5680,11 +5262,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5717,11 +5295,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5754,11 +5328,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5791,11 +5361,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5824,15 +5390,11 @@
         <v>6586.736601089998</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5861,15 +5423,11 @@
         <v>6586.736601089998</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5902,11 +5460,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5939,11 +5493,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5976,11 +5526,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6013,11 +5559,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6050,11 +5592,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6087,11 +5625,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6124,11 +5658,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6161,11 +5691,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6198,11 +5724,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6235,11 +5757,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6272,11 +5790,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6309,11 +5823,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6346,11 +5856,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6383,11 +5889,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6420,11 +5922,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +5955,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6494,11 +5988,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6531,11 +6021,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6568,11 +6054,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6605,11 +6087,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6642,11 +6120,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6679,11 +6153,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6716,11 +6186,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6753,11 +6219,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6790,11 +6252,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6827,11 +6285,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6864,11 +6318,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6901,11 +6351,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6938,11 +6384,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6975,11 +6417,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7012,11 +6450,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7049,11 +6483,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7086,11 +6516,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7123,11 +6549,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7160,11 +6582,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7197,11 +6615,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7234,11 +6648,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7271,11 +6681,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7308,11 +6714,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7345,11 +6747,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7382,11 +6780,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7419,11 +6813,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7456,11 +6846,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7493,11 +6879,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7530,11 +6912,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7567,11 +6945,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7604,11 +6978,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7641,11 +7011,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +7044,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7715,11 +7077,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7752,11 +7110,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7789,11 +7143,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7826,11 +7176,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7863,11 +7209,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7900,11 +7242,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7937,11 +7275,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7974,11 +7308,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8011,11 +7341,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8048,11 +7374,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8085,11 +7407,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8122,11 +7440,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8159,11 +7473,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8196,11 +7506,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8233,11 +7539,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8270,11 +7572,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8307,11 +7605,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8344,11 +7638,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8381,11 +7671,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8418,11 +7704,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8455,11 +7737,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8492,11 +7770,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8529,11 +7803,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8566,11 +7836,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8603,11 +7869,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8640,11 +7902,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8677,11 +7935,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8714,11 +7968,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8751,11 +8001,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8788,11 +8034,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8825,11 +8067,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8862,11 +8100,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +8133,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8936,11 +8166,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8973,11 +8199,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9010,11 +8232,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9047,11 +8265,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9084,11 +8298,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9121,11 +8331,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9154,15 +8360,11 @@
         <v>17684.38363818</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9195,11 +8397,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9232,11 +8430,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9269,11 +8463,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9306,11 +8496,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9343,11 +8529,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9380,11 +8562,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9417,11 +8595,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9454,11 +8628,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9487,15 +8657,11 @@
         <v>19187.91593817999</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9524,15 +8690,11 @@
         <v>19806.91593817999</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9561,15 +8723,11 @@
         <v>19806.91593817999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9598,15 +8756,11 @@
         <v>20352.91593817999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9635,15 +8789,11 @@
         <v>20352.91593817999</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9672,15 +8822,11 @@
         <v>20363.91593817999</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9709,15 +8855,11 @@
         <v>20364.91593817999</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9746,15 +8888,11 @@
         <v>20364.91593817999</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9787,11 +8925,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9824,11 +8958,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9861,11 +8991,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9898,11 +9024,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9935,11 +9057,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9968,15 +9086,11 @@
         <v>19835.26543817999</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10005,15 +9119,11 @@
         <v>19835.26543817999</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10042,15 +9152,11 @@
         <v>20312.31543817999</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10079,15 +9185,11 @@
         <v>20312.31543817999</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +9222,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10157,11 +9255,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10194,11 +9288,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10231,11 +9321,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10268,11 +9354,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10305,11 +9387,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10342,11 +9420,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10379,11 +9453,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10416,11 +9486,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10453,11 +9519,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10490,11 +9552,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10523,16 +9581,14 @@
         <v>17663.72403817999</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
       <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
@@ -10558,7 +9614,7 @@
         <v>17664.72403817999</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10591,7 +9647,7 @@
         <v>17664.72403817999</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10624,7 +9680,7 @@
         <v>17438.72403817999</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10657,7 +9713,7 @@
         <v>17513.22403817999</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10690,7 +9746,7 @@
         <v>13621.29213817999</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10723,7 +9779,7 @@
         <v>13889.26503817999</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10756,7 +9812,7 @@
         <v>13889.26503817999</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10789,7 +9845,7 @@
         <v>13810.06503817999</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10822,7 +9878,7 @@
         <v>13685.53803817999</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10855,7 +9911,7 @@
         <v>13686.53803817999</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10888,7 +9944,7 @@
         <v>13586.53803817999</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10921,7 +9977,7 @@
         <v>13586.53803817999</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10954,7 +10010,7 @@
         <v>13686.53803817999</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11526,6 +10582,6 @@
       <c r="M302" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest GXC.xlsx
+++ b/BackTest/2019-10-18 BackTest GXC.xlsx
@@ -675,9 +675,11 @@
         <v>-1859.11715292</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>580</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -788,9 +790,11 @@
         <v>-1847.80287706</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>576</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -825,9 +829,11 @@
         <v>-1847.80287706</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>580</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -862,9 +868,11 @@
         <v>-2669.33457706</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>580</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -938,9 +946,11 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>580</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -975,9 +985,11 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>580</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1012,9 +1024,11 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>580</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1049,9 +1063,11 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>580</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1086,9 +1102,11 @@
         <v>-2018.33457706</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>580</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1123,9 +1141,11 @@
         <v>-4445.29487706</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>580</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1160,9 +1180,11 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>579</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1197,9 +1219,11 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>580</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1234,9 +1258,11 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>580</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1271,9 +1297,11 @@
         <v>-3241.29487706</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>580</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1308,9 +1336,11 @@
         <v>-4342.29487706</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>580</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1345,9 +1375,11 @@
         <v>-4557.96487706</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>579</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1382,9 +1414,11 @@
         <v>-4517.23097706</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>578</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1419,9 +1453,11 @@
         <v>-5003.01067706</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>580</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1534,9 +1570,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>580</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1649,9 +1687,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>580</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1686,9 +1726,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>580</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1723,9 +1765,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>580</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1760,9 +1804,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>580</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1797,9 +1843,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>580</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1834,9 +1882,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>580</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1871,9 +1921,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>580</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1908,9 +1960,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>580</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1945,9 +1999,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>580</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -1982,9 +2038,11 @@
         <v>-4937.43807706</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>580</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2097,9 +2155,11 @@
         <v>-5312.43797706</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>590</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2134,9 +2194,11 @@
         <v>2239.51782294</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>583</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2171,9 +2233,11 @@
         <v>2242.31342294</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>590</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2319,16 +2383,18 @@
         <v>4887.31592294</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
       <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -2354,11 +2420,15 @@
         <v>5537.31592294</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2387,11 +2457,15 @@
         <v>5777.31592294</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2420,11 +2494,15 @@
         <v>5777.31592294</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2453,11 +2531,15 @@
         <v>4927.541022939999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2486,11 +2568,15 @@
         <v>5151.833622939999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2519,11 +2605,15 @@
         <v>4497.434722939999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2552,11 +2642,15 @@
         <v>4497.434722939999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2585,11 +2679,15 @@
         <v>4498.434722939999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2622,7 +2720,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2655,7 +2757,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2688,7 +2794,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2721,7 +2831,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2754,7 +2868,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2787,7 +2905,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2820,7 +2942,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2849,11 +2975,15 @@
         <v>2952.330922939999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2882,11 +3012,15 @@
         <v>2947.271522939999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2915,11 +3049,15 @@
         <v>2873.298522939999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2948,11 +3086,15 @@
         <v>2447.133522939999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2981,11 +3123,15 @@
         <v>7514.121822939999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3014,11 +3160,15 @@
         <v>6998.700322939999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3047,11 +3197,15 @@
         <v>6748.700322939999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3084,7 +3238,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3117,7 +3275,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3150,7 +3312,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3183,7 +3349,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3216,7 +3386,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3245,11 +3419,15 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3278,11 +3456,15 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3311,11 +3493,15 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3344,11 +3530,15 @@
         <v>9697.255222939999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3377,11 +3567,15 @@
         <v>9529.423222939999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3414,7 +3608,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3447,7 +3645,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3480,7 +3682,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3513,7 +3719,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3546,7 +3756,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3579,7 +3793,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3612,7 +3830,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3645,7 +3867,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3678,7 +3904,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3711,7 +3941,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3744,7 +3978,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3777,7 +4015,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3810,7 +4052,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3843,7 +4089,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3876,7 +4126,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3909,7 +4163,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3942,7 +4200,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3975,7 +4237,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4008,7 +4274,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4041,7 +4311,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4074,7 +4348,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4107,7 +4385,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4140,7 +4422,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4173,7 +4459,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4206,7 +4496,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4239,7 +4533,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4272,7 +4570,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4305,7 +4607,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4338,7 +4644,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4371,7 +4681,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4404,7 +4718,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4437,7 +4755,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4470,7 +4792,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4503,7 +4829,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4536,7 +4866,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4569,7 +4903,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4602,7 +4940,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4635,7 +4977,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4668,7 +5014,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4701,7 +5051,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4734,7 +5088,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4767,7 +5125,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4800,7 +5162,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4833,7 +5199,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4866,7 +5236,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4899,7 +5273,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4932,7 +5310,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4965,7 +5347,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4998,7 +5384,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5031,7 +5421,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5064,7 +5458,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5097,7 +5495,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5130,7 +5532,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5163,7 +5569,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5196,7 +5606,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5229,7 +5643,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5262,7 +5680,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5295,7 +5717,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5328,7 +5754,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5361,7 +5791,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5390,11 +5824,15 @@
         <v>6586.736601089998</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5423,11 +5861,15 @@
         <v>6586.736601089998</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5460,7 +5902,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5493,7 +5939,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5526,7 +5976,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5559,7 +6013,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5592,7 +6050,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5625,7 +6087,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5658,7 +6124,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5691,7 +6161,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5724,7 +6198,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5757,7 +6235,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5790,7 +6272,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5823,7 +6309,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5856,7 +6346,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5889,7 +6383,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5922,7 +6420,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5955,7 +6457,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5988,7 +6494,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6021,7 +6531,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6054,7 +6568,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6087,7 +6605,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6120,7 +6642,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6153,7 +6679,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6186,7 +6716,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6219,7 +6753,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6252,7 +6790,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6285,7 +6827,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6318,7 +6864,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6351,7 +6901,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6384,7 +6938,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6417,7 +6975,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6450,7 +7012,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6483,7 +7049,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6516,7 +7086,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6549,7 +7123,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6582,7 +7160,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6615,7 +7197,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6648,7 +7234,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6681,7 +7271,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6714,7 +7308,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6747,7 +7345,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6780,7 +7382,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6813,7 +7419,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6846,7 +7456,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6879,7 +7493,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6912,7 +7530,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6945,7 +7567,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6978,7 +7604,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7011,7 +7641,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7044,7 +7678,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7077,7 +7715,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7110,7 +7752,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7143,7 +7789,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7176,7 +7826,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7209,7 +7863,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7242,7 +7900,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7275,7 +7937,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7308,7 +7974,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7341,7 +8011,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7374,7 +8048,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7407,7 +8085,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7440,7 +8122,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7473,7 +8159,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7506,7 +8196,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7539,7 +8233,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7572,7 +8270,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7605,7 +8307,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7638,7 +8344,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7671,7 +8381,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7704,7 +8418,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7737,7 +8455,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7770,7 +8492,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7803,7 +8529,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7836,7 +8566,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7869,7 +8603,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7902,7 +8640,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7935,7 +8677,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7968,7 +8714,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8001,7 +8751,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8034,7 +8788,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8067,7 +8825,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8100,7 +8862,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8133,7 +8899,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8166,7 +8936,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8199,7 +8973,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8232,7 +9010,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8265,7 +9047,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8298,7 +9084,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8331,7 +9121,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8360,11 +9154,15 @@
         <v>17684.38363818</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8397,7 +9195,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8430,7 +9232,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8463,7 +9269,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8496,7 +9306,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8529,7 +9343,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8562,7 +9380,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8595,7 +9417,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8628,7 +9454,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8657,11 +9487,15 @@
         <v>19187.91593817999</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8690,11 +9524,15 @@
         <v>19806.91593817999</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8723,11 +9561,15 @@
         <v>19806.91593817999</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8756,11 +9598,15 @@
         <v>20352.91593817999</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8789,11 +9635,15 @@
         <v>20352.91593817999</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8822,11 +9672,15 @@
         <v>20363.91593817999</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8855,11 +9709,15 @@
         <v>20364.91593817999</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8888,11 +9746,15 @@
         <v>20364.91593817999</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8925,7 +9787,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8958,7 +9824,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8991,7 +9861,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9024,7 +9898,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9057,7 +9935,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9086,11 +9968,15 @@
         <v>19835.26543817999</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9119,11 +10005,15 @@
         <v>19835.26543817999</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9152,11 +10042,15 @@
         <v>20312.31543817999</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9185,11 +10079,15 @@
         <v>20312.31543817999</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9218,14 +10116,16 @@
         <v>20312.31543817999</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
@@ -9251,7 +10151,7 @@
         <v>20312.31543817999</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9284,7 +10184,7 @@
         <v>21188.19503817999</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9317,7 +10217,7 @@
         <v>20078.19503817999</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9350,7 +10250,7 @@
         <v>18986.27673817999</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9383,7 +10283,7 @@
         <v>18986.27673817999</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9416,7 +10316,7 @@
         <v>19198.77673817999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9449,7 +10349,7 @@
         <v>19354.17283817999</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9482,7 +10382,7 @@
         <v>18710.31763817999</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9515,7 +10415,7 @@
         <v>19040.05243817999</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9548,7 +10448,7 @@
         <v>18878.06943817999</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9581,7 +10481,7 @@
         <v>17663.72403817999</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9614,7 +10514,7 @@
         <v>17664.72403817999</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9647,7 +10547,7 @@
         <v>17664.72403817999</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9680,7 +10580,7 @@
         <v>17438.72403817999</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9812,7 +10712,7 @@
         <v>13889.26503817999</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9845,7 +10745,7 @@
         <v>13810.06503817999</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9878,7 +10778,7 @@
         <v>13685.53803817999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9944,7 +10844,7 @@
         <v>13586.53803817999</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9977,7 +10877,7 @@
         <v>13586.53803817999</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10208,7 +11108,7 @@
         <v>13726.30513817999</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
